--- a/database/industries/shoyande/shegol/product/monthly.xlsx
+++ b/database/industries/shoyande/shegol/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4489DE-9179-4534-981B-4DCFF4434A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532096FB-2CB9-466B-AD71-A0171ABE3457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="78">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 11 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 11 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/09</t>
   </si>
   <si>
     <t>صابون</t>
@@ -1412,154 +1412,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>614</v>
+        <v>658</v>
       </c>
       <c r="F11" s="11">
-        <v>658</v>
+        <v>551</v>
       </c>
       <c r="G11" s="11">
-        <v>551</v>
+        <v>705</v>
       </c>
       <c r="H11" s="11">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="I11" s="11">
-        <v>723</v>
+        <v>856</v>
       </c>
       <c r="J11" s="11">
-        <v>856</v>
+        <v>404</v>
       </c>
       <c r="K11" s="11">
-        <v>404</v>
+        <v>654</v>
       </c>
       <c r="L11" s="11">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="M11" s="11">
-        <v>638</v>
+        <v>1029</v>
       </c>
       <c r="N11" s="11">
-        <v>1029</v>
+        <v>980</v>
       </c>
       <c r="O11" s="11">
-        <v>980</v>
+        <v>997</v>
       </c>
       <c r="P11" s="11">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="Q11" s="11">
-        <v>979</v>
+        <v>420</v>
       </c>
       <c r="R11" s="11">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="S11" s="11">
-        <v>414</v>
+        <v>832</v>
       </c>
       <c r="T11" s="11">
-        <v>832</v>
+        <v>865</v>
       </c>
       <c r="U11" s="11">
-        <v>865</v>
+        <v>976</v>
       </c>
       <c r="V11" s="11">
-        <v>976</v>
+        <v>766</v>
       </c>
       <c r="W11" s="11">
-        <v>766</v>
+        <v>1225</v>
       </c>
       <c r="X11" s="11">
-        <v>1225</v>
+        <v>1021</v>
       </c>
       <c r="Y11" s="11">
-        <v>1021</v>
+        <v>1195</v>
       </c>
       <c r="Z11" s="11">
-        <v>1195</v>
+        <v>722</v>
       </c>
       <c r="AA11" s="11">
-        <v>722</v>
+        <v>878</v>
       </c>
       <c r="AB11" s="11">
-        <v>878</v>
+        <v>730</v>
       </c>
       <c r="AC11" s="11">
-        <v>730</v>
+        <v>1158</v>
       </c>
       <c r="AD11" s="11">
-        <v>1158</v>
+        <v>1187</v>
       </c>
       <c r="AE11" s="11">
-        <v>1187</v>
+        <v>716</v>
       </c>
       <c r="AF11" s="11">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="AG11" s="11">
-        <v>734</v>
+        <v>773</v>
       </c>
       <c r="AH11" s="11">
-        <v>773</v>
+        <v>521</v>
       </c>
       <c r="AI11" s="11">
-        <v>521</v>
+        <v>830</v>
       </c>
       <c r="AJ11" s="11">
-        <v>830</v>
+        <v>1055</v>
       </c>
       <c r="AK11" s="11">
-        <v>1055</v>
+        <v>879</v>
       </c>
       <c r="AL11" s="11">
-        <v>879</v>
+        <v>853</v>
       </c>
       <c r="AM11" s="11">
-        <v>853</v>
+        <v>825</v>
       </c>
       <c r="AN11" s="11">
-        <v>825</v>
+        <v>908</v>
       </c>
       <c r="AO11" s="11">
-        <v>908</v>
+        <v>655</v>
       </c>
       <c r="AP11" s="11">
-        <v>655</v>
+        <v>577</v>
       </c>
       <c r="AQ11" s="11">
-        <v>577</v>
+        <v>486</v>
       </c>
       <c r="AR11" s="11">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="AS11" s="11">
-        <v>597</v>
+        <v>760</v>
       </c>
       <c r="AT11" s="11">
-        <v>760</v>
+        <v>294</v>
       </c>
       <c r="AU11" s="11">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="AV11" s="11">
-        <v>337</v>
+        <v>697</v>
       </c>
       <c r="AW11" s="11">
-        <v>697</v>
+        <v>648</v>
       </c>
       <c r="AX11" s="11">
-        <v>648</v>
+        <v>359</v>
       </c>
       <c r="AY11" s="11">
-        <v>359</v>
+        <v>738</v>
       </c>
       <c r="AZ11" s="11">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BA11" s="11">
-        <v>733</v>
+        <v>842</v>
       </c>
       <c r="BB11" s="11">
-        <v>842</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1571,154 +1571,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>469</v>
+        <v>672</v>
       </c>
       <c r="F12" s="13">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="G12" s="13">
-        <v>686</v>
+        <v>935</v>
       </c>
       <c r="H12" s="13">
-        <v>935</v>
+        <v>777</v>
       </c>
       <c r="I12" s="13">
+        <v>774</v>
+      </c>
+      <c r="J12" s="13">
+        <v>433</v>
+      </c>
+      <c r="K12" s="13">
+        <v>725</v>
+      </c>
+      <c r="L12" s="13">
+        <v>623</v>
+      </c>
+      <c r="M12" s="13">
+        <v>652</v>
+      </c>
+      <c r="N12" s="13">
+        <v>750</v>
+      </c>
+      <c r="O12" s="13">
+        <v>762</v>
+      </c>
+      <c r="P12" s="13">
+        <v>504</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>508</v>
+      </c>
+      <c r="R12" s="13">
+        <v>779</v>
+      </c>
+      <c r="S12" s="13">
+        <v>439</v>
+      </c>
+      <c r="T12" s="13">
+        <v>884</v>
+      </c>
+      <c r="U12" s="13">
+        <v>1212</v>
+      </c>
+      <c r="V12" s="13">
+        <v>920</v>
+      </c>
+      <c r="W12" s="13">
+        <v>1421</v>
+      </c>
+      <c r="X12" s="13">
+        <v>1040</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>850</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>719</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>1178</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>819</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>1102</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>1216</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>972</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>1061</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>1239</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>611</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>1041</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>1006</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>958</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>758</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>919</v>
+      </c>
+      <c r="AN12" s="13">
         <v>777</v>
       </c>
-      <c r="J12" s="13">
-        <v>774</v>
-      </c>
-      <c r="K12" s="13">
-        <v>433</v>
-      </c>
-      <c r="L12" s="13">
-        <v>725</v>
-      </c>
-      <c r="M12" s="13">
-        <v>623</v>
-      </c>
-      <c r="N12" s="13">
-        <v>652</v>
-      </c>
-      <c r="O12" s="13">
-        <v>750</v>
-      </c>
-      <c r="P12" s="13">
-        <v>762</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>504</v>
-      </c>
-      <c r="R12" s="13">
-        <v>508</v>
-      </c>
-      <c r="S12" s="13">
-        <v>779</v>
-      </c>
-      <c r="T12" s="13">
-        <v>439</v>
-      </c>
-      <c r="U12" s="13">
-        <v>884</v>
-      </c>
-      <c r="V12" s="13">
-        <v>1212</v>
-      </c>
-      <c r="W12" s="13">
-        <v>920</v>
-      </c>
-      <c r="X12" s="13">
-        <v>1421</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>1040</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>850</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>719</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>1178</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>819</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>1102</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>1216</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>972</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>1061</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>1239</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>611</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>1041</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>1006</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>958</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>758</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>919</v>
-      </c>
       <c r="AO12" s="13">
-        <v>777</v>
+        <v>669</v>
       </c>
       <c r="AP12" s="13">
-        <v>669</v>
+        <v>1138</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1138</v>
+        <v>736</v>
       </c>
       <c r="AR12" s="13">
-        <v>736</v>
+        <v>560</v>
       </c>
       <c r="AS12" s="13">
-        <v>560</v>
+        <v>671</v>
       </c>
       <c r="AT12" s="13">
-        <v>671</v>
+        <v>281</v>
       </c>
       <c r="AU12" s="13">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="AV12" s="13">
-        <v>370</v>
+        <v>553</v>
       </c>
       <c r="AW12" s="13">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="AX12" s="13">
-        <v>616</v>
+        <v>212</v>
       </c>
       <c r="AY12" s="13">
-        <v>212</v>
+        <v>436</v>
       </c>
       <c r="AZ12" s="13">
-        <v>436</v>
+        <v>872</v>
       </c>
       <c r="BA12" s="13">
-        <v>872</v>
+        <v>426</v>
       </c>
       <c r="BB12" s="13">
-        <v>426</v>
+        <v>945</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1730,154 +1730,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="F13" s="11">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="G13" s="11">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="H13" s="11">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="I13" s="11">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="J13" s="11">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="K13" s="11">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="L13" s="11">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="M13" s="11">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c r="N13" s="11">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="O13" s="11">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="P13" s="11">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="11">
-        <v>440</v>
+        <v>351</v>
       </c>
       <c r="R13" s="11">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="S13" s="11">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="T13" s="11">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="U13" s="11">
+        <v>266</v>
+      </c>
+      <c r="V13" s="11">
+        <v>244</v>
+      </c>
+      <c r="W13" s="11">
         <v>349</v>
       </c>
-      <c r="V13" s="11">
-        <v>266</v>
-      </c>
-      <c r="W13" s="11">
-        <v>244</v>
-      </c>
       <c r="X13" s="11">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="Y13" s="11">
+        <v>400</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>220</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>259</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>188</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>297</v>
+      </c>
+      <c r="AD13" s="11">
         <v>293</v>
       </c>
-      <c r="Z13" s="11">
-        <v>400</v>
-      </c>
-      <c r="AA13" s="11">
+      <c r="AE13" s="11">
+        <v>270</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>272</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>230</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>156</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>256</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>282</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>367</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>273</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>309</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>340</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>302</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>165</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>153</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>77</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>38</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>43</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>49</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>245</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>202</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>194</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>253</v>
+      </c>
+      <c r="AZ13" s="11">
         <v>220</v>
       </c>
-      <c r="AB13" s="11">
-        <v>259</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>188</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>297</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>293</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>270</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>272</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>230</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>156</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>256</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>282</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>367</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>273</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>309</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>340</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>302</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>165</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>153</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>77</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>38</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>43</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>49</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>245</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>202</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>194</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>253</v>
-      </c>
       <c r="BA13" s="11">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="BB13" s="11">
-        <v>123</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1889,154 +1889,154 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>2066</v>
+        <v>2255</v>
       </c>
       <c r="F14" s="13">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="G14" s="13">
-        <v>2254</v>
+        <v>2931</v>
       </c>
       <c r="H14" s="13">
-        <v>2931</v>
+        <v>2996</v>
       </c>
       <c r="I14" s="13">
-        <v>2996</v>
+        <v>2935</v>
       </c>
       <c r="J14" s="13">
-        <v>2935</v>
+        <v>1398</v>
       </c>
       <c r="K14" s="13">
-        <v>1398</v>
+        <v>2463</v>
       </c>
       <c r="L14" s="13">
-        <v>2463</v>
+        <v>2193</v>
       </c>
       <c r="M14" s="13">
-        <v>2193</v>
+        <v>3260</v>
       </c>
       <c r="N14" s="13">
-        <v>3260</v>
+        <v>2076</v>
       </c>
       <c r="O14" s="13">
-        <v>2076</v>
+        <v>2705</v>
       </c>
       <c r="P14" s="13">
-        <v>2705</v>
+        <v>2126</v>
       </c>
       <c r="Q14" s="13">
-        <v>2126</v>
+        <v>1917</v>
       </c>
       <c r="R14" s="13">
-        <v>1917</v>
+        <v>3120</v>
       </c>
       <c r="S14" s="13">
-        <v>3120</v>
+        <v>2212</v>
       </c>
       <c r="T14" s="13">
-        <v>2212</v>
+        <v>2249</v>
       </c>
       <c r="U14" s="13">
-        <v>2249</v>
+        <v>3013</v>
       </c>
       <c r="V14" s="13">
-        <v>3013</v>
+        <v>1907</v>
       </c>
       <c r="W14" s="13">
-        <v>1907</v>
+        <v>3409</v>
       </c>
       <c r="X14" s="13">
-        <v>3409</v>
+        <v>2653</v>
       </c>
       <c r="Y14" s="13">
-        <v>2653</v>
+        <v>2198</v>
       </c>
       <c r="Z14" s="13">
-        <v>2198</v>
+        <v>1886</v>
       </c>
       <c r="AA14" s="13">
-        <v>1886</v>
+        <v>2921</v>
       </c>
       <c r="AB14" s="13">
-        <v>2921</v>
+        <v>1960</v>
       </c>
       <c r="AC14" s="13">
-        <v>1960</v>
+        <v>2956</v>
       </c>
       <c r="AD14" s="13">
-        <v>2956</v>
+        <v>3058</v>
       </c>
       <c r="AE14" s="13">
-        <v>3058</v>
+        <v>2460</v>
       </c>
       <c r="AF14" s="13">
-        <v>2460</v>
+        <v>2244</v>
       </c>
       <c r="AG14" s="13">
-        <v>2244</v>
+        <v>2483</v>
       </c>
       <c r="AH14" s="13">
-        <v>2483</v>
+        <v>1320</v>
       </c>
       <c r="AI14" s="13">
-        <v>1320</v>
+        <v>2480</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2480</v>
+        <v>2977</v>
       </c>
       <c r="AK14" s="13">
-        <v>2977</v>
+        <v>3089</v>
       </c>
       <c r="AL14" s="13">
-        <v>3089</v>
+        <v>2685</v>
       </c>
       <c r="AM14" s="13">
-        <v>2685</v>
+        <v>3135</v>
       </c>
       <c r="AN14" s="13">
-        <v>3135</v>
+        <v>2478</v>
       </c>
       <c r="AO14" s="13">
-        <v>2478</v>
+        <v>1757</v>
       </c>
       <c r="AP14" s="13">
-        <v>1757</v>
+        <v>3037</v>
       </c>
       <c r="AQ14" s="13">
-        <v>3037</v>
+        <v>1847</v>
       </c>
       <c r="AR14" s="13">
-        <v>1847</v>
+        <v>1504</v>
       </c>
       <c r="AS14" s="13">
-        <v>1504</v>
+        <v>1808</v>
       </c>
       <c r="AT14" s="13">
-        <v>1808</v>
+        <v>614</v>
       </c>
       <c r="AU14" s="13">
-        <v>614</v>
+        <v>699</v>
       </c>
       <c r="AV14" s="13">
-        <v>699</v>
+        <v>2187</v>
       </c>
       <c r="AW14" s="13">
-        <v>2187</v>
+        <v>2018</v>
       </c>
       <c r="AX14" s="13">
-        <v>2018</v>
+        <v>950</v>
       </c>
       <c r="AY14" s="13">
-        <v>950</v>
+        <v>2491</v>
       </c>
       <c r="AZ14" s="13">
-        <v>2491</v>
+        <v>2794</v>
       </c>
       <c r="BA14" s="13">
-        <v>2794</v>
+        <v>2415</v>
       </c>
       <c r="BB14" s="13">
-        <v>2415</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2053,8 +2053,8 @@
       <c r="F15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>61</v>
+      <c r="G15" s="11">
+        <v>0</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
@@ -2069,79 +2069,79 @@
         <v>0</v>
       </c>
       <c r="L15" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <v>3</v>
+      </c>
+      <c r="T15" s="11">
+        <v>0</v>
+      </c>
+      <c r="U15" s="11">
+        <v>0</v>
+      </c>
+      <c r="V15" s="11">
+        <v>0</v>
+      </c>
+      <c r="W15" s="11">
+        <v>0</v>
+      </c>
+      <c r="X15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="11">
         <v>2</v>
       </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-      <c r="O15" s="11">
-        <v>0</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>0</v>
-      </c>
-      <c r="R15" s="11">
-        <v>0</v>
-      </c>
-      <c r="S15" s="11">
-        <v>0</v>
-      </c>
-      <c r="T15" s="11">
-        <v>3</v>
-      </c>
-      <c r="U15" s="11">
-        <v>0</v>
-      </c>
-      <c r="V15" s="11">
-        <v>0</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0</v>
-      </c>
-      <c r="X15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>0</v>
-      </c>
       <c r="AH15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="11">
         <v>2</v>
       </c>
-      <c r="AI15" s="11">
-        <v>0</v>
-      </c>
       <c r="AJ15" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="11">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="AM15" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN15" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="11">
         <v>0</v>
@@ -2236,20 +2236,20 @@
       <c r="N16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O16" s="13" t="s">
-        <v>61</v>
+      <c r="O16" s="13">
+        <v>113</v>
       </c>
       <c r="P16" s="13">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="13">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="R16" s="13">
-        <v>468</v>
-      </c>
-      <c r="S16" s="13">
         <v>657</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="T16" s="13" t="s">
         <v>61</v>
@@ -2498,8 +2498,8 @@
       <c r="AD18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AE18" s="17" t="s">
-        <v>61</v>
+      <c r="AE18" s="17">
+        <v>0</v>
       </c>
       <c r="AF18" s="17">
         <v>0</v>
@@ -2578,154 +2578,154 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19">
-        <v>3396</v>
+        <v>3755</v>
       </c>
       <c r="F19" s="19">
-        <v>3755</v>
+        <v>3726</v>
       </c>
       <c r="G19" s="19">
-        <v>3726</v>
+        <v>4828</v>
       </c>
       <c r="H19" s="19">
-        <v>4828</v>
+        <v>4771</v>
       </c>
       <c r="I19" s="19">
-        <v>4771</v>
+        <v>4811</v>
       </c>
       <c r="J19" s="19">
-        <v>4811</v>
+        <v>2371</v>
       </c>
       <c r="K19" s="19">
-        <v>2371</v>
+        <v>4109</v>
       </c>
       <c r="L19" s="19">
-        <v>4109</v>
+        <v>3642</v>
       </c>
       <c r="M19" s="19">
-        <v>3642</v>
+        <v>5244</v>
       </c>
       <c r="N19" s="19">
-        <v>5244</v>
+        <v>4183</v>
       </c>
       <c r="O19" s="19">
-        <v>4183</v>
+        <v>5013</v>
       </c>
       <c r="P19" s="19">
-        <v>5013</v>
+        <v>4049</v>
       </c>
       <c r="Q19" s="19">
-        <v>4049</v>
+        <v>3664</v>
       </c>
       <c r="R19" s="19">
-        <v>3664</v>
+        <v>5334</v>
       </c>
       <c r="S19" s="19">
-        <v>5334</v>
+        <v>3817</v>
       </c>
       <c r="T19" s="19">
-        <v>3817</v>
+        <v>4347</v>
       </c>
       <c r="U19" s="19">
-        <v>4347</v>
+        <v>5467</v>
       </c>
       <c r="V19" s="19">
-        <v>5467</v>
+        <v>3837</v>
       </c>
       <c r="W19" s="19">
-        <v>3837</v>
+        <v>6403</v>
       </c>
       <c r="X19" s="19">
-        <v>6403</v>
+        <v>5007</v>
       </c>
       <c r="Y19" s="19">
-        <v>5007</v>
+        <v>4643</v>
       </c>
       <c r="Z19" s="19">
-        <v>4643</v>
+        <v>3547</v>
       </c>
       <c r="AA19" s="19">
-        <v>3547</v>
+        <v>5236</v>
       </c>
       <c r="AB19" s="19">
-        <v>5236</v>
+        <v>3697</v>
       </c>
       <c r="AC19" s="19">
-        <v>3697</v>
+        <v>5513</v>
       </c>
       <c r="AD19" s="19">
-        <v>5513</v>
+        <v>5754</v>
       </c>
       <c r="AE19" s="19">
-        <v>5754</v>
+        <v>4418</v>
       </c>
       <c r="AF19" s="19">
-        <v>4418</v>
+        <v>4311</v>
       </c>
       <c r="AG19" s="19">
-        <v>4311</v>
+        <v>4727</v>
       </c>
       <c r="AH19" s="19">
-        <v>4727</v>
+        <v>2608</v>
       </c>
       <c r="AI19" s="19">
-        <v>2608</v>
+        <v>4609</v>
       </c>
       <c r="AJ19" s="19">
-        <v>4609</v>
+        <v>5320</v>
       </c>
       <c r="AK19" s="19">
-        <v>5320</v>
+        <v>5293</v>
       </c>
       <c r="AL19" s="19">
-        <v>5293</v>
+        <v>4569</v>
       </c>
       <c r="AM19" s="19">
-        <v>4569</v>
+        <v>5191</v>
       </c>
       <c r="AN19" s="19">
-        <v>5191</v>
+        <v>4503</v>
       </c>
       <c r="AO19" s="19">
-        <v>4503</v>
+        <v>3383</v>
       </c>
       <c r="AP19" s="19">
-        <v>3383</v>
+        <v>4917</v>
       </c>
       <c r="AQ19" s="19">
-        <v>4917</v>
+        <v>3222</v>
       </c>
       <c r="AR19" s="19">
-        <v>3222</v>
+        <v>2738</v>
       </c>
       <c r="AS19" s="19">
-        <v>2738</v>
+        <v>3277</v>
       </c>
       <c r="AT19" s="19">
-        <v>3277</v>
+        <v>1232</v>
       </c>
       <c r="AU19" s="19">
-        <v>1232</v>
+        <v>1455</v>
       </c>
       <c r="AV19" s="19">
-        <v>1455</v>
+        <v>3682</v>
       </c>
       <c r="AW19" s="19">
-        <v>3682</v>
+        <v>3484</v>
       </c>
       <c r="AX19" s="19">
-        <v>3484</v>
+        <v>1715</v>
       </c>
       <c r="AY19" s="19">
-        <v>1715</v>
+        <v>3918</v>
       </c>
       <c r="AZ19" s="19">
-        <v>3918</v>
+        <v>4619</v>
       </c>
       <c r="BA19" s="19">
-        <v>4619</v>
+        <v>3806</v>
       </c>
       <c r="BB19" s="19">
-        <v>3806</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -3171,154 +3171,154 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>430</v>
+        <v>636</v>
       </c>
       <c r="F26" s="11">
-        <v>636</v>
+        <v>705</v>
       </c>
       <c r="G26" s="11">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="H26" s="11">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="I26" s="11">
-        <v>780</v>
+        <v>542</v>
       </c>
       <c r="J26" s="11">
-        <v>542</v>
+        <v>466</v>
       </c>
       <c r="K26" s="11">
-        <v>466</v>
+        <v>649</v>
       </c>
       <c r="L26" s="11">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="M26" s="11">
-        <v>605</v>
+        <v>986</v>
       </c>
       <c r="N26" s="11">
-        <v>986</v>
+        <v>1097</v>
       </c>
       <c r="O26" s="11">
-        <v>1097</v>
+        <v>955</v>
       </c>
       <c r="P26" s="11">
-        <v>955</v>
+        <v>817</v>
       </c>
       <c r="Q26" s="11">
-        <v>817</v>
+        <v>512</v>
       </c>
       <c r="R26" s="11">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="S26" s="11">
-        <v>544</v>
+        <v>648</v>
       </c>
       <c r="T26" s="11">
-        <v>648</v>
+        <v>829</v>
       </c>
       <c r="U26" s="11">
-        <v>829</v>
+        <v>1067</v>
       </c>
       <c r="V26" s="11">
-        <v>1067</v>
+        <v>971</v>
       </c>
       <c r="W26" s="11">
-        <v>971</v>
+        <v>1249</v>
       </c>
       <c r="X26" s="11">
-        <v>1249</v>
+        <v>760</v>
       </c>
       <c r="Y26" s="11">
-        <v>760</v>
+        <v>1017</v>
       </c>
       <c r="Z26" s="11">
-        <v>1017</v>
+        <v>1059</v>
       </c>
       <c r="AA26" s="11">
-        <v>1059</v>
+        <v>716</v>
       </c>
       <c r="AB26" s="11">
-        <v>716</v>
+        <v>870</v>
       </c>
       <c r="AC26" s="11">
-        <v>870</v>
+        <v>962</v>
       </c>
       <c r="AD26" s="11">
-        <v>962</v>
+        <v>1085</v>
       </c>
       <c r="AE26" s="11">
-        <v>1085</v>
+        <v>687</v>
       </c>
       <c r="AF26" s="11">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="AG26" s="11">
-        <v>670</v>
+        <v>773</v>
       </c>
       <c r="AH26" s="11">
-        <v>773</v>
+        <v>390</v>
       </c>
       <c r="AI26" s="11">
-        <v>390</v>
+        <v>779</v>
       </c>
       <c r="AJ26" s="11">
-        <v>779</v>
+        <v>1265</v>
       </c>
       <c r="AK26" s="11">
-        <v>1265</v>
+        <v>901</v>
       </c>
       <c r="AL26" s="11">
-        <v>901</v>
+        <v>602</v>
       </c>
       <c r="AM26" s="11">
-        <v>602</v>
+        <v>948</v>
       </c>
       <c r="AN26" s="11">
-        <v>948</v>
+        <v>575</v>
       </c>
       <c r="AO26" s="11">
-        <v>575</v>
+        <v>451</v>
       </c>
       <c r="AP26" s="11">
-        <v>451</v>
+        <v>945</v>
       </c>
       <c r="AQ26" s="11">
-        <v>945</v>
+        <v>600</v>
       </c>
       <c r="AR26" s="11">
-        <v>600</v>
+        <v>922</v>
       </c>
       <c r="AS26" s="11">
-        <v>922</v>
+        <v>759</v>
       </c>
       <c r="AT26" s="11">
-        <v>759</v>
+        <v>264</v>
       </c>
       <c r="AU26" s="11">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="AV26" s="11">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="AW26" s="11">
-        <v>306</v>
+        <v>658</v>
       </c>
       <c r="AX26" s="11">
-        <v>658</v>
+        <v>596</v>
       </c>
       <c r="AY26" s="11">
-        <v>596</v>
+        <v>514</v>
       </c>
       <c r="AZ26" s="11">
-        <v>514</v>
+        <v>982</v>
       </c>
       <c r="BA26" s="11">
-        <v>982</v>
+        <v>931</v>
       </c>
       <c r="BB26" s="11">
-        <v>931</v>
+        <v>793</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3330,154 +3330,154 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>376</v>
+        <v>756</v>
       </c>
       <c r="F27" s="13">
-        <v>756</v>
+        <v>632</v>
       </c>
       <c r="G27" s="13">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="H27" s="13">
-        <v>704</v>
+        <v>822</v>
       </c>
       <c r="I27" s="13">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="J27" s="13">
-        <v>837</v>
+        <v>392</v>
       </c>
       <c r="K27" s="13">
-        <v>392</v>
+        <v>710</v>
       </c>
       <c r="L27" s="13">
-        <v>710</v>
+        <v>396</v>
       </c>
       <c r="M27" s="13">
-        <v>396</v>
+        <v>740</v>
       </c>
       <c r="N27" s="13">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="O27" s="13">
-        <v>743</v>
+        <v>573</v>
       </c>
       <c r="P27" s="13">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="Q27" s="13">
-        <v>521</v>
+        <v>722</v>
       </c>
       <c r="R27" s="13">
-        <v>722</v>
+        <v>640</v>
       </c>
       <c r="S27" s="13">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="T27" s="13">
-        <v>724</v>
+        <v>929</v>
       </c>
       <c r="U27" s="13">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="V27" s="13">
-        <v>941</v>
+        <v>1162</v>
       </c>
       <c r="W27" s="13">
-        <v>1162</v>
+        <v>1237</v>
       </c>
       <c r="X27" s="13">
-        <v>1237</v>
+        <v>885</v>
       </c>
       <c r="Y27" s="13">
-        <v>885</v>
+        <v>1142</v>
       </c>
       <c r="Z27" s="13">
-        <v>1142</v>
+        <v>755</v>
       </c>
       <c r="AA27" s="13">
-        <v>755</v>
+        <v>1164</v>
       </c>
       <c r="AB27" s="13">
-        <v>1164</v>
+        <v>654</v>
       </c>
       <c r="AC27" s="13">
-        <v>654</v>
+        <v>1026</v>
       </c>
       <c r="AD27" s="13">
-        <v>1026</v>
+        <v>1298</v>
       </c>
       <c r="AE27" s="13">
-        <v>1298</v>
+        <v>1065</v>
       </c>
       <c r="AF27" s="13">
-        <v>1065</v>
+        <v>1038</v>
       </c>
       <c r="AG27" s="13">
-        <v>1038</v>
+        <v>1152</v>
       </c>
       <c r="AH27" s="13">
-        <v>1152</v>
+        <v>610</v>
       </c>
       <c r="AI27" s="13">
-        <v>610</v>
+        <v>1004</v>
       </c>
       <c r="AJ27" s="13">
-        <v>1004</v>
+        <v>945</v>
       </c>
       <c r="AK27" s="13">
-        <v>945</v>
+        <v>860</v>
       </c>
       <c r="AL27" s="13">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="AM27" s="13">
-        <v>846</v>
+        <v>1052</v>
       </c>
       <c r="AN27" s="13">
-        <v>1052</v>
+        <v>831</v>
       </c>
       <c r="AO27" s="13">
-        <v>831</v>
+        <v>728</v>
       </c>
       <c r="AP27" s="13">
-        <v>728</v>
+        <v>966</v>
       </c>
       <c r="AQ27" s="13">
-        <v>966</v>
+        <v>762</v>
       </c>
       <c r="AR27" s="13">
-        <v>762</v>
+        <v>695</v>
       </c>
       <c r="AS27" s="13">
-        <v>695</v>
+        <v>665</v>
       </c>
       <c r="AT27" s="13">
-        <v>665</v>
+        <v>323</v>
       </c>
       <c r="AU27" s="13">
-        <v>323</v>
+        <v>121</v>
       </c>
       <c r="AV27" s="13">
-        <v>121</v>
+        <v>588</v>
       </c>
       <c r="AW27" s="13">
         <v>588</v>
       </c>
       <c r="AX27" s="13">
-        <v>588</v>
+        <v>471</v>
       </c>
       <c r="AY27" s="13">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="AZ27" s="13">
-        <v>459</v>
+        <v>638</v>
       </c>
       <c r="BA27" s="13">
-        <v>638</v>
+        <v>584</v>
       </c>
       <c r="BB27" s="13">
-        <v>584</v>
+        <v>836</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3489,154 +3489,154 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="F28" s="11">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="G28" s="11">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="H28" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I28" s="11">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="J28" s="11">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="K28" s="11">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="L28" s="11">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="M28" s="11">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="N28" s="11">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="O28" s="11">
-        <v>344</v>
+        <v>438</v>
       </c>
       <c r="P28" s="11">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="11">
-        <v>455</v>
+        <v>300</v>
       </c>
       <c r="R28" s="11">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="S28" s="11">
-        <v>387</v>
+        <v>257</v>
       </c>
       <c r="T28" s="11">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="U28" s="11">
-        <v>326</v>
+        <v>408</v>
       </c>
       <c r="V28" s="11">
-        <v>408</v>
+        <v>229</v>
       </c>
       <c r="W28" s="11">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="X28" s="11">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="Y28" s="11">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="Z28" s="11">
-        <v>315</v>
+        <v>235</v>
       </c>
       <c r="AA28" s="11">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="AB28" s="11">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="AC28" s="11">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="AD28" s="11">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="AE28" s="11">
-        <v>260</v>
+        <v>196</v>
       </c>
       <c r="AF28" s="11">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="AG28" s="11">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="AH28" s="11">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="AI28" s="11">
-        <v>124</v>
+        <v>322</v>
       </c>
       <c r="AJ28" s="11">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="AK28" s="11">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="AL28" s="11">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="AM28" s="11">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="AN28" s="11">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="AO28" s="11">
+        <v>152</v>
+      </c>
+      <c r="AP28" s="11">
+        <v>324</v>
+      </c>
+      <c r="AQ28" s="11">
+        <v>145</v>
+      </c>
+      <c r="AR28" s="11">
+        <v>194</v>
+      </c>
+      <c r="AS28" s="11">
+        <v>158</v>
+      </c>
+      <c r="AT28" s="11">
+        <v>59</v>
+      </c>
+      <c r="AU28" s="11">
+        <v>25</v>
+      </c>
+      <c r="AV28" s="11">
+        <v>134</v>
+      </c>
+      <c r="AW28" s="11">
+        <v>175</v>
+      </c>
+      <c r="AX28" s="11">
+        <v>208</v>
+      </c>
+      <c r="AY28" s="11">
         <v>268</v>
-      </c>
-      <c r="AP28" s="11">
-        <v>152</v>
-      </c>
-      <c r="AQ28" s="11">
-        <v>324</v>
-      </c>
-      <c r="AR28" s="11">
-        <v>145</v>
-      </c>
-      <c r="AS28" s="11">
-        <v>194</v>
-      </c>
-      <c r="AT28" s="11">
-        <v>158</v>
-      </c>
-      <c r="AU28" s="11">
-        <v>59</v>
-      </c>
-      <c r="AV28" s="11">
-        <v>25</v>
-      </c>
-      <c r="AW28" s="11">
-        <v>134</v>
-      </c>
-      <c r="AX28" s="11">
-        <v>175</v>
-      </c>
-      <c r="AY28" s="11">
-        <v>208</v>
       </c>
       <c r="AZ28" s="11">
         <v>268</v>
       </c>
       <c r="BA28" s="11">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="BB28" s="11">
-        <v>146</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3648,154 +3648,154 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>2013</v>
+        <v>2474</v>
       </c>
       <c r="F29" s="13">
-        <v>2474</v>
+        <v>2660</v>
       </c>
       <c r="G29" s="13">
-        <v>2660</v>
+        <v>2682</v>
       </c>
       <c r="H29" s="13">
-        <v>2682</v>
+        <v>2898</v>
       </c>
       <c r="I29" s="13">
-        <v>2898</v>
+        <v>3133</v>
       </c>
       <c r="J29" s="13">
-        <v>3133</v>
+        <v>1491</v>
       </c>
       <c r="K29" s="13">
-        <v>1491</v>
+        <v>2490</v>
       </c>
       <c r="L29" s="13">
-        <v>2490</v>
+        <v>2080</v>
       </c>
       <c r="M29" s="13">
-        <v>2080</v>
+        <v>2836</v>
       </c>
       <c r="N29" s="13">
-        <v>2836</v>
+        <v>2039</v>
       </c>
       <c r="O29" s="13">
-        <v>2039</v>
+        <v>2720</v>
       </c>
       <c r="P29" s="13">
-        <v>2720</v>
+        <v>2319</v>
       </c>
       <c r="Q29" s="13">
-        <v>2319</v>
+        <v>2282</v>
       </c>
       <c r="R29" s="13">
-        <v>2282</v>
+        <v>2393</v>
       </c>
       <c r="S29" s="13">
-        <v>2393</v>
+        <v>2105</v>
       </c>
       <c r="T29" s="13">
-        <v>2105</v>
+        <v>2476</v>
       </c>
       <c r="U29" s="13">
-        <v>2476</v>
+        <v>3281</v>
       </c>
       <c r="V29" s="13">
-        <v>3281</v>
+        <v>1742</v>
       </c>
       <c r="W29" s="13">
-        <v>1742</v>
+        <v>3380</v>
       </c>
       <c r="X29" s="13">
-        <v>3380</v>
+        <v>2961</v>
       </c>
       <c r="Y29" s="13">
-        <v>2961</v>
+        <v>2346</v>
       </c>
       <c r="Z29" s="13">
-        <v>2346</v>
+        <v>2109</v>
       </c>
       <c r="AA29" s="13">
-        <v>2109</v>
+        <v>2807</v>
       </c>
       <c r="AB29" s="13">
-        <v>2807</v>
+        <v>1952</v>
       </c>
       <c r="AC29" s="13">
-        <v>1952</v>
+        <v>2637</v>
       </c>
       <c r="AD29" s="13">
-        <v>2637</v>
+        <v>3279</v>
       </c>
       <c r="AE29" s="13">
-        <v>3279</v>
+        <v>2040</v>
       </c>
       <c r="AF29" s="13">
-        <v>2040</v>
+        <v>2435</v>
       </c>
       <c r="AG29" s="13">
-        <v>2435</v>
+        <v>2445</v>
       </c>
       <c r="AH29" s="13">
-        <v>2445</v>
+        <v>1265</v>
       </c>
       <c r="AI29" s="13">
-        <v>1265</v>
+        <v>2563</v>
       </c>
       <c r="AJ29" s="13">
-        <v>2563</v>
+        <v>3252</v>
       </c>
       <c r="AK29" s="13">
-        <v>3252</v>
+        <v>2650</v>
       </c>
       <c r="AL29" s="13">
-        <v>2650</v>
+        <v>2841</v>
       </c>
       <c r="AM29" s="13">
-        <v>2841</v>
+        <v>3424</v>
       </c>
       <c r="AN29" s="13">
-        <v>3424</v>
+        <v>2303</v>
       </c>
       <c r="AO29" s="13">
-        <v>2303</v>
+        <v>1896</v>
       </c>
       <c r="AP29" s="13">
-        <v>1896</v>
+        <v>2912</v>
       </c>
       <c r="AQ29" s="13">
-        <v>2912</v>
+        <v>1716</v>
       </c>
       <c r="AR29" s="13">
-        <v>1716</v>
+        <v>1391</v>
       </c>
       <c r="AS29" s="13">
-        <v>1391</v>
+        <v>2345</v>
       </c>
       <c r="AT29" s="13">
-        <v>2345</v>
+        <v>679</v>
       </c>
       <c r="AU29" s="13">
-        <v>679</v>
+        <v>137</v>
       </c>
       <c r="AV29" s="13">
-        <v>137</v>
+        <v>1431</v>
       </c>
       <c r="AW29" s="13">
-        <v>1431</v>
+        <v>2609</v>
       </c>
       <c r="AX29" s="13">
-        <v>2609</v>
+        <v>1402</v>
       </c>
       <c r="AY29" s="13">
-        <v>1402</v>
+        <v>2106</v>
       </c>
       <c r="AZ29" s="13">
-        <v>2106</v>
+        <v>3370</v>
       </c>
       <c r="BA29" s="13">
-        <v>3370</v>
+        <v>2265</v>
       </c>
       <c r="BB29" s="13">
-        <v>2265</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3812,8 +3812,8 @@
       <c r="F30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>61</v>
+      <c r="G30" s="11">
+        <v>1</v>
       </c>
       <c r="H30" s="11">
         <v>1</v>
@@ -3822,106 +3822,106 @@
         <v>1</v>
       </c>
       <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
         <v>1</v>
       </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0</v>
-      </c>
       <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+      <c r="O30" s="11">
         <v>1</v>
       </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-      <c r="O30" s="11">
-        <v>0</v>
-      </c>
       <c r="P30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0</v>
+      </c>
+      <c r="R30" s="11">
+        <v>0</v>
+      </c>
+      <c r="S30" s="11">
+        <v>0</v>
+      </c>
+      <c r="T30" s="11">
+        <v>0</v>
+      </c>
+      <c r="U30" s="11">
+        <v>0</v>
+      </c>
+      <c r="V30" s="11">
+        <v>0</v>
+      </c>
+      <c r="W30" s="11">
+        <v>0</v>
+      </c>
+      <c r="X30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="11">
         <v>1</v>
       </c>
-      <c r="Q30" s="11">
-        <v>0</v>
-      </c>
-      <c r="R30" s="11">
-        <v>0</v>
-      </c>
-      <c r="S30" s="11">
-        <v>0</v>
-      </c>
-      <c r="T30" s="11">
-        <v>0</v>
-      </c>
-      <c r="U30" s="11">
-        <v>0</v>
-      </c>
-      <c r="V30" s="11">
-        <v>0</v>
-      </c>
-      <c r="W30" s="11">
-        <v>0</v>
-      </c>
-      <c r="X30" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="11">
-        <v>0</v>
-      </c>
       <c r="AQ30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="11">
         <v>0</v>
@@ -3995,20 +3995,20 @@
       <c r="N31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O31" s="13" t="s">
-        <v>61</v>
+      <c r="O31" s="13">
+        <v>47</v>
       </c>
       <c r="P31" s="13">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="Q31" s="13">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="R31" s="13">
-        <v>319</v>
-      </c>
-      <c r="S31" s="13">
         <v>751</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="T31" s="13" t="s">
         <v>61</v>
@@ -4257,8 +4257,8 @@
       <c r="AD33" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AE33" s="17" t="s">
-        <v>61</v>
+      <c r="AE33" s="17">
+        <v>0</v>
       </c>
       <c r="AF33" s="17">
         <v>0</v>
@@ -4521,23 +4521,23 @@
       <c r="AT35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AU35" s="11" t="s">
-        <v>61</v>
+      <c r="AU35" s="11">
+        <v>0</v>
       </c>
       <c r="AV35" s="11">
         <v>0</v>
       </c>
-      <c r="AW35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX35" s="11" t="s">
-        <v>61</v>
+      <c r="AW35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX35" s="11">
+        <v>0</v>
       </c>
       <c r="AY35" s="11">
         <v>0</v>
       </c>
-      <c r="AZ35" s="11">
-        <v>0</v>
+      <c r="AZ35" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="BA35" s="11" t="s">
         <v>61</v>
@@ -4630,8 +4630,8 @@
       <c r="AD36" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AE36" s="19" t="s">
-        <v>61</v>
+      <c r="AE36" s="19">
+        <v>0</v>
       </c>
       <c r="AF36" s="19">
         <v>0</v>
@@ -4710,154 +4710,154 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17">
-        <v>3030</v>
+        <v>4058</v>
       </c>
       <c r="F37" s="17">
-        <v>4058</v>
+        <v>4238</v>
       </c>
       <c r="G37" s="17">
-        <v>4238</v>
+        <v>4452</v>
       </c>
       <c r="H37" s="17">
-        <v>4452</v>
+        <v>4775</v>
       </c>
       <c r="I37" s="17">
-        <v>4775</v>
+        <v>4736</v>
       </c>
       <c r="J37" s="17">
-        <v>4736</v>
+        <v>2503</v>
       </c>
       <c r="K37" s="17">
-        <v>2503</v>
+        <v>4063</v>
       </c>
       <c r="L37" s="17">
-        <v>4063</v>
+        <v>3314</v>
       </c>
       <c r="M37" s="17">
-        <v>3314</v>
+        <v>4880</v>
       </c>
       <c r="N37" s="17">
-        <v>4880</v>
+        <v>4223</v>
       </c>
       <c r="O37" s="17">
-        <v>4223</v>
+        <v>4734</v>
       </c>
       <c r="P37" s="17">
-        <v>4734</v>
+        <v>4168</v>
       </c>
       <c r="Q37" s="17">
-        <v>4168</v>
+        <v>4135</v>
       </c>
       <c r="R37" s="17">
-        <v>4135</v>
+        <v>4715</v>
       </c>
       <c r="S37" s="17">
-        <v>4715</v>
+        <v>3734</v>
       </c>
       <c r="T37" s="17">
-        <v>3734</v>
+        <v>4560</v>
       </c>
       <c r="U37" s="17">
-        <v>4560</v>
+        <v>5697</v>
       </c>
       <c r="V37" s="17">
-        <v>5697</v>
+        <v>4103</v>
       </c>
       <c r="W37" s="17">
-        <v>4103</v>
+        <v>6180</v>
       </c>
       <c r="X37" s="17">
-        <v>6180</v>
+        <v>4878</v>
       </c>
       <c r="Y37" s="17">
-        <v>4878</v>
+        <v>4820</v>
       </c>
       <c r="Z37" s="17">
-        <v>4820</v>
+        <v>4158</v>
       </c>
       <c r="AA37" s="17">
-        <v>4158</v>
+        <v>4995</v>
       </c>
       <c r="AB37" s="17">
-        <v>4995</v>
+        <v>3683</v>
       </c>
       <c r="AC37" s="17">
-        <v>3683</v>
+        <v>4912</v>
       </c>
       <c r="AD37" s="17">
-        <v>4912</v>
+        <v>5922</v>
       </c>
       <c r="AE37" s="17">
-        <v>5922</v>
+        <v>3988</v>
       </c>
       <c r="AF37" s="17">
-        <v>3988</v>
+        <v>4373</v>
       </c>
       <c r="AG37" s="17">
-        <v>4373</v>
+        <v>4704</v>
       </c>
       <c r="AH37" s="17">
-        <v>4704</v>
+        <v>2389</v>
       </c>
       <c r="AI37" s="17">
-        <v>2389</v>
+        <v>4668</v>
       </c>
       <c r="AJ37" s="17">
-        <v>4668</v>
+        <v>5824</v>
       </c>
       <c r="AK37" s="17">
-        <v>5824</v>
+        <v>4698</v>
       </c>
       <c r="AL37" s="17">
-        <v>4698</v>
+        <v>4550</v>
       </c>
       <c r="AM37" s="17">
-        <v>4550</v>
+        <v>5717</v>
       </c>
       <c r="AN37" s="17">
-        <v>5717</v>
+        <v>3977</v>
       </c>
       <c r="AO37" s="17">
-        <v>3977</v>
+        <v>3227</v>
       </c>
       <c r="AP37" s="17">
-        <v>3227</v>
+        <v>5148</v>
       </c>
       <c r="AQ37" s="17">
-        <v>5148</v>
+        <v>3223</v>
       </c>
       <c r="AR37" s="17">
-        <v>3223</v>
+        <v>3202</v>
       </c>
       <c r="AS37" s="17">
-        <v>3202</v>
+        <v>3927</v>
       </c>
       <c r="AT37" s="17">
-        <v>3927</v>
+        <v>1325</v>
       </c>
       <c r="AU37" s="17">
-        <v>1325</v>
+        <v>522</v>
       </c>
       <c r="AV37" s="17">
-        <v>522</v>
+        <v>2459</v>
       </c>
       <c r="AW37" s="17">
-        <v>2459</v>
+        <v>4030</v>
       </c>
       <c r="AX37" s="17">
-        <v>4030</v>
+        <v>2677</v>
       </c>
       <c r="AY37" s="17">
-        <v>2677</v>
+        <v>3346</v>
       </c>
       <c r="AZ37" s="17">
-        <v>3346</v>
+        <v>5258</v>
       </c>
       <c r="BA37" s="17">
-        <v>5258</v>
+        <v>3926</v>
       </c>
       <c r="BB37" s="17">
-        <v>3926</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5303,154 +5303,154 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>42755</v>
+        <v>80845</v>
       </c>
       <c r="F44" s="11">
-        <v>80845</v>
+        <v>104092</v>
       </c>
       <c r="G44" s="11">
-        <v>104092</v>
+        <v>112237</v>
       </c>
       <c r="H44" s="11">
-        <v>112237</v>
+        <v>111971</v>
       </c>
       <c r="I44" s="11">
-        <v>111971</v>
+        <v>77275</v>
       </c>
       <c r="J44" s="11">
-        <v>77275</v>
+        <v>67067</v>
       </c>
       <c r="K44" s="11">
-        <v>67067</v>
+        <v>96944</v>
       </c>
       <c r="L44" s="11">
-        <v>96944</v>
+        <v>93757</v>
       </c>
       <c r="M44" s="11">
-        <v>93757</v>
+        <v>174703</v>
       </c>
       <c r="N44" s="11">
-        <v>174703</v>
+        <v>182831</v>
       </c>
       <c r="O44" s="11">
-        <v>182831</v>
+        <v>151901</v>
       </c>
       <c r="P44" s="11">
-        <v>151901</v>
+        <v>143352</v>
       </c>
       <c r="Q44" s="11">
-        <v>143352</v>
+        <v>87628</v>
       </c>
       <c r="R44" s="11">
-        <v>87628</v>
+        <v>118337</v>
       </c>
       <c r="S44" s="11">
-        <v>118337</v>
+        <v>110904</v>
       </c>
       <c r="T44" s="11">
-        <v>110904</v>
+        <v>139501</v>
       </c>
       <c r="U44" s="11">
-        <v>139501</v>
+        <v>180763</v>
       </c>
       <c r="V44" s="11">
-        <v>180763</v>
+        <v>161672</v>
       </c>
       <c r="W44" s="11">
-        <v>161672</v>
+        <v>225074</v>
       </c>
       <c r="X44" s="11">
-        <v>225074</v>
+        <v>114396</v>
       </c>
       <c r="Y44" s="11">
-        <v>114396</v>
+        <v>201538</v>
       </c>
       <c r="Z44" s="11">
-        <v>201538</v>
+        <v>216534</v>
       </c>
       <c r="AA44" s="11">
-        <v>216534</v>
+        <v>156946</v>
       </c>
       <c r="AB44" s="11">
-        <v>156946</v>
+        <v>179022</v>
       </c>
       <c r="AC44" s="11">
-        <v>179022</v>
+        <v>254353</v>
       </c>
       <c r="AD44" s="11">
-        <v>254353</v>
+        <v>288656</v>
       </c>
       <c r="AE44" s="11">
-        <v>288656</v>
+        <v>202287</v>
       </c>
       <c r="AF44" s="11">
-        <v>202287</v>
+        <v>221074</v>
       </c>
       <c r="AG44" s="11">
-        <v>221074</v>
+        <v>219450</v>
       </c>
       <c r="AH44" s="11">
-        <v>219450</v>
+        <v>115588</v>
       </c>
       <c r="AI44" s="11">
-        <v>115588</v>
+        <v>231562</v>
       </c>
       <c r="AJ44" s="11">
-        <v>231562</v>
+        <v>395702</v>
       </c>
       <c r="AK44" s="11">
-        <v>395702</v>
+        <v>310888</v>
       </c>
       <c r="AL44" s="11">
-        <v>310888</v>
+        <v>231953</v>
       </c>
       <c r="AM44" s="11">
-        <v>231953</v>
+        <v>341074</v>
       </c>
       <c r="AN44" s="11">
-        <v>341074</v>
+        <v>207740</v>
       </c>
       <c r="AO44" s="11">
-        <v>207740</v>
+        <v>181310</v>
       </c>
       <c r="AP44" s="11">
-        <v>181310</v>
+        <v>293156</v>
       </c>
       <c r="AQ44" s="11">
-        <v>293156</v>
+        <v>191376</v>
       </c>
       <c r="AR44" s="11">
-        <v>191376</v>
+        <v>298784</v>
       </c>
       <c r="AS44" s="11">
-        <v>298784</v>
+        <v>264456</v>
       </c>
       <c r="AT44" s="11">
-        <v>264456</v>
+        <v>110464</v>
       </c>
       <c r="AU44" s="11">
-        <v>110464</v>
+        <v>78719</v>
       </c>
       <c r="AV44" s="11">
-        <v>78719</v>
+        <v>162750</v>
       </c>
       <c r="AW44" s="11">
-        <v>162750</v>
+        <v>300371</v>
       </c>
       <c r="AX44" s="11">
-        <v>300371</v>
+        <v>274099</v>
       </c>
       <c r="AY44" s="11">
-        <v>274099</v>
+        <v>257735</v>
       </c>
       <c r="AZ44" s="11">
-        <v>257735</v>
+        <v>475118</v>
       </c>
       <c r="BA44" s="11">
-        <v>475118</v>
+        <v>515288</v>
       </c>
       <c r="BB44" s="11">
-        <v>515288</v>
+        <v>454589</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5462,154 +5462,154 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>17564</v>
+        <v>40236</v>
       </c>
       <c r="F45" s="13">
-        <v>40236</v>
+        <v>37145</v>
       </c>
       <c r="G45" s="13">
-        <v>37145</v>
+        <v>40655</v>
       </c>
       <c r="H45" s="13">
-        <v>40655</v>
+        <v>46729</v>
       </c>
       <c r="I45" s="13">
-        <v>46729</v>
+        <v>47086</v>
       </c>
       <c r="J45" s="13">
-        <v>47086</v>
+        <v>22449</v>
       </c>
       <c r="K45" s="13">
-        <v>22449</v>
+        <v>41395</v>
       </c>
       <c r="L45" s="13">
-        <v>41395</v>
+        <v>21392</v>
       </c>
       <c r="M45" s="13">
-        <v>21392</v>
+        <v>49011</v>
       </c>
       <c r="N45" s="13">
-        <v>49011</v>
+        <v>51187</v>
       </c>
       <c r="O45" s="13">
-        <v>51187</v>
+        <v>38314</v>
       </c>
       <c r="P45" s="13">
-        <v>38314</v>
+        <v>35837</v>
       </c>
       <c r="Q45" s="13">
-        <v>35837</v>
+        <v>47993</v>
       </c>
       <c r="R45" s="13">
-        <v>47993</v>
+        <v>37788</v>
       </c>
       <c r="S45" s="13">
-        <v>37788</v>
+        <v>48422</v>
       </c>
       <c r="T45" s="13">
-        <v>48422</v>
+        <v>59846</v>
       </c>
       <c r="U45" s="13">
-        <v>59846</v>
+        <v>101008</v>
       </c>
       <c r="V45" s="13">
-        <v>101008</v>
+        <v>153783</v>
       </c>
       <c r="W45" s="13">
-        <v>153783</v>
+        <v>90079</v>
       </c>
       <c r="X45" s="13">
-        <v>90079</v>
+        <v>63047</v>
       </c>
       <c r="Y45" s="13">
-        <v>63047</v>
+        <v>95711</v>
       </c>
       <c r="Z45" s="13">
-        <v>95711</v>
+        <v>66952</v>
       </c>
       <c r="AA45" s="13">
-        <v>66952</v>
+        <v>96747</v>
       </c>
       <c r="AB45" s="13">
-        <v>96747</v>
+        <v>54222</v>
       </c>
       <c r="AC45" s="13">
-        <v>54222</v>
+        <v>101662</v>
       </c>
       <c r="AD45" s="13">
-        <v>101662</v>
+        <v>121106</v>
       </c>
       <c r="AE45" s="13">
-        <v>121106</v>
+        <v>108525</v>
       </c>
       <c r="AF45" s="13">
-        <v>108525</v>
+        <v>121344</v>
       </c>
       <c r="AG45" s="13">
-        <v>121344</v>
+        <v>122024</v>
       </c>
       <c r="AH45" s="13">
-        <v>122024</v>
+        <v>54611</v>
       </c>
       <c r="AI45" s="13">
-        <v>54611</v>
+        <v>98510</v>
       </c>
       <c r="AJ45" s="13">
-        <v>98510</v>
+        <v>116879</v>
       </c>
       <c r="AK45" s="13">
-        <v>116879</v>
+        <v>93879</v>
       </c>
       <c r="AL45" s="13">
-        <v>93879</v>
+        <v>109005</v>
       </c>
       <c r="AM45" s="13">
-        <v>109005</v>
+        <v>141033</v>
       </c>
       <c r="AN45" s="13">
-        <v>141033</v>
+        <v>100553</v>
       </c>
       <c r="AO45" s="13">
-        <v>100553</v>
+        <v>89876</v>
       </c>
       <c r="AP45" s="13">
-        <v>89876</v>
+        <v>95639</v>
       </c>
       <c r="AQ45" s="13">
-        <v>95639</v>
+        <v>99797</v>
       </c>
       <c r="AR45" s="13">
-        <v>99797</v>
+        <v>86638</v>
       </c>
       <c r="AS45" s="13">
-        <v>86638</v>
+        <v>91716</v>
       </c>
       <c r="AT45" s="13">
-        <v>91716</v>
+        <v>41055</v>
       </c>
       <c r="AU45" s="13">
-        <v>41055</v>
+        <v>12675</v>
       </c>
       <c r="AV45" s="13">
-        <v>12675</v>
+        <v>97668</v>
       </c>
       <c r="AW45" s="13">
-        <v>97668</v>
+        <v>95401</v>
       </c>
       <c r="AX45" s="13">
-        <v>95401</v>
+        <v>86746</v>
       </c>
       <c r="AY45" s="13">
-        <v>86746</v>
+        <v>81885</v>
       </c>
       <c r="AZ45" s="13">
-        <v>81885</v>
+        <v>104444</v>
       </c>
       <c r="BA45" s="13">
-        <v>104444</v>
+        <v>104980</v>
       </c>
       <c r="BB45" s="13">
-        <v>104980</v>
+        <v>139224</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5621,154 +5621,154 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>48799</v>
+        <v>50570</v>
       </c>
       <c r="F46" s="11">
-        <v>50570</v>
+        <v>67355</v>
       </c>
       <c r="G46" s="11">
-        <v>67355</v>
+        <v>76056</v>
       </c>
       <c r="H46" s="11">
-        <v>76056</v>
+        <v>83926</v>
       </c>
       <c r="I46" s="11">
-        <v>83926</v>
+        <v>67541</v>
       </c>
       <c r="J46" s="11">
-        <v>67541</v>
+        <v>46248</v>
       </c>
       <c r="K46" s="11">
-        <v>46248</v>
+        <v>66301</v>
       </c>
       <c r="L46" s="11">
-        <v>66301</v>
+        <v>67489</v>
       </c>
       <c r="M46" s="11">
-        <v>67489</v>
+        <v>106680</v>
       </c>
       <c r="N46" s="11">
-        <v>106680</v>
+        <v>122500</v>
       </c>
       <c r="O46" s="11">
-        <v>122500</v>
+        <v>141231</v>
       </c>
       <c r="P46" s="11">
-        <v>141231</v>
+        <v>150564</v>
       </c>
       <c r="Q46" s="11">
-        <v>150564</v>
+        <v>101673</v>
       </c>
       <c r="R46" s="11">
-        <v>101673</v>
+        <v>140918</v>
       </c>
       <c r="S46" s="11">
-        <v>140918</v>
+        <v>89350</v>
       </c>
       <c r="T46" s="11">
-        <v>89350</v>
+        <v>110747</v>
       </c>
       <c r="U46" s="11">
-        <v>110747</v>
+        <v>136173</v>
       </c>
       <c r="V46" s="11">
-        <v>136173</v>
+        <v>73983</v>
       </c>
       <c r="W46" s="11">
-        <v>73983</v>
+        <v>109299</v>
       </c>
       <c r="X46" s="11">
-        <v>109299</v>
+        <v>92576</v>
       </c>
       <c r="Y46" s="11">
-        <v>92576</v>
+        <v>124974</v>
       </c>
       <c r="Z46" s="11">
-        <v>124974</v>
+        <v>95372</v>
       </c>
       <c r="AA46" s="11">
-        <v>95372</v>
+        <v>127312</v>
       </c>
       <c r="AB46" s="11">
-        <v>127312</v>
+        <v>82248</v>
       </c>
       <c r="AC46" s="11">
-        <v>82248</v>
+        <v>141653</v>
       </c>
       <c r="AD46" s="11">
-        <v>141653</v>
+        <v>138246</v>
       </c>
       <c r="AE46" s="11">
-        <v>138246</v>
+        <v>113979</v>
       </c>
       <c r="AF46" s="11">
-        <v>113979</v>
+        <v>143885</v>
       </c>
       <c r="AG46" s="11">
-        <v>143885</v>
+        <v>186543</v>
       </c>
       <c r="AH46" s="11">
-        <v>186543</v>
+        <v>67827</v>
       </c>
       <c r="AI46" s="11">
-        <v>67827</v>
+        <v>180171</v>
       </c>
       <c r="AJ46" s="11">
-        <v>180171</v>
+        <v>237116</v>
       </c>
       <c r="AK46" s="11">
-        <v>237116</v>
+        <v>183475</v>
       </c>
       <c r="AL46" s="11">
-        <v>183475</v>
+        <v>200590</v>
       </c>
       <c r="AM46" s="11">
-        <v>200590</v>
+        <v>209870</v>
       </c>
       <c r="AN46" s="11">
-        <v>209870</v>
+        <v>193905</v>
       </c>
       <c r="AO46" s="11">
-        <v>193905</v>
+        <v>124736</v>
       </c>
       <c r="AP46" s="11">
-        <v>124736</v>
+        <v>218589</v>
       </c>
       <c r="AQ46" s="11">
-        <v>218589</v>
+        <v>104044</v>
       </c>
       <c r="AR46" s="11">
-        <v>104044</v>
+        <v>134693</v>
       </c>
       <c r="AS46" s="11">
-        <v>134693</v>
+        <v>96098</v>
       </c>
       <c r="AT46" s="11">
-        <v>96098</v>
+        <v>42711</v>
       </c>
       <c r="AU46" s="11">
-        <v>42711</v>
+        <v>10917</v>
       </c>
       <c r="AV46" s="11">
-        <v>10917</v>
+        <v>127863</v>
       </c>
       <c r="AW46" s="11">
-        <v>127863</v>
+        <v>165053</v>
       </c>
       <c r="AX46" s="11">
-        <v>165053</v>
+        <v>192849</v>
       </c>
       <c r="AY46" s="11">
-        <v>192849</v>
+        <v>265788</v>
       </c>
       <c r="AZ46" s="11">
-        <v>265788</v>
+        <v>249722</v>
       </c>
       <c r="BA46" s="11">
-        <v>249722</v>
+        <v>148158</v>
       </c>
       <c r="BB46" s="11">
-        <v>148158</v>
+        <v>231269</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5780,154 +5780,154 @@
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13">
-        <v>147431</v>
+        <v>193604</v>
       </c>
       <c r="F47" s="13">
-        <v>193604</v>
+        <v>209063</v>
       </c>
       <c r="G47" s="13">
-        <v>209063</v>
+        <v>213617</v>
       </c>
       <c r="H47" s="13">
-        <v>213617</v>
+        <v>232102</v>
       </c>
       <c r="I47" s="13">
-        <v>232102</v>
+        <v>250761</v>
       </c>
       <c r="J47" s="13">
-        <v>250761</v>
+        <v>120573</v>
       </c>
       <c r="K47" s="13">
-        <v>120573</v>
+        <v>200588</v>
       </c>
       <c r="L47" s="13">
-        <v>200588</v>
+        <v>168013</v>
       </c>
       <c r="M47" s="13">
-        <v>168013</v>
+        <v>274229</v>
       </c>
       <c r="N47" s="13">
-        <v>274229</v>
+        <v>209469</v>
       </c>
       <c r="O47" s="13">
-        <v>209469</v>
+        <v>247548</v>
       </c>
       <c r="P47" s="13">
-        <v>247548</v>
+        <v>222095</v>
       </c>
       <c r="Q47" s="13">
-        <v>222095</v>
+        <v>217873</v>
       </c>
       <c r="R47" s="13">
-        <v>217873</v>
+        <v>216970</v>
       </c>
       <c r="S47" s="13">
-        <v>216970</v>
+        <v>200921</v>
       </c>
       <c r="T47" s="13">
-        <v>200921</v>
+        <v>234895</v>
       </c>
       <c r="U47" s="13">
-        <v>234895</v>
+        <v>297133</v>
       </c>
       <c r="V47" s="13">
-        <v>297133</v>
+        <v>160398</v>
       </c>
       <c r="W47" s="13">
-        <v>160398</v>
+        <v>325326</v>
       </c>
       <c r="X47" s="13">
-        <v>325326</v>
+        <v>312512</v>
       </c>
       <c r="Y47" s="13">
-        <v>312512</v>
+        <v>267713</v>
       </c>
       <c r="Z47" s="13">
-        <v>267713</v>
+        <v>245054</v>
       </c>
       <c r="AA47" s="13">
-        <v>245054</v>
+        <v>350295</v>
       </c>
       <c r="AB47" s="13">
-        <v>350295</v>
+        <v>224376</v>
       </c>
       <c r="AC47" s="13">
-        <v>224376</v>
+        <v>381588</v>
       </c>
       <c r="AD47" s="13">
-        <v>381588</v>
+        <v>474430</v>
       </c>
       <c r="AE47" s="13">
-        <v>474430</v>
+        <v>295610</v>
       </c>
       <c r="AF47" s="13">
-        <v>295610</v>
+        <v>389637</v>
       </c>
       <c r="AG47" s="13">
-        <v>389637</v>
+        <v>364215</v>
       </c>
       <c r="AH47" s="13">
-        <v>364215</v>
+        <v>183295</v>
       </c>
       <c r="AI47" s="13">
-        <v>183295</v>
+        <v>376926</v>
       </c>
       <c r="AJ47" s="13">
-        <v>376926</v>
+        <v>544247</v>
       </c>
       <c r="AK47" s="13">
-        <v>544247</v>
+        <v>438333</v>
       </c>
       <c r="AL47" s="13">
-        <v>438333</v>
+        <v>550647</v>
       </c>
       <c r="AM47" s="13">
-        <v>550647</v>
+        <v>605683</v>
       </c>
       <c r="AN47" s="13">
-        <v>605683</v>
+        <v>415017</v>
       </c>
       <c r="AO47" s="13">
-        <v>415017</v>
+        <v>362643</v>
       </c>
       <c r="AP47" s="13">
-        <v>362643</v>
+        <v>483766</v>
       </c>
       <c r="AQ47" s="13">
-        <v>483766</v>
+        <v>291124</v>
       </c>
       <c r="AR47" s="13">
-        <v>291124</v>
+        <v>217378</v>
       </c>
       <c r="AS47" s="13">
-        <v>217378</v>
+        <v>443117</v>
       </c>
       <c r="AT47" s="13">
-        <v>443117</v>
+        <v>122801</v>
       </c>
       <c r="AU47" s="13">
-        <v>122801</v>
+        <v>22120</v>
       </c>
       <c r="AV47" s="13">
-        <v>22120</v>
+        <v>336012</v>
       </c>
       <c r="AW47" s="13">
-        <v>336012</v>
+        <v>628988</v>
       </c>
       <c r="AX47" s="13">
-        <v>628988</v>
+        <v>344593</v>
       </c>
       <c r="AY47" s="13">
-        <v>344593</v>
+        <v>510886</v>
       </c>
       <c r="AZ47" s="13">
-        <v>510886</v>
+        <v>810425</v>
       </c>
       <c r="BA47" s="13">
-        <v>810425</v>
+        <v>550715</v>
       </c>
       <c r="BB47" s="13">
-        <v>550715</v>
+        <v>669918</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5944,41 +5944,41 @@
       <c r="F48" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>61</v>
+      <c r="G48" s="11">
+        <v>130</v>
       </c>
       <c r="H48" s="11">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="I48" s="11">
-        <v>306</v>
+        <v>34</v>
       </c>
       <c r="J48" s="11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K48" s="11">
         <v>0</v>
       </c>
       <c r="L48" s="11">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="M48" s="11">
-        <v>245</v>
+        <v>489</v>
       </c>
       <c r="N48" s="11">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="O48" s="11">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="P48" s="11">
-        <v>437</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="11">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="R48" s="11">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="S48" s="11">
         <v>0</v>
@@ -5996,97 +5996,97 @@
         <v>0</v>
       </c>
       <c r="X48" s="11">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="Y48" s="11">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="Z48" s="11">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AA48" s="11">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB48" s="11">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AC48" s="11">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AD48" s="11">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AE48" s="11">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AF48" s="11">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AG48" s="11">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AH48" s="11">
-        <v>36</v>
+        <v>566</v>
       </c>
       <c r="AI48" s="11">
-        <v>566</v>
+        <v>58</v>
       </c>
       <c r="AJ48" s="11">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="AK48" s="11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AL48" s="11">
-        <v>24</v>
+        <v>307</v>
       </c>
       <c r="AM48" s="11">
-        <v>307</v>
+        <v>23</v>
       </c>
       <c r="AN48" s="11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AO48" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="AP48" s="11">
-        <v>119</v>
+        <v>2474</v>
       </c>
       <c r="AQ48" s="11">
-        <v>2474</v>
+        <v>53</v>
       </c>
       <c r="AR48" s="11">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="AS48" s="11">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="AT48" s="11">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="AU48" s="11">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AV48" s="11">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AW48" s="11">
-        <v>51</v>
+        <v>619</v>
       </c>
       <c r="AX48" s="11">
-        <v>619</v>
+        <v>147</v>
       </c>
       <c r="AY48" s="11">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="AZ48" s="11">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="BA48" s="11">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="BB48" s="11">
-        <v>200</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6127,20 +6127,20 @@
       <c r="N49" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O49" s="13" t="s">
-        <v>61</v>
+      <c r="O49" s="13">
+        <v>842</v>
       </c>
       <c r="P49" s="13">
-        <v>842</v>
+        <v>1011</v>
       </c>
       <c r="Q49" s="13">
-        <v>1011</v>
+        <v>5750</v>
       </c>
       <c r="R49" s="13">
-        <v>5750</v>
-      </c>
-      <c r="S49" s="13">
         <v>13512</v>
+      </c>
+      <c r="S49" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="T49" s="13" t="s">
         <v>61</v>
@@ -6391,8 +6391,8 @@
       <c r="AD51" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AE51" s="17" t="s">
-        <v>61</v>
+      <c r="AE51" s="17">
+        <v>0</v>
       </c>
       <c r="AF51" s="17">
         <v>0</v>
@@ -6649,8 +6649,8 @@
       <c r="AR53" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AS53" s="11" t="s">
-        <v>61</v>
+      <c r="AS53" s="11">
+        <v>0</v>
       </c>
       <c r="AT53" s="11">
         <v>0</v>
@@ -6766,8 +6766,8 @@
       <c r="AD54" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AE54" s="19" t="s">
-        <v>61</v>
+      <c r="AE54" s="19">
+        <v>0</v>
       </c>
       <c r="AF54" s="19">
         <v>0</v>
@@ -6982,8 +6982,8 @@
       <c r="AD56" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AE56" s="11" t="s">
-        <v>61</v>
+      <c r="AE56" s="11">
+        <v>0</v>
       </c>
       <c r="AF56" s="11">
         <v>0</v>
@@ -7062,154 +7062,154 @@
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19">
-        <v>256549</v>
+        <v>365255</v>
       </c>
       <c r="F57" s="19">
-        <v>365255</v>
+        <v>417655</v>
       </c>
       <c r="G57" s="19">
-        <v>417655</v>
+        <v>442695</v>
       </c>
       <c r="H57" s="19">
-        <v>442695</v>
+        <v>475034</v>
       </c>
       <c r="I57" s="19">
-        <v>475034</v>
+        <v>442697</v>
       </c>
       <c r="J57" s="19">
-        <v>442697</v>
+        <v>256337</v>
       </c>
       <c r="K57" s="19">
-        <v>256337</v>
+        <v>405228</v>
       </c>
       <c r="L57" s="19">
-        <v>405228</v>
+        <v>350896</v>
       </c>
       <c r="M57" s="19">
-        <v>350896</v>
+        <v>605112</v>
       </c>
       <c r="N57" s="19">
-        <v>605112</v>
+        <v>565987</v>
       </c>
       <c r="O57" s="19">
-        <v>565987</v>
+        <v>580273</v>
       </c>
       <c r="P57" s="19">
-        <v>580273</v>
+        <v>552862</v>
       </c>
       <c r="Q57" s="19">
-        <v>552862</v>
+        <v>460982</v>
       </c>
       <c r="R57" s="19">
-        <v>460982</v>
+        <v>527525</v>
       </c>
       <c r="S57" s="19">
-        <v>527525</v>
+        <v>449597</v>
       </c>
       <c r="T57" s="19">
-        <v>449597</v>
+        <v>544989</v>
       </c>
       <c r="U57" s="19">
-        <v>544989</v>
+        <v>715077</v>
       </c>
       <c r="V57" s="19">
-        <v>715077</v>
+        <v>549836</v>
       </c>
       <c r="W57" s="19">
-        <v>549836</v>
+        <v>749778</v>
       </c>
       <c r="X57" s="19">
-        <v>749778</v>
+        <v>582728</v>
       </c>
       <c r="Y57" s="19">
-        <v>582728</v>
+        <v>689940</v>
       </c>
       <c r="Z57" s="19">
-        <v>689940</v>
+        <v>623952</v>
       </c>
       <c r="AA57" s="19">
-        <v>623952</v>
+        <v>731344</v>
       </c>
       <c r="AB57" s="19">
-        <v>731344</v>
+        <v>539900</v>
       </c>
       <c r="AC57" s="19">
-        <v>539900</v>
+        <v>879316</v>
       </c>
       <c r="AD57" s="19">
-        <v>879316</v>
+        <v>1022463</v>
       </c>
       <c r="AE57" s="19">
-        <v>1022463</v>
+        <v>720419</v>
       </c>
       <c r="AF57" s="19">
-        <v>720419</v>
+        <v>875995</v>
       </c>
       <c r="AG57" s="19">
-        <v>875995</v>
+        <v>892268</v>
       </c>
       <c r="AH57" s="19">
-        <v>892268</v>
+        <v>421887</v>
       </c>
       <c r="AI57" s="19">
-        <v>421887</v>
+        <v>887227</v>
       </c>
       <c r="AJ57" s="19">
-        <v>887227</v>
+        <v>1293961</v>
       </c>
       <c r="AK57" s="19">
-        <v>1293961</v>
+        <v>1026599</v>
       </c>
       <c r="AL57" s="19">
-        <v>1026599</v>
+        <v>1092502</v>
       </c>
       <c r="AM57" s="19">
-        <v>1092502</v>
+        <v>1297683</v>
       </c>
       <c r="AN57" s="19">
-        <v>1297683</v>
+        <v>917230</v>
       </c>
       <c r="AO57" s="19">
-        <v>917230</v>
+        <v>758684</v>
       </c>
       <c r="AP57" s="19">
-        <v>758684</v>
+        <v>1093624</v>
       </c>
       <c r="AQ57" s="19">
-        <v>1093624</v>
+        <v>686394</v>
       </c>
       <c r="AR57" s="19">
-        <v>686394</v>
+        <v>737519</v>
       </c>
       <c r="AS57" s="19">
-        <v>737519</v>
+        <v>895466</v>
       </c>
       <c r="AT57" s="19">
-        <v>895466</v>
+        <v>317050</v>
       </c>
       <c r="AU57" s="19">
-        <v>317050</v>
+        <v>124441</v>
       </c>
       <c r="AV57" s="19">
-        <v>124441</v>
+        <v>724344</v>
       </c>
       <c r="AW57" s="19">
-        <v>724344</v>
+        <v>1190432</v>
       </c>
       <c r="AX57" s="19">
-        <v>1190432</v>
+        <v>898434</v>
       </c>
       <c r="AY57" s="19">
-        <v>898434</v>
+        <v>1116321</v>
       </c>
       <c r="AZ57" s="19">
-        <v>1116321</v>
+        <v>1639744</v>
       </c>
       <c r="BA57" s="19">
-        <v>1639744</v>
+        <v>1319341</v>
       </c>
       <c r="BB57" s="19">
-        <v>1319341</v>
+        <v>1495142</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7655,154 +7655,154 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>99430233</v>
+        <v>127114780</v>
       </c>
       <c r="F64" s="11">
-        <v>127114780</v>
+        <v>147648227</v>
       </c>
       <c r="G64" s="11">
-        <v>147648227</v>
+        <v>142072152</v>
       </c>
       <c r="H64" s="11">
-        <v>142072152</v>
+        <v>143552564</v>
       </c>
       <c r="I64" s="11">
-        <v>143552564</v>
+        <v>142573801</v>
       </c>
       <c r="J64" s="11">
-        <v>142573801</v>
+        <v>143920601</v>
       </c>
       <c r="K64" s="11">
-        <v>143920601</v>
+        <v>149374422</v>
       </c>
       <c r="L64" s="11">
-        <v>149374422</v>
+        <v>154970248</v>
       </c>
       <c r="M64" s="11">
-        <v>154970248</v>
+        <v>177183570</v>
       </c>
       <c r="N64" s="11">
-        <v>177183570</v>
+        <v>166664540</v>
       </c>
       <c r="O64" s="11">
-        <v>166664540</v>
+        <v>159058639</v>
       </c>
       <c r="P64" s="11">
-        <v>159058639</v>
+        <v>175461444</v>
       </c>
       <c r="Q64" s="11">
-        <v>175461444</v>
+        <v>171148438</v>
       </c>
       <c r="R64" s="11">
-        <v>171148438</v>
+        <v>217531250</v>
       </c>
       <c r="S64" s="11">
-        <v>217531250</v>
+        <v>171148148</v>
       </c>
       <c r="T64" s="11">
-        <v>171148148</v>
+        <v>168276236</v>
       </c>
       <c r="U64" s="11">
-        <v>168276236</v>
+        <v>169412371</v>
       </c>
       <c r="V64" s="11">
-        <v>169412371</v>
+        <v>166466399</v>
       </c>
       <c r="W64" s="11">
-        <v>166466399</v>
+        <v>180154321</v>
       </c>
       <c r="X64" s="11">
-        <v>180154321</v>
+        <v>150618360</v>
       </c>
       <c r="Y64" s="11">
-        <v>150618360</v>
+        <v>198227209</v>
       </c>
       <c r="Z64" s="11">
-        <v>198227209</v>
+        <v>204461567</v>
       </c>
       <c r="AA64" s="11">
-        <v>204461567</v>
+        <v>219213632</v>
       </c>
       <c r="AB64" s="11">
-        <v>219213632</v>
+        <v>205846471</v>
       </c>
       <c r="AC64" s="11">
-        <v>205846471</v>
+        <v>264352394</v>
       </c>
       <c r="AD64" s="11">
-        <v>264352394</v>
+        <v>265938962</v>
       </c>
       <c r="AE64" s="11">
-        <v>265938962</v>
+        <v>294501223</v>
       </c>
       <c r="AF64" s="11">
-        <v>294501223</v>
+        <v>330074503</v>
       </c>
       <c r="AG64" s="11">
-        <v>330074503</v>
+        <v>283736452</v>
       </c>
       <c r="AH64" s="11">
-        <v>283736452</v>
+        <v>296379487</v>
       </c>
       <c r="AI64" s="11">
-        <v>296379487</v>
+        <v>297255456</v>
       </c>
       <c r="AJ64" s="11">
-        <v>297255456</v>
+        <v>312750300</v>
       </c>
       <c r="AK64" s="11">
-        <v>312750300</v>
+        <v>345109392</v>
       </c>
       <c r="AL64" s="11">
-        <v>345109392</v>
+        <v>385303987</v>
       </c>
       <c r="AM64" s="11">
-        <v>385303987</v>
+        <v>359782700</v>
       </c>
       <c r="AN64" s="11">
-        <v>359782700</v>
+        <v>361286957</v>
       </c>
       <c r="AO64" s="11">
-        <v>361286957</v>
+        <v>402017738</v>
       </c>
       <c r="AP64" s="11">
-        <v>402017738</v>
+        <v>310217989</v>
       </c>
       <c r="AQ64" s="11">
-        <v>310217989</v>
+        <v>319066355</v>
       </c>
       <c r="AR64" s="11">
-        <v>319066355</v>
+        <v>324060738</v>
       </c>
       <c r="AS64" s="11">
-        <v>324060738</v>
+        <v>348426877</v>
       </c>
       <c r="AT64" s="11">
-        <v>348426877</v>
+        <v>418424242</v>
       </c>
       <c r="AU64" s="11">
-        <v>418424242</v>
+        <v>358598756</v>
       </c>
       <c r="AV64" s="11">
-        <v>358598756</v>
+        <v>515150160</v>
       </c>
       <c r="AW64" s="11">
-        <v>515150160</v>
+        <v>456263443</v>
       </c>
       <c r="AX64" s="11">
-        <v>456263443</v>
+        <v>460077068</v>
       </c>
       <c r="AY64" s="11">
-        <v>460077068</v>
+        <v>516069229</v>
       </c>
       <c r="AZ64" s="11">
-        <v>516069229</v>
+        <v>483826884</v>
       </c>
       <c r="BA64" s="11">
-        <v>483826884</v>
+        <v>553477981</v>
       </c>
       <c r="BB64" s="11">
-        <v>553477981</v>
+        <v>573252207</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -7814,154 +7814,154 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>46712766</v>
+        <v>53222222</v>
       </c>
       <c r="F65" s="13">
-        <v>53222222</v>
+        <v>58773734</v>
       </c>
       <c r="G65" s="13">
-        <v>58773734</v>
+        <v>57748580</v>
       </c>
       <c r="H65" s="13">
-        <v>57748580</v>
+        <v>56847932</v>
       </c>
       <c r="I65" s="13">
-        <v>56847932</v>
+        <v>56255675</v>
       </c>
       <c r="J65" s="13">
-        <v>56255675</v>
+        <v>57267857</v>
       </c>
       <c r="K65" s="13">
-        <v>57267857</v>
+        <v>58302817</v>
       </c>
       <c r="L65" s="13">
-        <v>58302817</v>
+        <v>54020202</v>
       </c>
       <c r="M65" s="13">
-        <v>54020202</v>
+        <v>66231081</v>
       </c>
       <c r="N65" s="13">
-        <v>66231081</v>
+        <v>68892328</v>
       </c>
       <c r="O65" s="13">
-        <v>68892328</v>
+        <v>66865620</v>
       </c>
       <c r="P65" s="13">
-        <v>66865620</v>
+        <v>68785029</v>
       </c>
       <c r="Q65" s="13">
-        <v>68785029</v>
+        <v>66472299</v>
       </c>
       <c r="R65" s="13">
-        <v>66472299</v>
+        <v>59043750</v>
       </c>
       <c r="S65" s="13">
-        <v>59043750</v>
+        <v>66881215</v>
       </c>
       <c r="T65" s="13">
-        <v>66881215</v>
+        <v>64419806</v>
       </c>
       <c r="U65" s="13">
-        <v>64419806</v>
+        <v>107341126</v>
       </c>
       <c r="V65" s="13">
-        <v>107341126</v>
+        <v>132380855</v>
       </c>
       <c r="W65" s="13">
-        <v>132380855</v>
+        <v>72799347</v>
       </c>
       <c r="X65" s="13">
-        <v>72799347</v>
+        <v>71211868</v>
       </c>
       <c r="Y65" s="13">
-        <v>71211868</v>
+        <v>83801324</v>
       </c>
       <c r="Z65" s="13">
-        <v>83801324</v>
+        <v>88631893</v>
       </c>
       <c r="AA65" s="13">
-        <v>88631893</v>
+        <v>83105270</v>
       </c>
       <c r="AB65" s="13">
-        <v>83105270</v>
+        <v>82890513</v>
       </c>
       <c r="AC65" s="13">
-        <v>82890513</v>
+        <v>99131664</v>
       </c>
       <c r="AD65" s="13">
-        <v>99131664</v>
+        <v>93312139</v>
       </c>
       <c r="AE65" s="13">
-        <v>93312139</v>
+        <v>101888015</v>
       </c>
       <c r="AF65" s="13">
-        <v>101888015</v>
+        <v>116944546</v>
       </c>
       <c r="AG65" s="13">
-        <v>116944546</v>
+        <v>105955895</v>
       </c>
       <c r="AH65" s="13">
-        <v>105955895</v>
+        <v>89526230</v>
       </c>
       <c r="AI65" s="13">
-        <v>89526230</v>
+        <v>98117530</v>
       </c>
       <c r="AJ65" s="13">
-        <v>98117530</v>
+        <v>123745122</v>
       </c>
       <c r="AK65" s="13">
-        <v>123745122</v>
+        <v>109223606</v>
       </c>
       <c r="AL65" s="13">
-        <v>109223606</v>
+        <v>128847518</v>
       </c>
       <c r="AM65" s="13">
-        <v>128847518</v>
+        <v>134061787</v>
       </c>
       <c r="AN65" s="13">
-        <v>134061787</v>
+        <v>121002407</v>
       </c>
       <c r="AO65" s="13">
-        <v>121002407</v>
+        <v>123456044</v>
       </c>
       <c r="AP65" s="13">
-        <v>123456044</v>
+        <v>99005176</v>
       </c>
       <c r="AQ65" s="13">
-        <v>99005176</v>
+        <v>130967192</v>
       </c>
       <c r="AR65" s="13">
-        <v>130967192</v>
+        <v>124658993</v>
       </c>
       <c r="AS65" s="13">
-        <v>124658993</v>
+        <v>137918797</v>
       </c>
       <c r="AT65" s="13">
-        <v>137918797</v>
+        <v>127105263</v>
       </c>
       <c r="AU65" s="13">
-        <v>127105263</v>
+        <v>104987203</v>
       </c>
       <c r="AV65" s="13">
-        <v>104987203</v>
+        <v>166156928</v>
       </c>
       <c r="AW65" s="13">
-        <v>166156928</v>
+        <v>162151459</v>
       </c>
       <c r="AX65" s="13">
-        <v>162151459</v>
+        <v>184164645</v>
       </c>
       <c r="AY65" s="13">
-        <v>184164645</v>
+        <v>179480492</v>
       </c>
       <c r="AZ65" s="13">
-        <v>179480492</v>
+        <v>163705329</v>
       </c>
       <c r="BA65" s="13">
-        <v>163705329</v>
+        <v>179760274</v>
       </c>
       <c r="BB65" s="13">
-        <v>179760274</v>
+        <v>166535885</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -7973,154 +7973,154 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>231274882</v>
+        <v>263385417</v>
       </c>
       <c r="F66" s="11">
-        <v>263385417</v>
+        <v>279481328</v>
       </c>
       <c r="G66" s="11">
-        <v>279481328</v>
+        <v>276567273</v>
       </c>
       <c r="H66" s="11">
-        <v>276567273</v>
+        <v>306299270</v>
       </c>
       <c r="I66" s="11">
-        <v>306299270</v>
+        <v>302874439</v>
       </c>
       <c r="J66" s="11">
-        <v>302874439</v>
+        <v>300311688</v>
       </c>
       <c r="K66" s="11">
-        <v>300311688</v>
+        <v>309817757</v>
       </c>
       <c r="L66" s="11">
-        <v>309817757</v>
+        <v>290900862</v>
       </c>
       <c r="M66" s="11">
-        <v>290900862</v>
+        <v>335471698</v>
       </c>
       <c r="N66" s="11">
-        <v>335471698</v>
+        <v>356104651</v>
       </c>
       <c r="O66" s="11">
-        <v>356104651</v>
+        <v>322445205</v>
       </c>
       <c r="P66" s="11">
-        <v>322445205</v>
+        <v>330909890</v>
       </c>
       <c r="Q66" s="11">
-        <v>330909890</v>
+        <v>338910000</v>
       </c>
       <c r="R66" s="11">
-        <v>338910000</v>
+        <v>364129199</v>
       </c>
       <c r="S66" s="11">
-        <v>364129199</v>
+        <v>347665370</v>
       </c>
       <c r="T66" s="11">
-        <v>347665370</v>
+        <v>339714724</v>
       </c>
       <c r="U66" s="11">
-        <v>339714724</v>
+        <v>333757353</v>
       </c>
       <c r="V66" s="11">
-        <v>333757353</v>
+        <v>323761219</v>
       </c>
       <c r="W66" s="11">
-        <v>323761219</v>
+        <v>348330040</v>
       </c>
       <c r="X66" s="11">
-        <v>348330040</v>
+        <v>340069133</v>
       </c>
       <c r="Y66" s="11">
-        <v>340069133</v>
+        <v>396474765</v>
       </c>
       <c r="Z66" s="11">
-        <v>396474765</v>
+        <v>406703625</v>
       </c>
       <c r="AA66" s="11">
-        <v>406703625</v>
+        <v>413407023</v>
       </c>
       <c r="AB66" s="11">
-        <v>413407023</v>
+        <v>396616741</v>
       </c>
       <c r="AC66" s="11">
-        <v>396616741</v>
+        <v>492778075</v>
       </c>
       <c r="AD66" s="11">
-        <v>492778075</v>
+        <v>531337318</v>
       </c>
       <c r="AE66" s="11">
-        <v>531337318</v>
+        <v>581228965</v>
       </c>
       <c r="AF66" s="11">
-        <v>581228965</v>
+        <v>623040617</v>
       </c>
       <c r="AG66" s="11">
-        <v>623040617</v>
+        <v>559233625</v>
       </c>
       <c r="AH66" s="11">
-        <v>559233625</v>
+        <v>546991935</v>
       </c>
       <c r="AI66" s="11">
-        <v>546991935</v>
+        <v>559572023</v>
       </c>
       <c r="AJ66" s="11">
-        <v>559572023</v>
+        <v>653669510</v>
       </c>
       <c r="AK66" s="11">
-        <v>653669510</v>
+        <v>637506471</v>
       </c>
       <c r="AL66" s="11">
-        <v>637506471</v>
+        <v>768544061</v>
       </c>
       <c r="AM66" s="11">
-        <v>768544061</v>
+        <v>716279863</v>
       </c>
       <c r="AN66" s="11">
-        <v>716279863</v>
+        <v>723526119</v>
       </c>
       <c r="AO66" s="11">
-        <v>723526119</v>
+        <v>820631579</v>
       </c>
       <c r="AP66" s="11">
-        <v>820631579</v>
+        <v>674657407</v>
       </c>
       <c r="AQ66" s="11">
-        <v>674657407</v>
+        <v>717544828</v>
       </c>
       <c r="AR66" s="11">
-        <v>717544828</v>
+        <v>694293814</v>
       </c>
       <c r="AS66" s="11">
-        <v>694293814</v>
+        <v>608215190</v>
       </c>
       <c r="AT66" s="11">
-        <v>608215190</v>
+        <v>723915254</v>
       </c>
       <c r="AU66" s="11">
-        <v>723915254</v>
+        <v>428773418</v>
       </c>
       <c r="AV66" s="11">
-        <v>428773418</v>
+        <v>956002970</v>
       </c>
       <c r="AW66" s="11">
-        <v>956002970</v>
+        <v>945737811</v>
       </c>
       <c r="AX66" s="11">
-        <v>945737811</v>
+        <v>925800384</v>
       </c>
       <c r="AY66" s="11">
-        <v>925800384</v>
+        <v>989967707</v>
       </c>
       <c r="AZ66" s="11">
-        <v>989967707</v>
+        <v>931798507</v>
       </c>
       <c r="BA66" s="11">
-        <v>931798507</v>
+        <v>1014780822</v>
       </c>
       <c r="BB66" s="11">
-        <v>1014780822</v>
+        <v>906937255</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8132,154 +8132,154 @@
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>73239444</v>
+        <v>78255457</v>
       </c>
       <c r="F67" s="13">
-        <v>78255457</v>
+        <v>78595113</v>
       </c>
       <c r="G67" s="13">
-        <v>78595113</v>
+        <v>79648397</v>
       </c>
       <c r="H67" s="13">
-        <v>79648397</v>
+        <v>80090407</v>
       </c>
       <c r="I67" s="13">
-        <v>80090407</v>
+        <v>80038621</v>
       </c>
       <c r="J67" s="13">
-        <v>80038621</v>
+        <v>80867203</v>
       </c>
       <c r="K67" s="13">
-        <v>80867203</v>
+        <v>80557430</v>
       </c>
       <c r="L67" s="13">
-        <v>80557430</v>
+        <v>80775481</v>
       </c>
       <c r="M67" s="13">
-        <v>80775481</v>
+        <v>96695698</v>
       </c>
       <c r="N67" s="13">
-        <v>96695698</v>
+        <v>102731241</v>
       </c>
       <c r="O67" s="13">
-        <v>102731241</v>
+        <v>91010294</v>
       </c>
       <c r="P67" s="13">
-        <v>91010294</v>
+        <v>95771884</v>
       </c>
       <c r="Q67" s="13">
-        <v>95771884</v>
+        <v>95474584</v>
       </c>
       <c r="R67" s="13">
-        <v>95474584</v>
+        <v>90668617</v>
       </c>
       <c r="S67" s="13">
-        <v>90668617</v>
+        <v>95449406</v>
       </c>
       <c r="T67" s="13">
-        <v>95449406</v>
+        <v>94868740</v>
       </c>
       <c r="U67" s="13">
-        <v>94868740</v>
+        <v>90561719</v>
       </c>
       <c r="V67" s="13">
-        <v>90561719</v>
+        <v>92091990</v>
       </c>
       <c r="W67" s="13">
-        <v>92091990</v>
+        <v>96261403</v>
       </c>
       <c r="X67" s="13">
-        <v>96261403</v>
+        <v>105532743</v>
       </c>
       <c r="Y67" s="13">
-        <v>105532743</v>
+        <v>114105471</v>
       </c>
       <c r="Z67" s="13">
-        <v>114105471</v>
+        <v>116200686</v>
       </c>
       <c r="AA67" s="13">
-        <v>116200686</v>
+        <v>124783594</v>
       </c>
       <c r="AB67" s="13">
-        <v>124783594</v>
+        <v>114931825</v>
       </c>
       <c r="AC67" s="13">
-        <v>114931825</v>
+        <v>144728069</v>
       </c>
       <c r="AD67" s="13">
-        <v>144728069</v>
+        <v>144705498</v>
       </c>
       <c r="AE67" s="13">
-        <v>144705498</v>
+        <v>144899050</v>
       </c>
       <c r="AF67" s="13">
-        <v>144899050</v>
+        <v>160017429</v>
       </c>
       <c r="AG67" s="13">
-        <v>160017429</v>
+        <v>148968735</v>
       </c>
       <c r="AH67" s="13">
-        <v>148968735</v>
+        <v>144897233</v>
       </c>
       <c r="AI67" s="13">
-        <v>144897233</v>
+        <v>147064378</v>
       </c>
       <c r="AJ67" s="13">
-        <v>147064378</v>
+        <v>167375177</v>
       </c>
       <c r="AK67" s="13">
-        <v>167375177</v>
+        <v>165388458</v>
       </c>
       <c r="AL67" s="13">
-        <v>165388458</v>
+        <v>193821542</v>
       </c>
       <c r="AM67" s="13">
-        <v>193821542</v>
+        <v>176893400</v>
       </c>
       <c r="AN67" s="13">
-        <v>176893400</v>
+        <v>180207121</v>
       </c>
       <c r="AO67" s="13">
-        <v>180207121</v>
+        <v>191267405</v>
       </c>
       <c r="AP67" s="13">
-        <v>191267405</v>
+        <v>166128434</v>
       </c>
       <c r="AQ67" s="13">
-        <v>166128434</v>
+        <v>169680367</v>
       </c>
       <c r="AR67" s="13">
-        <v>169680367</v>
+        <v>156274623</v>
       </c>
       <c r="AS67" s="13">
-        <v>156274623</v>
+        <v>188962473</v>
       </c>
       <c r="AT67" s="13">
-        <v>188962473</v>
+        <v>180855670</v>
       </c>
       <c r="AU67" s="13">
-        <v>180855670</v>
+        <v>144335738</v>
       </c>
       <c r="AV67" s="13">
-        <v>144335738</v>
+        <v>234784619</v>
       </c>
       <c r="AW67" s="13">
-        <v>234784619</v>
+        <v>241128025</v>
       </c>
       <c r="AX67" s="13">
-        <v>241128025</v>
+        <v>245823081</v>
       </c>
       <c r="AY67" s="13">
-        <v>245823081</v>
+        <v>242515438</v>
       </c>
       <c r="AZ67" s="13">
-        <v>242515438</v>
+        <v>240482196</v>
       </c>
       <c r="BA67" s="13">
-        <v>240482196</v>
+        <v>243141280</v>
       </c>
       <c r="BB67" s="13">
-        <v>243141280</v>
+        <v>223082917</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8296,35 +8296,35 @@
       <c r="F68" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G68" s="11" t="s">
-        <v>61</v>
+      <c r="G68" s="11">
+        <v>130000000</v>
       </c>
       <c r="H68" s="11">
-        <v>130000000</v>
+        <v>306000000</v>
       </c>
       <c r="I68" s="11">
-        <v>306000000</v>
+        <v>34000000</v>
       </c>
       <c r="J68" s="11">
-        <v>34000000</v>
+        <v>0</v>
       </c>
       <c r="K68" s="11">
         <v>0</v>
       </c>
       <c r="L68" s="11">
-        <v>0</v>
+        <v>245000000</v>
       </c>
       <c r="M68" s="11">
-        <v>245000000</v>
+        <v>0</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="11">
-        <v>0</v>
+        <v>437000000</v>
       </c>
       <c r="P68" s="11">
-        <v>437000000</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="11">
         <v>0</v>
@@ -8348,97 +8348,97 @@
         <v>0</v>
       </c>
       <c r="X68" s="11">
-        <v>0</v>
+        <v>2030927835</v>
       </c>
       <c r="Y68" s="11">
-        <v>2030927835</v>
+        <v>1000000000</v>
       </c>
       <c r="Z68" s="11">
-        <v>1000000000</v>
+        <v>1081081081</v>
       </c>
       <c r="AA68" s="11">
-        <v>1081081081</v>
+        <v>1294117647</v>
       </c>
       <c r="AB68" s="11">
-        <v>1294117647</v>
+        <v>1391304348</v>
       </c>
       <c r="AC68" s="11">
-        <v>1391304348</v>
+        <v>1578947368</v>
       </c>
       <c r="AD68" s="11">
-        <v>1578947368</v>
+        <v>1250000000</v>
       </c>
       <c r="AE68" s="11">
+        <v>1800000000</v>
+      </c>
+      <c r="AF68" s="11">
         <v>1250000000</v>
       </c>
-      <c r="AF68" s="11">
-        <v>1800000000</v>
-      </c>
       <c r="AG68" s="11">
-        <v>1250000000</v>
+        <v>1058823529</v>
       </c>
       <c r="AH68" s="11">
-        <v>1058823529</v>
+        <v>17151515152</v>
       </c>
       <c r="AI68" s="11">
-        <v>17151515152</v>
+        <v>170588235</v>
       </c>
       <c r="AJ68" s="11">
-        <v>170588235</v>
+        <v>1700000000</v>
       </c>
       <c r="AK68" s="11">
-        <v>1700000000</v>
+        <v>2666666667</v>
       </c>
       <c r="AL68" s="11">
-        <v>2666666667</v>
+        <v>1615789474</v>
       </c>
       <c r="AM68" s="11">
-        <v>1615789474</v>
+        <v>575000000</v>
       </c>
       <c r="AN68" s="11">
-        <v>575000000</v>
+        <v>1500000000</v>
       </c>
       <c r="AO68" s="11">
-        <v>1500000000</v>
+        <v>3718750000</v>
       </c>
       <c r="AP68" s="11">
-        <v>3718750000</v>
+        <v>2550515464</v>
       </c>
       <c r="AQ68" s="11">
-        <v>2550515464</v>
+        <v>2650000000</v>
       </c>
       <c r="AR68" s="11">
-        <v>2650000000</v>
+        <v>1300000000</v>
       </c>
       <c r="AS68" s="11">
-        <v>1300000000</v>
-      </c>
-      <c r="AT68" s="11">
         <v>1580000000</v>
       </c>
-      <c r="AU68" s="11" t="s">
-        <v>61</v>
+      <c r="AT68" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU68" s="11">
+        <v>1428571429</v>
       </c>
       <c r="AV68" s="11">
-        <v>1428571429</v>
+        <v>2318181818</v>
       </c>
       <c r="AW68" s="11">
-        <v>2318181818</v>
+        <v>2127147766</v>
       </c>
       <c r="AX68" s="11">
-        <v>2127147766</v>
+        <v>1448866422</v>
       </c>
       <c r="AY68" s="11">
-        <v>1448866422</v>
+        <v>711111111</v>
       </c>
       <c r="AZ68" s="11">
-        <v>711111111</v>
+        <v>1750000000</v>
       </c>
       <c r="BA68" s="11">
-        <v>1750000000</v>
+        <v>1538461538</v>
       </c>
       <c r="BB68" s="11">
-        <v>1538461538</v>
+        <v>2028571429</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -8479,20 +8479,20 @@
       <c r="N69" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O69" s="13" t="s">
-        <v>61</v>
+      <c r="O69" s="13">
+        <v>17914894</v>
       </c>
       <c r="P69" s="13">
-        <v>17914894</v>
+        <v>18053571</v>
       </c>
       <c r="Q69" s="13">
-        <v>18053571</v>
+        <v>18025078</v>
       </c>
       <c r="R69" s="13">
-        <v>18025078</v>
-      </c>
-      <c r="S69" s="13">
         <v>17992011</v>
+      </c>
+      <c r="S69" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="T69" s="13" t="s">
         <v>61</v>

--- a/database/industries/shoyande/shegol/product/monthly.xlsx
+++ b/database/industries/shoyande/shegol/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532096FB-2CB9-466B-AD71-A0171ABE3457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81AB697-0930-4210-922D-3800AE6E1BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="78">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شگل-گلتاش‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1397/10</t>
@@ -187,6 +181,12 @@
     <t>ماه 12 منتهی به 1401/09</t>
   </si>
   <si>
+    <t>ماه 1 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>صابون</t>
   </si>
   <si>
@@ -205,10 +205,10 @@
     <t>کرم</t>
   </si>
   <si>
-    <t>-</t>
+    <t>صابون کارمزدی</t>
   </si>
   <si>
-    <t>صابون کارمزدی</t>
+    <t>-</t>
   </si>
   <si>
     <t>درآمد ارایه خدمات</t>
@@ -736,12 +736,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -796,7 +796,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -853,7 +853,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -965,7 +965,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1134,7 +1134,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1346,7 +1346,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1412,157 +1412,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>658</v>
+        <v>705</v>
       </c>
       <c r="F11" s="11">
-        <v>551</v>
+        <v>723</v>
       </c>
       <c r="G11" s="11">
-        <v>705</v>
+        <v>856</v>
       </c>
       <c r="H11" s="11">
-        <v>723</v>
+        <v>404</v>
       </c>
       <c r="I11" s="11">
-        <v>856</v>
+        <v>654</v>
       </c>
       <c r="J11" s="11">
-        <v>404</v>
+        <v>638</v>
       </c>
       <c r="K11" s="11">
-        <v>654</v>
+        <v>1029</v>
       </c>
       <c r="L11" s="11">
-        <v>638</v>
+        <v>980</v>
       </c>
       <c r="M11" s="11">
-        <v>1029</v>
+        <v>997</v>
       </c>
       <c r="N11" s="11">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O11" s="11">
-        <v>997</v>
+        <v>420</v>
       </c>
       <c r="P11" s="11">
-        <v>979</v>
+        <v>414</v>
       </c>
       <c r="Q11" s="11">
-        <v>420</v>
+        <v>832</v>
       </c>
       <c r="R11" s="11">
-        <v>414</v>
+        <v>865</v>
       </c>
       <c r="S11" s="11">
-        <v>832</v>
+        <v>976</v>
       </c>
       <c r="T11" s="11">
-        <v>865</v>
+        <v>766</v>
       </c>
       <c r="U11" s="11">
-        <v>976</v>
+        <v>1225</v>
       </c>
       <c r="V11" s="11">
-        <v>766</v>
+        <v>1021</v>
       </c>
       <c r="W11" s="11">
-        <v>1225</v>
+        <v>1195</v>
       </c>
       <c r="X11" s="11">
-        <v>1021</v>
+        <v>722</v>
       </c>
       <c r="Y11" s="11">
-        <v>1195</v>
+        <v>878</v>
       </c>
       <c r="Z11" s="11">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="AA11" s="11">
-        <v>878</v>
+        <v>1158</v>
       </c>
       <c r="AB11" s="11">
-        <v>730</v>
+        <v>1187</v>
       </c>
       <c r="AC11" s="11">
-        <v>1158</v>
+        <v>716</v>
       </c>
       <c r="AD11" s="11">
-        <v>1187</v>
+        <v>734</v>
       </c>
       <c r="AE11" s="11">
-        <v>716</v>
+        <v>773</v>
       </c>
       <c r="AF11" s="11">
-        <v>734</v>
+        <v>521</v>
       </c>
       <c r="AG11" s="11">
-        <v>773</v>
+        <v>830</v>
       </c>
       <c r="AH11" s="11">
-        <v>521</v>
+        <v>1055</v>
       </c>
       <c r="AI11" s="11">
-        <v>830</v>
+        <v>879</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1055</v>
+        <v>853</v>
       </c>
       <c r="AK11" s="11">
-        <v>879</v>
+        <v>825</v>
       </c>
       <c r="AL11" s="11">
-        <v>853</v>
+        <v>908</v>
       </c>
       <c r="AM11" s="11">
-        <v>825</v>
+        <v>655</v>
       </c>
       <c r="AN11" s="11">
-        <v>908</v>
+        <v>577</v>
       </c>
       <c r="AO11" s="11">
-        <v>655</v>
+        <v>486</v>
       </c>
       <c r="AP11" s="11">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="AQ11" s="11">
-        <v>486</v>
+        <v>760</v>
       </c>
       <c r="AR11" s="11">
-        <v>597</v>
+        <v>294</v>
       </c>
       <c r="AS11" s="11">
-        <v>760</v>
+        <v>337</v>
       </c>
       <c r="AT11" s="11">
-        <v>294</v>
+        <v>697</v>
       </c>
       <c r="AU11" s="11">
-        <v>337</v>
+        <v>648</v>
       </c>
       <c r="AV11" s="11">
-        <v>697</v>
+        <v>359</v>
       </c>
       <c r="AW11" s="11">
-        <v>648</v>
+        <v>738</v>
       </c>
       <c r="AX11" s="11">
-        <v>359</v>
+        <v>733</v>
       </c>
       <c r="AY11" s="11">
-        <v>738</v>
+        <v>842</v>
       </c>
       <c r="AZ11" s="11">
-        <v>733</v>
+        <v>855</v>
       </c>
       <c r="BA11" s="11">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="BB11" s="11">
-        <v>857</v>
+        <v>1185</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1571,157 +1571,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>672</v>
+        <v>935</v>
       </c>
       <c r="F12" s="13">
-        <v>686</v>
+        <v>777</v>
       </c>
       <c r="G12" s="13">
-        <v>935</v>
+        <v>774</v>
       </c>
       <c r="H12" s="13">
+        <v>433</v>
+      </c>
+      <c r="I12" s="13">
+        <v>725</v>
+      </c>
+      <c r="J12" s="13">
+        <v>623</v>
+      </c>
+      <c r="K12" s="13">
+        <v>652</v>
+      </c>
+      <c r="L12" s="13">
+        <v>750</v>
+      </c>
+      <c r="M12" s="13">
+        <v>762</v>
+      </c>
+      <c r="N12" s="13">
+        <v>504</v>
+      </c>
+      <c r="O12" s="13">
+        <v>508</v>
+      </c>
+      <c r="P12" s="13">
+        <v>779</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>439</v>
+      </c>
+      <c r="R12" s="13">
+        <v>884</v>
+      </c>
+      <c r="S12" s="13">
+        <v>1212</v>
+      </c>
+      <c r="T12" s="13">
+        <v>920</v>
+      </c>
+      <c r="U12" s="13">
+        <v>1421</v>
+      </c>
+      <c r="V12" s="13">
+        <v>1040</v>
+      </c>
+      <c r="W12" s="13">
+        <v>850</v>
+      </c>
+      <c r="X12" s="13">
+        <v>719</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>1178</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>819</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>1102</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>1216</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>972</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>1061</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>1239</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>611</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>1041</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>1006</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>958</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>758</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>919</v>
+      </c>
+      <c r="AL12" s="13">
         <v>777</v>
       </c>
-      <c r="I12" s="13">
-        <v>774</v>
-      </c>
-      <c r="J12" s="13">
-        <v>433</v>
-      </c>
-      <c r="K12" s="13">
-        <v>725</v>
-      </c>
-      <c r="L12" s="13">
-        <v>623</v>
-      </c>
-      <c r="M12" s="13">
-        <v>652</v>
-      </c>
-      <c r="N12" s="13">
-        <v>750</v>
-      </c>
-      <c r="O12" s="13">
-        <v>762</v>
-      </c>
-      <c r="P12" s="13">
-        <v>504</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>508</v>
-      </c>
-      <c r="R12" s="13">
-        <v>779</v>
-      </c>
-      <c r="S12" s="13">
-        <v>439</v>
-      </c>
-      <c r="T12" s="13">
-        <v>884</v>
-      </c>
-      <c r="U12" s="13">
-        <v>1212</v>
-      </c>
-      <c r="V12" s="13">
-        <v>920</v>
-      </c>
-      <c r="W12" s="13">
-        <v>1421</v>
-      </c>
-      <c r="X12" s="13">
-        <v>1040</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>850</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>719</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>1178</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>819</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>1102</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>1216</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>972</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>1061</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>1239</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>611</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>1041</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>1006</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>958</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>758</v>
-      </c>
       <c r="AM12" s="13">
-        <v>919</v>
+        <v>669</v>
       </c>
       <c r="AN12" s="13">
-        <v>777</v>
+        <v>1138</v>
       </c>
       <c r="AO12" s="13">
-        <v>669</v>
+        <v>736</v>
       </c>
       <c r="AP12" s="13">
-        <v>1138</v>
+        <v>560</v>
       </c>
       <c r="AQ12" s="13">
-        <v>736</v>
+        <v>671</v>
       </c>
       <c r="AR12" s="13">
-        <v>560</v>
+        <v>281</v>
       </c>
       <c r="AS12" s="13">
-        <v>671</v>
+        <v>370</v>
       </c>
       <c r="AT12" s="13">
-        <v>281</v>
+        <v>553</v>
       </c>
       <c r="AU12" s="13">
-        <v>370</v>
+        <v>616</v>
       </c>
       <c r="AV12" s="13">
-        <v>553</v>
+        <v>212</v>
       </c>
       <c r="AW12" s="13">
-        <v>616</v>
+        <v>436</v>
       </c>
       <c r="AX12" s="13">
-        <v>212</v>
+        <v>872</v>
       </c>
       <c r="AY12" s="13">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AZ12" s="13">
-        <v>872</v>
+        <v>945</v>
       </c>
       <c r="BA12" s="13">
-        <v>426</v>
+        <v>778</v>
       </c>
       <c r="BB12" s="13">
-        <v>945</v>
+        <v>1078</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1730,157 +1730,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="F13" s="11">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="G13" s="11">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H13" s="11">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="I13" s="11">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="J13" s="11">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="K13" s="11">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="L13" s="11">
-        <v>186</v>
+        <v>377</v>
       </c>
       <c r="M13" s="11">
-        <v>303</v>
+        <v>436</v>
       </c>
       <c r="N13" s="11">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="O13" s="11">
-        <v>436</v>
+        <v>351</v>
       </c>
       <c r="P13" s="11">
-        <v>440</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="11">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="R13" s="11">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="S13" s="11">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="T13" s="11">
+        <v>244</v>
+      </c>
+      <c r="U13" s="11">
         <v>349</v>
       </c>
-      <c r="U13" s="11">
-        <v>266</v>
-      </c>
       <c r="V13" s="11">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="W13" s="11">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="X13" s="11">
+        <v>220</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>259</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>188</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>297</v>
+      </c>
+      <c r="AB13" s="11">
         <v>293</v>
       </c>
-      <c r="Y13" s="11">
-        <v>400</v>
-      </c>
-      <c r="Z13" s="11">
+      <c r="AC13" s="11">
+        <v>270</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>272</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>230</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>156</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>256</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>282</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>367</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>273</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>309</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>340</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>302</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>165</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>153</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>77</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>38</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>43</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>49</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>245</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>202</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>194</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>253</v>
+      </c>
+      <c r="AX13" s="11">
         <v>220</v>
       </c>
-      <c r="AA13" s="11">
-        <v>259</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>188</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>297</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>293</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>270</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>272</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>230</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>156</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>256</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>282</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>367</v>
-      </c>
-      <c r="AL13" s="11">
+      <c r="AY13" s="11">
+        <v>123</v>
+      </c>
+      <c r="AZ13" s="11">
+        <v>278</v>
+      </c>
+      <c r="BA13" s="11">
+        <v>228</v>
+      </c>
+      <c r="BB13" s="11">
         <v>273</v>
       </c>
-      <c r="AM13" s="11">
-        <v>309</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>340</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>302</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>165</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>153</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>77</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>38</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>43</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>49</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>245</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>202</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>194</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>253</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>220</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>123</v>
-      </c>
-      <c r="BB13" s="11">
-        <v>278</v>
-      </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
@@ -1889,157 +1889,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>2255</v>
+        <v>2931</v>
       </c>
       <c r="F14" s="13">
-        <v>2254</v>
+        <v>2996</v>
       </c>
       <c r="G14" s="13">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="H14" s="13">
-        <v>2996</v>
+        <v>1398</v>
       </c>
       <c r="I14" s="13">
-        <v>2935</v>
+        <v>2463</v>
       </c>
       <c r="J14" s="13">
-        <v>1398</v>
+        <v>2193</v>
       </c>
       <c r="K14" s="13">
-        <v>2463</v>
+        <v>3260</v>
       </c>
       <c r="L14" s="13">
-        <v>2193</v>
+        <v>2076</v>
       </c>
       <c r="M14" s="13">
-        <v>3260</v>
+        <v>2705</v>
       </c>
       <c r="N14" s="13">
-        <v>2076</v>
+        <v>2126</v>
       </c>
       <c r="O14" s="13">
-        <v>2705</v>
+        <v>1917</v>
       </c>
       <c r="P14" s="13">
-        <v>2126</v>
+        <v>3120</v>
       </c>
       <c r="Q14" s="13">
-        <v>1917</v>
+        <v>2212</v>
       </c>
       <c r="R14" s="13">
-        <v>3120</v>
+        <v>2249</v>
       </c>
       <c r="S14" s="13">
-        <v>2212</v>
+        <v>3013</v>
       </c>
       <c r="T14" s="13">
-        <v>2249</v>
+        <v>1907</v>
       </c>
       <c r="U14" s="13">
-        <v>3013</v>
+        <v>3409</v>
       </c>
       <c r="V14" s="13">
-        <v>1907</v>
+        <v>2653</v>
       </c>
       <c r="W14" s="13">
-        <v>3409</v>
+        <v>2198</v>
       </c>
       <c r="X14" s="13">
-        <v>2653</v>
+        <v>1886</v>
       </c>
       <c r="Y14" s="13">
-        <v>2198</v>
+        <v>2921</v>
       </c>
       <c r="Z14" s="13">
-        <v>1886</v>
+        <v>1960</v>
       </c>
       <c r="AA14" s="13">
-        <v>2921</v>
+        <v>2956</v>
       </c>
       <c r="AB14" s="13">
-        <v>1960</v>
+        <v>3058</v>
       </c>
       <c r="AC14" s="13">
-        <v>2956</v>
+        <v>2460</v>
       </c>
       <c r="AD14" s="13">
-        <v>3058</v>
+        <v>2244</v>
       </c>
       <c r="AE14" s="13">
-        <v>2460</v>
+        <v>2483</v>
       </c>
       <c r="AF14" s="13">
-        <v>2244</v>
+        <v>1320</v>
       </c>
       <c r="AG14" s="13">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="AH14" s="13">
-        <v>1320</v>
+        <v>2977</v>
       </c>
       <c r="AI14" s="13">
-        <v>2480</v>
+        <v>3089</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2977</v>
+        <v>2685</v>
       </c>
       <c r="AK14" s="13">
-        <v>3089</v>
+        <v>3135</v>
       </c>
       <c r="AL14" s="13">
-        <v>2685</v>
+        <v>2478</v>
       </c>
       <c r="AM14" s="13">
-        <v>3135</v>
+        <v>1757</v>
       </c>
       <c r="AN14" s="13">
-        <v>2478</v>
+        <v>3037</v>
       </c>
       <c r="AO14" s="13">
-        <v>1757</v>
+        <v>1847</v>
       </c>
       <c r="AP14" s="13">
-        <v>3037</v>
+        <v>1504</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1847</v>
+        <v>1808</v>
       </c>
       <c r="AR14" s="13">
-        <v>1504</v>
+        <v>614</v>
       </c>
       <c r="AS14" s="13">
-        <v>1808</v>
+        <v>699</v>
       </c>
       <c r="AT14" s="13">
-        <v>614</v>
+        <v>2187</v>
       </c>
       <c r="AU14" s="13">
-        <v>699</v>
+        <v>2018</v>
       </c>
       <c r="AV14" s="13">
-        <v>2187</v>
+        <v>950</v>
       </c>
       <c r="AW14" s="13">
-        <v>2018</v>
+        <v>2491</v>
       </c>
       <c r="AX14" s="13">
-        <v>950</v>
+        <v>2794</v>
       </c>
       <c r="AY14" s="13">
-        <v>2491</v>
+        <v>2415</v>
       </c>
       <c r="AZ14" s="13">
-        <v>2794</v>
+        <v>2695</v>
       </c>
       <c r="BA14" s="13">
-        <v>2415</v>
+        <v>3371</v>
       </c>
       <c r="BB14" s="13">
-        <v>2694</v>
+        <v>3610</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>60</v>
       </c>
@@ -2047,11 +2047,11 @@
         <v>56</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>61</v>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
@@ -2063,70 +2063,70 @@
         <v>0</v>
       </c>
       <c r="J15" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" s="11">
         <v>0</v>
       </c>
       <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>3</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0</v>
+      </c>
+      <c r="T15" s="11">
+        <v>0</v>
+      </c>
+      <c r="U15" s="11">
+        <v>0</v>
+      </c>
+      <c r="V15" s="11">
+        <v>0</v>
+      </c>
+      <c r="W15" s="11">
+        <v>0</v>
+      </c>
+      <c r="X15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
         <v>2</v>
-      </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-      <c r="O15" s="11">
-        <v>0</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>0</v>
-      </c>
-      <c r="R15" s="11">
-        <v>0</v>
-      </c>
-      <c r="S15" s="11">
-        <v>3</v>
-      </c>
-      <c r="T15" s="11">
-        <v>0</v>
-      </c>
-      <c r="U15" s="11">
-        <v>0</v>
-      </c>
-      <c r="V15" s="11">
-        <v>0</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0</v>
-      </c>
-      <c r="X15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>0</v>
       </c>
       <c r="AF15" s="11">
         <v>0</v>
@@ -2138,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="AI15" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="11">
         <v>0</v>
       </c>
       <c r="AK15" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL15" s="11">
         <v>0</v>
       </c>
       <c r="AM15" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="11">
         <v>0</v>
@@ -2198,166 +2198,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="M16" s="13">
+        <v>113</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
       </c>
       <c r="O16" s="13">
-        <v>113</v>
+        <v>468</v>
       </c>
       <c r="P16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>468</v>
-      </c>
-      <c r="R16" s="13">
         <v>657</v>
       </c>
+      <c r="Q16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="S16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AX16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AZ16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BB16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>63</v>
       </c>
@@ -2414,89 +2414,89 @@
       <c r="BA17" s="15"/>
       <c r="BB17" s="15"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB18" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC18" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD18" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="17">
+        <v>0</v>
       </c>
       <c r="AE18" s="17">
         <v>0</v>
@@ -2571,164 +2571,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19">
-        <v>3755</v>
+        <v>4828</v>
       </c>
       <c r="F19" s="19">
-        <v>3726</v>
+        <v>4771</v>
       </c>
       <c r="G19" s="19">
-        <v>4828</v>
+        <v>4811</v>
       </c>
       <c r="H19" s="19">
-        <v>4771</v>
+        <v>2371</v>
       </c>
       <c r="I19" s="19">
-        <v>4811</v>
+        <v>4109</v>
       </c>
       <c r="J19" s="19">
-        <v>2371</v>
+        <v>3642</v>
       </c>
       <c r="K19" s="19">
-        <v>4109</v>
+        <v>5244</v>
       </c>
       <c r="L19" s="19">
-        <v>3642</v>
+        <v>4183</v>
       </c>
       <c r="M19" s="19">
-        <v>5244</v>
+        <v>5013</v>
       </c>
       <c r="N19" s="19">
-        <v>4183</v>
+        <v>4049</v>
       </c>
       <c r="O19" s="19">
-        <v>5013</v>
+        <v>3664</v>
       </c>
       <c r="P19" s="19">
-        <v>4049</v>
+        <v>5334</v>
       </c>
       <c r="Q19" s="19">
-        <v>3664</v>
+        <v>3817</v>
       </c>
       <c r="R19" s="19">
-        <v>5334</v>
+        <v>4347</v>
       </c>
       <c r="S19" s="19">
-        <v>3817</v>
+        <v>5467</v>
       </c>
       <c r="T19" s="19">
-        <v>4347</v>
+        <v>3837</v>
       </c>
       <c r="U19" s="19">
-        <v>5467</v>
+        <v>6403</v>
       </c>
       <c r="V19" s="19">
-        <v>3837</v>
+        <v>5007</v>
       </c>
       <c r="W19" s="19">
-        <v>6403</v>
+        <v>4643</v>
       </c>
       <c r="X19" s="19">
-        <v>5007</v>
+        <v>3547</v>
       </c>
       <c r="Y19" s="19">
-        <v>4643</v>
+        <v>5236</v>
       </c>
       <c r="Z19" s="19">
-        <v>3547</v>
+        <v>3697</v>
       </c>
       <c r="AA19" s="19">
-        <v>5236</v>
+        <v>5513</v>
       </c>
       <c r="AB19" s="19">
-        <v>3697</v>
+        <v>5754</v>
       </c>
       <c r="AC19" s="19">
-        <v>5513</v>
+        <v>4418</v>
       </c>
       <c r="AD19" s="19">
-        <v>5754</v>
+        <v>4311</v>
       </c>
       <c r="AE19" s="19">
-        <v>4418</v>
+        <v>4727</v>
       </c>
       <c r="AF19" s="19">
-        <v>4311</v>
+        <v>2608</v>
       </c>
       <c r="AG19" s="19">
-        <v>4727</v>
+        <v>4609</v>
       </c>
       <c r="AH19" s="19">
-        <v>2608</v>
+        <v>5320</v>
       </c>
       <c r="AI19" s="19">
-        <v>4609</v>
+        <v>5293</v>
       </c>
       <c r="AJ19" s="19">
-        <v>5320</v>
+        <v>4569</v>
       </c>
       <c r="AK19" s="19">
-        <v>5293</v>
+        <v>5191</v>
       </c>
       <c r="AL19" s="19">
-        <v>4569</v>
+        <v>4503</v>
       </c>
       <c r="AM19" s="19">
-        <v>5191</v>
+        <v>3383</v>
       </c>
       <c r="AN19" s="19">
-        <v>4503</v>
+        <v>4917</v>
       </c>
       <c r="AO19" s="19">
-        <v>3383</v>
+        <v>3222</v>
       </c>
       <c r="AP19" s="19">
-        <v>4917</v>
+        <v>2738</v>
       </c>
       <c r="AQ19" s="19">
-        <v>3222</v>
+        <v>3277</v>
       </c>
       <c r="AR19" s="19">
-        <v>2738</v>
+        <v>1232</v>
       </c>
       <c r="AS19" s="19">
-        <v>3277</v>
+        <v>1455</v>
       </c>
       <c r="AT19" s="19">
-        <v>1232</v>
+        <v>3682</v>
       </c>
       <c r="AU19" s="19">
-        <v>1455</v>
+        <v>3484</v>
       </c>
       <c r="AV19" s="19">
-        <v>3682</v>
+        <v>1715</v>
       </c>
       <c r="AW19" s="19">
-        <v>3484</v>
+        <v>3918</v>
       </c>
       <c r="AX19" s="19">
-        <v>1715</v>
+        <v>4619</v>
       </c>
       <c r="AY19" s="19">
-        <v>3918</v>
+        <v>3806</v>
       </c>
       <c r="AZ19" s="19">
-        <v>4619</v>
+        <v>4773</v>
       </c>
       <c r="BA19" s="19">
-        <v>3806</v>
+        <v>5206</v>
       </c>
       <c r="BB19" s="19">
-        <v>4774</v>
+        <v>6146</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2783,7 +2783,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2838,7 +2838,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2893,7 +2893,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>66</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3105,7 +3105,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>66</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>55</v>
       </c>
@@ -3171,157 +3171,157 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>636</v>
+        <v>790</v>
       </c>
       <c r="F26" s="11">
-        <v>705</v>
+        <v>780</v>
       </c>
       <c r="G26" s="11">
-        <v>790</v>
+        <v>542</v>
       </c>
       <c r="H26" s="11">
-        <v>780</v>
+        <v>466</v>
       </c>
       <c r="I26" s="11">
-        <v>542</v>
+        <v>649</v>
       </c>
       <c r="J26" s="11">
-        <v>466</v>
+        <v>605</v>
       </c>
       <c r="K26" s="11">
-        <v>649</v>
+        <v>986</v>
       </c>
       <c r="L26" s="11">
-        <v>605</v>
+        <v>1097</v>
       </c>
       <c r="M26" s="11">
-        <v>986</v>
+        <v>955</v>
       </c>
       <c r="N26" s="11">
-        <v>1097</v>
+        <v>817</v>
       </c>
       <c r="O26" s="11">
-        <v>955</v>
+        <v>512</v>
       </c>
       <c r="P26" s="11">
-        <v>817</v>
+        <v>544</v>
       </c>
       <c r="Q26" s="11">
-        <v>512</v>
+        <v>648</v>
       </c>
       <c r="R26" s="11">
-        <v>544</v>
+        <v>829</v>
       </c>
       <c r="S26" s="11">
-        <v>648</v>
+        <v>1067</v>
       </c>
       <c r="T26" s="11">
-        <v>829</v>
+        <v>971</v>
       </c>
       <c r="U26" s="11">
-        <v>1067</v>
+        <v>1249</v>
       </c>
       <c r="V26" s="11">
-        <v>971</v>
+        <v>760</v>
       </c>
       <c r="W26" s="11">
-        <v>1249</v>
+        <v>1017</v>
       </c>
       <c r="X26" s="11">
-        <v>760</v>
+        <v>1059</v>
       </c>
       <c r="Y26" s="11">
-        <v>1017</v>
+        <v>716</v>
       </c>
       <c r="Z26" s="11">
-        <v>1059</v>
+        <v>870</v>
       </c>
       <c r="AA26" s="11">
-        <v>716</v>
+        <v>962</v>
       </c>
       <c r="AB26" s="11">
-        <v>870</v>
+        <v>1085</v>
       </c>
       <c r="AC26" s="11">
-        <v>962</v>
+        <v>687</v>
       </c>
       <c r="AD26" s="11">
-        <v>1085</v>
+        <v>670</v>
       </c>
       <c r="AE26" s="11">
-        <v>687</v>
+        <v>773</v>
       </c>
       <c r="AF26" s="11">
-        <v>670</v>
+        <v>390</v>
       </c>
       <c r="AG26" s="11">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="AH26" s="11">
-        <v>390</v>
+        <v>1265</v>
       </c>
       <c r="AI26" s="11">
-        <v>779</v>
+        <v>901</v>
       </c>
       <c r="AJ26" s="11">
-        <v>1265</v>
+        <v>602</v>
       </c>
       <c r="AK26" s="11">
-        <v>901</v>
+        <v>948</v>
       </c>
       <c r="AL26" s="11">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="AM26" s="11">
-        <v>948</v>
+        <v>451</v>
       </c>
       <c r="AN26" s="11">
-        <v>575</v>
+        <v>945</v>
       </c>
       <c r="AO26" s="11">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="AP26" s="11">
-        <v>945</v>
+        <v>922</v>
       </c>
       <c r="AQ26" s="11">
-        <v>600</v>
+        <v>759</v>
       </c>
       <c r="AR26" s="11">
-        <v>922</v>
+        <v>264</v>
       </c>
       <c r="AS26" s="11">
-        <v>759</v>
+        <v>224</v>
       </c>
       <c r="AT26" s="11">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="AU26" s="11">
-        <v>238</v>
+        <v>658</v>
       </c>
       <c r="AV26" s="11">
-        <v>306</v>
+        <v>596</v>
       </c>
       <c r="AW26" s="11">
-        <v>658</v>
+        <v>501</v>
       </c>
       <c r="AX26" s="11">
-        <v>596</v>
+        <v>982</v>
       </c>
       <c r="AY26" s="11">
-        <v>514</v>
+        <v>931</v>
       </c>
       <c r="AZ26" s="11">
-        <v>982</v>
+        <v>793</v>
       </c>
       <c r="BA26" s="11">
-        <v>931</v>
+        <v>601</v>
       </c>
       <c r="BB26" s="11">
-        <v>793</v>
+        <v>904</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>57</v>
       </c>
@@ -3330,157 +3330,157 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>756</v>
+        <v>704</v>
       </c>
       <c r="F27" s="13">
-        <v>632</v>
+        <v>822</v>
       </c>
       <c r="G27" s="13">
-        <v>704</v>
+        <v>837</v>
       </c>
       <c r="H27" s="13">
-        <v>822</v>
+        <v>392</v>
       </c>
       <c r="I27" s="13">
-        <v>837</v>
+        <v>710</v>
       </c>
       <c r="J27" s="13">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K27" s="13">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="L27" s="13">
-        <v>396</v>
+        <v>743</v>
       </c>
       <c r="M27" s="13">
-        <v>740</v>
+        <v>573</v>
       </c>
       <c r="N27" s="13">
-        <v>743</v>
+        <v>521</v>
       </c>
       <c r="O27" s="13">
-        <v>573</v>
+        <v>722</v>
       </c>
       <c r="P27" s="13">
-        <v>521</v>
+        <v>640</v>
       </c>
       <c r="Q27" s="13">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="R27" s="13">
-        <v>640</v>
+        <v>929</v>
       </c>
       <c r="S27" s="13">
-        <v>724</v>
+        <v>941</v>
       </c>
       <c r="T27" s="13">
-        <v>929</v>
+        <v>1162</v>
       </c>
       <c r="U27" s="13">
-        <v>941</v>
+        <v>1237</v>
       </c>
       <c r="V27" s="13">
-        <v>1162</v>
+        <v>885</v>
       </c>
       <c r="W27" s="13">
-        <v>1237</v>
+        <v>1142</v>
       </c>
       <c r="X27" s="13">
-        <v>885</v>
+        <v>755</v>
       </c>
       <c r="Y27" s="13">
-        <v>1142</v>
+        <v>1164</v>
       </c>
       <c r="Z27" s="13">
-        <v>755</v>
+        <v>654</v>
       </c>
       <c r="AA27" s="13">
-        <v>1164</v>
+        <v>1026</v>
       </c>
       <c r="AB27" s="13">
-        <v>654</v>
+        <v>1298</v>
       </c>
       <c r="AC27" s="13">
-        <v>1026</v>
+        <v>1065</v>
       </c>
       <c r="AD27" s="13">
-        <v>1298</v>
+        <v>1038</v>
       </c>
       <c r="AE27" s="13">
-        <v>1065</v>
+        <v>1152</v>
       </c>
       <c r="AF27" s="13">
-        <v>1038</v>
+        <v>610</v>
       </c>
       <c r="AG27" s="13">
-        <v>1152</v>
+        <v>1004</v>
       </c>
       <c r="AH27" s="13">
-        <v>610</v>
+        <v>945</v>
       </c>
       <c r="AI27" s="13">
-        <v>1004</v>
+        <v>860</v>
       </c>
       <c r="AJ27" s="13">
-        <v>945</v>
+        <v>846</v>
       </c>
       <c r="AK27" s="13">
-        <v>860</v>
+        <v>1052</v>
       </c>
       <c r="AL27" s="13">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="AM27" s="13">
-        <v>1052</v>
+        <v>728</v>
       </c>
       <c r="AN27" s="13">
-        <v>831</v>
+        <v>966</v>
       </c>
       <c r="AO27" s="13">
-        <v>728</v>
+        <v>762</v>
       </c>
       <c r="AP27" s="13">
-        <v>966</v>
+        <v>695</v>
       </c>
       <c r="AQ27" s="13">
-        <v>762</v>
+        <v>665</v>
       </c>
       <c r="AR27" s="13">
-        <v>695</v>
+        <v>323</v>
       </c>
       <c r="AS27" s="13">
-        <v>665</v>
+        <v>121</v>
       </c>
       <c r="AT27" s="13">
-        <v>323</v>
+        <v>588</v>
       </c>
       <c r="AU27" s="13">
-        <v>121</v>
+        <v>588</v>
       </c>
       <c r="AV27" s="13">
-        <v>588</v>
+        <v>471</v>
       </c>
       <c r="AW27" s="13">
-        <v>588</v>
+        <v>462</v>
       </c>
       <c r="AX27" s="13">
-        <v>471</v>
+        <v>638</v>
       </c>
       <c r="AY27" s="13">
-        <v>459</v>
+        <v>584</v>
       </c>
       <c r="AZ27" s="13">
-        <v>638</v>
+        <v>836</v>
       </c>
       <c r="BA27" s="13">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="BB27" s="13">
-        <v>836</v>
+        <v>782</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>58</v>
       </c>
@@ -3489,157 +3489,157 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="F28" s="11">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="G28" s="11">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="H28" s="11">
-        <v>274</v>
+        <v>154</v>
       </c>
       <c r="I28" s="11">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="J28" s="11">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="K28" s="11">
-        <v>214</v>
+        <v>318</v>
       </c>
       <c r="L28" s="11">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="M28" s="11">
-        <v>318</v>
+        <v>438</v>
       </c>
       <c r="N28" s="11">
-        <v>344</v>
+        <v>455</v>
       </c>
       <c r="O28" s="11">
-        <v>438</v>
+        <v>300</v>
       </c>
       <c r="P28" s="11">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="Q28" s="11">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="R28" s="11">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="S28" s="11">
-        <v>257</v>
+        <v>408</v>
       </c>
       <c r="T28" s="11">
-        <v>326</v>
+        <v>229</v>
       </c>
       <c r="U28" s="11">
-        <v>408</v>
+        <v>314</v>
       </c>
       <c r="V28" s="11">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="W28" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X28" s="11">
+        <v>235</v>
+      </c>
+      <c r="Y28" s="11">
+        <v>308</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>207</v>
+      </c>
+      <c r="AA28" s="11">
+        <v>287</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>260</v>
+      </c>
+      <c r="AC28" s="11">
+        <v>196</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>231</v>
+      </c>
+      <c r="AE28" s="11">
+        <v>334</v>
+      </c>
+      <c r="AF28" s="11">
+        <v>124</v>
+      </c>
+      <c r="AG28" s="11">
+        <v>322</v>
+      </c>
+      <c r="AH28" s="11">
+        <v>363</v>
+      </c>
+      <c r="AI28" s="11">
+        <v>288</v>
+      </c>
+      <c r="AJ28" s="11">
+        <v>261</v>
+      </c>
+      <c r="AK28" s="11">
+        <v>293</v>
+      </c>
+      <c r="AL28" s="11">
+        <v>268</v>
+      </c>
+      <c r="AM28" s="11">
+        <v>152</v>
+      </c>
+      <c r="AN28" s="11">
+        <v>324</v>
+      </c>
+      <c r="AO28" s="11">
+        <v>145</v>
+      </c>
+      <c r="AP28" s="11">
+        <v>194</v>
+      </c>
+      <c r="AQ28" s="11">
+        <v>158</v>
+      </c>
+      <c r="AR28" s="11">
+        <v>59</v>
+      </c>
+      <c r="AS28" s="11">
+        <v>25</v>
+      </c>
+      <c r="AT28" s="11">
+        <v>134</v>
+      </c>
+      <c r="AU28" s="11">
+        <v>175</v>
+      </c>
+      <c r="AV28" s="11">
+        <v>208</v>
+      </c>
+      <c r="AW28" s="11">
         <v>272</v>
       </c>
-      <c r="Y28" s="11">
-        <v>315</v>
-      </c>
-      <c r="Z28" s="11">
-        <v>235</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>308</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>207</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>287</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>260</v>
-      </c>
-      <c r="AE28" s="11">
-        <v>196</v>
-      </c>
-      <c r="AF28" s="11">
-        <v>231</v>
-      </c>
-      <c r="AG28" s="11">
-        <v>334</v>
-      </c>
-      <c r="AH28" s="11">
-        <v>124</v>
-      </c>
-      <c r="AI28" s="11">
-        <v>322</v>
-      </c>
-      <c r="AJ28" s="11">
-        <v>363</v>
-      </c>
-      <c r="AK28" s="11">
-        <v>288</v>
-      </c>
-      <c r="AL28" s="11">
-        <v>261</v>
-      </c>
-      <c r="AM28" s="11">
-        <v>293</v>
-      </c>
-      <c r="AN28" s="11">
+      <c r="AX28" s="11">
         <v>268</v>
       </c>
-      <c r="AO28" s="11">
-        <v>152</v>
-      </c>
-      <c r="AP28" s="11">
-        <v>324</v>
-      </c>
-      <c r="AQ28" s="11">
-        <v>145</v>
-      </c>
-      <c r="AR28" s="11">
-        <v>194</v>
-      </c>
-      <c r="AS28" s="11">
-        <v>158</v>
-      </c>
-      <c r="AT28" s="11">
-        <v>59</v>
-      </c>
-      <c r="AU28" s="11">
-        <v>25</v>
-      </c>
-      <c r="AV28" s="11">
-        <v>134</v>
-      </c>
-      <c r="AW28" s="11">
-        <v>175</v>
-      </c>
-      <c r="AX28" s="11">
-        <v>208</v>
-      </c>
       <c r="AY28" s="11">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="AZ28" s="11">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="BA28" s="11">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="BB28" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>59</v>
       </c>
@@ -3648,157 +3648,157 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>2474</v>
+        <v>2682</v>
       </c>
       <c r="F29" s="13">
-        <v>2660</v>
+        <v>2898</v>
       </c>
       <c r="G29" s="13">
-        <v>2682</v>
+        <v>3133</v>
       </c>
       <c r="H29" s="13">
-        <v>2898</v>
+        <v>1491</v>
       </c>
       <c r="I29" s="13">
-        <v>3133</v>
+        <v>2490</v>
       </c>
       <c r="J29" s="13">
-        <v>1491</v>
+        <v>2080</v>
       </c>
       <c r="K29" s="13">
-        <v>2490</v>
+        <v>2836</v>
       </c>
       <c r="L29" s="13">
-        <v>2080</v>
+        <v>2039</v>
       </c>
       <c r="M29" s="13">
-        <v>2836</v>
+        <v>2720</v>
       </c>
       <c r="N29" s="13">
-        <v>2039</v>
+        <v>2319</v>
       </c>
       <c r="O29" s="13">
-        <v>2720</v>
+        <v>2282</v>
       </c>
       <c r="P29" s="13">
-        <v>2319</v>
+        <v>2393</v>
       </c>
       <c r="Q29" s="13">
-        <v>2282</v>
+        <v>2105</v>
       </c>
       <c r="R29" s="13">
-        <v>2393</v>
+        <v>2476</v>
       </c>
       <c r="S29" s="13">
-        <v>2105</v>
+        <v>3281</v>
       </c>
       <c r="T29" s="13">
-        <v>2476</v>
+        <v>1742</v>
       </c>
       <c r="U29" s="13">
-        <v>3281</v>
+        <v>3380</v>
       </c>
       <c r="V29" s="13">
-        <v>1742</v>
+        <v>2961</v>
       </c>
       <c r="W29" s="13">
-        <v>3380</v>
+        <v>2346</v>
       </c>
       <c r="X29" s="13">
-        <v>2961</v>
+        <v>2109</v>
       </c>
       <c r="Y29" s="13">
-        <v>2346</v>
+        <v>2807</v>
       </c>
       <c r="Z29" s="13">
-        <v>2109</v>
+        <v>1952</v>
       </c>
       <c r="AA29" s="13">
-        <v>2807</v>
+        <v>2637</v>
       </c>
       <c r="AB29" s="13">
-        <v>1952</v>
+        <v>3279</v>
       </c>
       <c r="AC29" s="13">
-        <v>2637</v>
+        <v>2040</v>
       </c>
       <c r="AD29" s="13">
-        <v>3279</v>
+        <v>2435</v>
       </c>
       <c r="AE29" s="13">
-        <v>2040</v>
+        <v>2445</v>
       </c>
       <c r="AF29" s="13">
-        <v>2435</v>
+        <v>1265</v>
       </c>
       <c r="AG29" s="13">
-        <v>2445</v>
+        <v>2563</v>
       </c>
       <c r="AH29" s="13">
-        <v>1265</v>
+        <v>3252</v>
       </c>
       <c r="AI29" s="13">
-        <v>2563</v>
+        <v>2650</v>
       </c>
       <c r="AJ29" s="13">
-        <v>3252</v>
+        <v>2841</v>
       </c>
       <c r="AK29" s="13">
-        <v>2650</v>
+        <v>3424</v>
       </c>
       <c r="AL29" s="13">
-        <v>2841</v>
+        <v>2303</v>
       </c>
       <c r="AM29" s="13">
-        <v>3424</v>
+        <v>1896</v>
       </c>
       <c r="AN29" s="13">
-        <v>2303</v>
+        <v>2912</v>
       </c>
       <c r="AO29" s="13">
-        <v>1896</v>
+        <v>1716</v>
       </c>
       <c r="AP29" s="13">
-        <v>2912</v>
+        <v>1391</v>
       </c>
       <c r="AQ29" s="13">
-        <v>1716</v>
+        <v>2345</v>
       </c>
       <c r="AR29" s="13">
-        <v>1391</v>
+        <v>679</v>
       </c>
       <c r="AS29" s="13">
-        <v>2345</v>
+        <v>137</v>
       </c>
       <c r="AT29" s="13">
-        <v>679</v>
+        <v>1431</v>
       </c>
       <c r="AU29" s="13">
-        <v>137</v>
+        <v>2609</v>
       </c>
       <c r="AV29" s="13">
-        <v>1431</v>
+        <v>1402</v>
       </c>
       <c r="AW29" s="13">
-        <v>2609</v>
+        <v>2141</v>
       </c>
       <c r="AX29" s="13">
-        <v>1402</v>
+        <v>3370</v>
       </c>
       <c r="AY29" s="13">
-        <v>2106</v>
+        <v>2265</v>
       </c>
       <c r="AZ29" s="13">
-        <v>3370</v>
+        <v>3003</v>
       </c>
       <c r="BA29" s="13">
-        <v>2265</v>
+        <v>3096</v>
       </c>
       <c r="BB29" s="13">
-        <v>3003</v>
+        <v>3502</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>60</v>
       </c>
@@ -3806,119 +3806,119 @@
         <v>56</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>61</v>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1</v>
       </c>
       <c r="G30" s="11">
         <v>1</v>
       </c>
       <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
         <v>1</v>
       </c>
-      <c r="I30" s="11">
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
         <v>1</v>
       </c>
-      <c r="J30" s="11">
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11">
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+      <c r="O30" s="11">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0</v>
+      </c>
+      <c r="R30" s="11">
+        <v>0</v>
+      </c>
+      <c r="S30" s="11">
+        <v>0</v>
+      </c>
+      <c r="T30" s="11">
+        <v>0</v>
+      </c>
+      <c r="U30" s="11">
+        <v>0</v>
+      </c>
+      <c r="V30" s="11">
+        <v>0</v>
+      </c>
+      <c r="W30" s="11">
+        <v>0</v>
+      </c>
+      <c r="X30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="11">
         <v>1</v>
       </c>
-      <c r="M30" s="11">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-      <c r="O30" s="11">
-        <v>1</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>0</v>
-      </c>
-      <c r="R30" s="11">
-        <v>0</v>
-      </c>
-      <c r="S30" s="11">
-        <v>0</v>
-      </c>
-      <c r="T30" s="11">
-        <v>0</v>
-      </c>
-      <c r="U30" s="11">
-        <v>0</v>
-      </c>
-      <c r="V30" s="11">
-        <v>0</v>
-      </c>
-      <c r="W30" s="11">
-        <v>0</v>
-      </c>
-      <c r="X30" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="11">
-        <v>0</v>
-      </c>
       <c r="AO30" s="11">
         <v>0</v>
       </c>
       <c r="AP30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="11">
         <v>0</v>
@@ -3957,166 +3957,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="M31" s="13">
+        <v>47</v>
+      </c>
+      <c r="N31" s="13">
+        <v>56</v>
       </c>
       <c r="O31" s="13">
-        <v>47</v>
+        <v>319</v>
       </c>
       <c r="P31" s="13">
-        <v>56</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>319</v>
-      </c>
-      <c r="R31" s="13">
         <v>751</v>
       </c>
+      <c r="Q31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="S31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AX31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AZ31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BB31" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>63</v>
       </c>
@@ -4173,89 +4173,89 @@
       <c r="BA32" s="15"/>
       <c r="BB32" s="15"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB33" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC33" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="AC33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="17">
+        <v>0</v>
       </c>
       <c r="AE33" s="17">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>67</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>68</v>
       </c>
@@ -4396,239 +4396,239 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV35" s="11">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="AU35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV35" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AW35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY35" s="11">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="AX35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY35" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AZ35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BB35" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB36" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC36" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD36" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="AC36" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="19">
+        <v>0</v>
       </c>
       <c r="AE36" s="19">
         <v>0</v>
@@ -4703,164 +4703,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17">
-        <v>4058</v>
+        <v>4452</v>
       </c>
       <c r="F37" s="17">
-        <v>4238</v>
+        <v>4775</v>
       </c>
       <c r="G37" s="17">
-        <v>4452</v>
+        <v>4736</v>
       </c>
       <c r="H37" s="17">
-        <v>4775</v>
+        <v>2503</v>
       </c>
       <c r="I37" s="17">
-        <v>4736</v>
+        <v>4063</v>
       </c>
       <c r="J37" s="17">
-        <v>2503</v>
+        <v>3314</v>
       </c>
       <c r="K37" s="17">
-        <v>4063</v>
+        <v>4880</v>
       </c>
       <c r="L37" s="17">
-        <v>3314</v>
+        <v>4223</v>
       </c>
       <c r="M37" s="17">
-        <v>4880</v>
+        <v>4734</v>
       </c>
       <c r="N37" s="17">
-        <v>4223</v>
+        <v>4168</v>
       </c>
       <c r="O37" s="17">
-        <v>4734</v>
+        <v>4135</v>
       </c>
       <c r="P37" s="17">
-        <v>4168</v>
+        <v>4715</v>
       </c>
       <c r="Q37" s="17">
-        <v>4135</v>
+        <v>3734</v>
       </c>
       <c r="R37" s="17">
-        <v>4715</v>
+        <v>4560</v>
       </c>
       <c r="S37" s="17">
-        <v>3734</v>
+        <v>5697</v>
       </c>
       <c r="T37" s="17">
-        <v>4560</v>
+        <v>4103</v>
       </c>
       <c r="U37" s="17">
-        <v>5697</v>
+        <v>6180</v>
       </c>
       <c r="V37" s="17">
-        <v>4103</v>
+        <v>4878</v>
       </c>
       <c r="W37" s="17">
-        <v>6180</v>
+        <v>4820</v>
       </c>
       <c r="X37" s="17">
-        <v>4878</v>
+        <v>4158</v>
       </c>
       <c r="Y37" s="17">
-        <v>4820</v>
+        <v>4995</v>
       </c>
       <c r="Z37" s="17">
-        <v>4158</v>
+        <v>3683</v>
       </c>
       <c r="AA37" s="17">
-        <v>4995</v>
+        <v>4912</v>
       </c>
       <c r="AB37" s="17">
-        <v>3683</v>
+        <v>5922</v>
       </c>
       <c r="AC37" s="17">
-        <v>4912</v>
+        <v>3988</v>
       </c>
       <c r="AD37" s="17">
-        <v>5922</v>
+        <v>4373</v>
       </c>
       <c r="AE37" s="17">
-        <v>3988</v>
+        <v>4704</v>
       </c>
       <c r="AF37" s="17">
-        <v>4373</v>
+        <v>2389</v>
       </c>
       <c r="AG37" s="17">
-        <v>4704</v>
+        <v>4668</v>
       </c>
       <c r="AH37" s="17">
-        <v>2389</v>
+        <v>5824</v>
       </c>
       <c r="AI37" s="17">
-        <v>4668</v>
+        <v>4698</v>
       </c>
       <c r="AJ37" s="17">
-        <v>5824</v>
+        <v>4550</v>
       </c>
       <c r="AK37" s="17">
-        <v>4698</v>
+        <v>5717</v>
       </c>
       <c r="AL37" s="17">
-        <v>4550</v>
+        <v>3977</v>
       </c>
       <c r="AM37" s="17">
-        <v>5717</v>
+        <v>3227</v>
       </c>
       <c r="AN37" s="17">
-        <v>3977</v>
+        <v>5148</v>
       </c>
       <c r="AO37" s="17">
-        <v>3227</v>
+        <v>3223</v>
       </c>
       <c r="AP37" s="17">
-        <v>5148</v>
+        <v>3202</v>
       </c>
       <c r="AQ37" s="17">
-        <v>3223</v>
+        <v>3927</v>
       </c>
       <c r="AR37" s="17">
-        <v>3202</v>
+        <v>1325</v>
       </c>
       <c r="AS37" s="17">
-        <v>3927</v>
+        <v>508</v>
       </c>
       <c r="AT37" s="17">
-        <v>1325</v>
+        <v>2470</v>
       </c>
       <c r="AU37" s="17">
-        <v>522</v>
+        <v>4030</v>
       </c>
       <c r="AV37" s="17">
-        <v>2459</v>
+        <v>2677</v>
       </c>
       <c r="AW37" s="17">
-        <v>4030</v>
+        <v>3376</v>
       </c>
       <c r="AX37" s="17">
-        <v>2677</v>
+        <v>5258</v>
       </c>
       <c r="AY37" s="17">
-        <v>3346</v>
+        <v>3926</v>
       </c>
       <c r="AZ37" s="17">
-        <v>5258</v>
+        <v>4887</v>
       </c>
       <c r="BA37" s="17">
-        <v>3926</v>
+        <v>4581</v>
       </c>
       <c r="BB37" s="17">
-        <v>4887</v>
+        <v>5447</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4915,7 +4915,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4970,7 +4970,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5025,7 +5025,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>70</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5237,7 +5237,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>70</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="9"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>55</v>
       </c>
@@ -5303,157 +5303,157 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>80845</v>
+        <v>112237</v>
       </c>
       <c r="F44" s="11">
-        <v>104092</v>
+        <v>111971</v>
       </c>
       <c r="G44" s="11">
-        <v>112237</v>
+        <v>77275</v>
       </c>
       <c r="H44" s="11">
-        <v>111971</v>
+        <v>67067</v>
       </c>
       <c r="I44" s="11">
-        <v>77275</v>
+        <v>96944</v>
       </c>
       <c r="J44" s="11">
-        <v>67067</v>
+        <v>93757</v>
       </c>
       <c r="K44" s="11">
-        <v>96944</v>
+        <v>174703</v>
       </c>
       <c r="L44" s="11">
-        <v>93757</v>
+        <v>182831</v>
       </c>
       <c r="M44" s="11">
-        <v>174703</v>
+        <v>151901</v>
       </c>
       <c r="N44" s="11">
-        <v>182831</v>
+        <v>143352</v>
       </c>
       <c r="O44" s="11">
-        <v>151901</v>
+        <v>87628</v>
       </c>
       <c r="P44" s="11">
-        <v>143352</v>
+        <v>118337</v>
       </c>
       <c r="Q44" s="11">
-        <v>87628</v>
+        <v>110904</v>
       </c>
       <c r="R44" s="11">
-        <v>118337</v>
+        <v>139501</v>
       </c>
       <c r="S44" s="11">
-        <v>110904</v>
+        <v>180763</v>
       </c>
       <c r="T44" s="11">
-        <v>139501</v>
+        <v>161672</v>
       </c>
       <c r="U44" s="11">
-        <v>180763</v>
+        <v>225074</v>
       </c>
       <c r="V44" s="11">
-        <v>161672</v>
+        <v>114396</v>
       </c>
       <c r="W44" s="11">
-        <v>225074</v>
+        <v>201538</v>
       </c>
       <c r="X44" s="11">
-        <v>114396</v>
+        <v>216534</v>
       </c>
       <c r="Y44" s="11">
-        <v>201538</v>
+        <v>156946</v>
       </c>
       <c r="Z44" s="11">
-        <v>216534</v>
+        <v>179022</v>
       </c>
       <c r="AA44" s="11">
-        <v>156946</v>
+        <v>254353</v>
       </c>
       <c r="AB44" s="11">
-        <v>179022</v>
+        <v>288656</v>
       </c>
       <c r="AC44" s="11">
-        <v>254353</v>
+        <v>202287</v>
       </c>
       <c r="AD44" s="11">
-        <v>288656</v>
+        <v>221074</v>
       </c>
       <c r="AE44" s="11">
-        <v>202287</v>
+        <v>219450</v>
       </c>
       <c r="AF44" s="11">
-        <v>221074</v>
+        <v>115588</v>
       </c>
       <c r="AG44" s="11">
-        <v>219450</v>
+        <v>231562</v>
       </c>
       <c r="AH44" s="11">
-        <v>115588</v>
+        <v>395702</v>
       </c>
       <c r="AI44" s="11">
-        <v>231562</v>
+        <v>310888</v>
       </c>
       <c r="AJ44" s="11">
-        <v>395702</v>
+        <v>231953</v>
       </c>
       <c r="AK44" s="11">
-        <v>310888</v>
+        <v>341074</v>
       </c>
       <c r="AL44" s="11">
-        <v>231953</v>
+        <v>207740</v>
       </c>
       <c r="AM44" s="11">
-        <v>341074</v>
+        <v>181310</v>
       </c>
       <c r="AN44" s="11">
-        <v>207740</v>
+        <v>293156</v>
       </c>
       <c r="AO44" s="11">
-        <v>181310</v>
+        <v>191376</v>
       </c>
       <c r="AP44" s="11">
-        <v>293156</v>
+        <v>298784</v>
       </c>
       <c r="AQ44" s="11">
-        <v>191376</v>
+        <v>264456</v>
       </c>
       <c r="AR44" s="11">
-        <v>298784</v>
+        <v>110464</v>
       </c>
       <c r="AS44" s="11">
-        <v>264456</v>
+        <v>81019</v>
       </c>
       <c r="AT44" s="11">
-        <v>110464</v>
+        <v>163230</v>
       </c>
       <c r="AU44" s="11">
-        <v>78719</v>
+        <v>300371</v>
       </c>
       <c r="AV44" s="11">
-        <v>162750</v>
+        <v>274099</v>
       </c>
       <c r="AW44" s="11">
-        <v>300371</v>
+        <v>259001</v>
       </c>
       <c r="AX44" s="11">
-        <v>274099</v>
+        <v>475118</v>
       </c>
       <c r="AY44" s="11">
-        <v>257735</v>
+        <v>515288</v>
       </c>
       <c r="AZ44" s="11">
-        <v>475118</v>
+        <v>459676</v>
       </c>
       <c r="BA44" s="11">
-        <v>515288</v>
+        <v>330642</v>
       </c>
       <c r="BB44" s="11">
-        <v>454589</v>
+        <v>496217</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>57</v>
       </c>
@@ -5462,157 +5462,157 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>40236</v>
+        <v>40655</v>
       </c>
       <c r="F45" s="13">
-        <v>37145</v>
+        <v>46729</v>
       </c>
       <c r="G45" s="13">
-        <v>40655</v>
+        <v>47086</v>
       </c>
       <c r="H45" s="13">
-        <v>46729</v>
+        <v>22449</v>
       </c>
       <c r="I45" s="13">
-        <v>47086</v>
+        <v>41395</v>
       </c>
       <c r="J45" s="13">
-        <v>22449</v>
+        <v>21392</v>
       </c>
       <c r="K45" s="13">
-        <v>41395</v>
+        <v>49011</v>
       </c>
       <c r="L45" s="13">
-        <v>21392</v>
+        <v>51187</v>
       </c>
       <c r="M45" s="13">
-        <v>49011</v>
+        <v>38314</v>
       </c>
       <c r="N45" s="13">
-        <v>51187</v>
+        <v>35837</v>
       </c>
       <c r="O45" s="13">
-        <v>38314</v>
+        <v>47993</v>
       </c>
       <c r="P45" s="13">
-        <v>35837</v>
+        <v>37788</v>
       </c>
       <c r="Q45" s="13">
-        <v>47993</v>
+        <v>48422</v>
       </c>
       <c r="R45" s="13">
-        <v>37788</v>
+        <v>59846</v>
       </c>
       <c r="S45" s="13">
-        <v>48422</v>
+        <v>101008</v>
       </c>
       <c r="T45" s="13">
-        <v>59846</v>
+        <v>153783</v>
       </c>
       <c r="U45" s="13">
-        <v>101008</v>
+        <v>90079</v>
       </c>
       <c r="V45" s="13">
-        <v>153783</v>
+        <v>63047</v>
       </c>
       <c r="W45" s="13">
-        <v>90079</v>
+        <v>95711</v>
       </c>
       <c r="X45" s="13">
-        <v>63047</v>
+        <v>66952</v>
       </c>
       <c r="Y45" s="13">
-        <v>95711</v>
+        <v>96747</v>
       </c>
       <c r="Z45" s="13">
-        <v>66952</v>
+        <v>54222</v>
       </c>
       <c r="AA45" s="13">
-        <v>96747</v>
+        <v>101662</v>
       </c>
       <c r="AB45" s="13">
-        <v>54222</v>
+        <v>121106</v>
       </c>
       <c r="AC45" s="13">
-        <v>101662</v>
+        <v>108525</v>
       </c>
       <c r="AD45" s="13">
-        <v>121106</v>
+        <v>121344</v>
       </c>
       <c r="AE45" s="13">
-        <v>108525</v>
+        <v>122024</v>
       </c>
       <c r="AF45" s="13">
-        <v>121344</v>
+        <v>54611</v>
       </c>
       <c r="AG45" s="13">
-        <v>122024</v>
+        <v>98510</v>
       </c>
       <c r="AH45" s="13">
-        <v>54611</v>
+        <v>116879</v>
       </c>
       <c r="AI45" s="13">
-        <v>98510</v>
+        <v>93879</v>
       </c>
       <c r="AJ45" s="13">
-        <v>116879</v>
+        <v>109005</v>
       </c>
       <c r="AK45" s="13">
-        <v>93879</v>
+        <v>141033</v>
       </c>
       <c r="AL45" s="13">
-        <v>109005</v>
+        <v>100553</v>
       </c>
       <c r="AM45" s="13">
-        <v>141033</v>
+        <v>89876</v>
       </c>
       <c r="AN45" s="13">
-        <v>100553</v>
+        <v>95639</v>
       </c>
       <c r="AO45" s="13">
-        <v>89876</v>
+        <v>99797</v>
       </c>
       <c r="AP45" s="13">
-        <v>95639</v>
+        <v>86638</v>
       </c>
       <c r="AQ45" s="13">
-        <v>99797</v>
+        <v>91716</v>
       </c>
       <c r="AR45" s="13">
-        <v>86638</v>
+        <v>41055</v>
       </c>
       <c r="AS45" s="13">
-        <v>91716</v>
+        <v>12675</v>
       </c>
       <c r="AT45" s="13">
-        <v>41055</v>
+        <v>97668</v>
       </c>
       <c r="AU45" s="13">
-        <v>12675</v>
+        <v>95401</v>
       </c>
       <c r="AV45" s="13">
-        <v>97668</v>
+        <v>86746</v>
       </c>
       <c r="AW45" s="13">
-        <v>95401</v>
+        <v>82999</v>
       </c>
       <c r="AX45" s="13">
-        <v>86746</v>
+        <v>104444</v>
       </c>
       <c r="AY45" s="13">
-        <v>81885</v>
+        <v>104980</v>
       </c>
       <c r="AZ45" s="13">
-        <v>104444</v>
+        <v>142386</v>
       </c>
       <c r="BA45" s="13">
-        <v>104980</v>
+        <v>103586</v>
       </c>
       <c r="BB45" s="13">
-        <v>139224</v>
+        <v>129727</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>58</v>
       </c>
@@ -5621,157 +5621,157 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>50570</v>
+        <v>76056</v>
       </c>
       <c r="F46" s="11">
-        <v>67355</v>
+        <v>83926</v>
       </c>
       <c r="G46" s="11">
-        <v>76056</v>
+        <v>67541</v>
       </c>
       <c r="H46" s="11">
-        <v>83926</v>
+        <v>46248</v>
       </c>
       <c r="I46" s="11">
-        <v>67541</v>
+        <v>66301</v>
       </c>
       <c r="J46" s="11">
-        <v>46248</v>
+        <v>67489</v>
       </c>
       <c r="K46" s="11">
-        <v>66301</v>
+        <v>106680</v>
       </c>
       <c r="L46" s="11">
-        <v>67489</v>
+        <v>122500</v>
       </c>
       <c r="M46" s="11">
-        <v>106680</v>
+        <v>141231</v>
       </c>
       <c r="N46" s="11">
-        <v>122500</v>
+        <v>150564</v>
       </c>
       <c r="O46" s="11">
-        <v>141231</v>
+        <v>101673</v>
       </c>
       <c r="P46" s="11">
-        <v>150564</v>
+        <v>140918</v>
       </c>
       <c r="Q46" s="11">
-        <v>101673</v>
+        <v>89350</v>
       </c>
       <c r="R46" s="11">
-        <v>140918</v>
+        <v>110747</v>
       </c>
       <c r="S46" s="11">
-        <v>89350</v>
+        <v>136173</v>
       </c>
       <c r="T46" s="11">
-        <v>110747</v>
+        <v>73983</v>
       </c>
       <c r="U46" s="11">
-        <v>136173</v>
+        <v>109299</v>
       </c>
       <c r="V46" s="11">
-        <v>73983</v>
+        <v>92576</v>
       </c>
       <c r="W46" s="11">
-        <v>109299</v>
+        <v>124974</v>
       </c>
       <c r="X46" s="11">
-        <v>92576</v>
+        <v>95372</v>
       </c>
       <c r="Y46" s="11">
-        <v>124974</v>
+        <v>127312</v>
       </c>
       <c r="Z46" s="11">
-        <v>95372</v>
+        <v>82248</v>
       </c>
       <c r="AA46" s="11">
-        <v>127312</v>
+        <v>141653</v>
       </c>
       <c r="AB46" s="11">
-        <v>82248</v>
+        <v>138246</v>
       </c>
       <c r="AC46" s="11">
-        <v>141653</v>
+        <v>113979</v>
       </c>
       <c r="AD46" s="11">
-        <v>138246</v>
+        <v>143885</v>
       </c>
       <c r="AE46" s="11">
-        <v>113979</v>
+        <v>186543</v>
       </c>
       <c r="AF46" s="11">
-        <v>143885</v>
+        <v>67827</v>
       </c>
       <c r="AG46" s="11">
-        <v>186543</v>
+        <v>180171</v>
       </c>
       <c r="AH46" s="11">
-        <v>67827</v>
+        <v>237116</v>
       </c>
       <c r="AI46" s="11">
-        <v>180171</v>
+        <v>183475</v>
       </c>
       <c r="AJ46" s="11">
-        <v>237116</v>
+        <v>200590</v>
       </c>
       <c r="AK46" s="11">
-        <v>183475</v>
+        <v>209870</v>
       </c>
       <c r="AL46" s="11">
-        <v>200590</v>
+        <v>193905</v>
       </c>
       <c r="AM46" s="11">
-        <v>209870</v>
+        <v>124736</v>
       </c>
       <c r="AN46" s="11">
-        <v>193905</v>
+        <v>218589</v>
       </c>
       <c r="AO46" s="11">
-        <v>124736</v>
+        <v>104044</v>
       </c>
       <c r="AP46" s="11">
-        <v>218589</v>
+        <v>134693</v>
       </c>
       <c r="AQ46" s="11">
-        <v>104044</v>
+        <v>96098</v>
       </c>
       <c r="AR46" s="11">
-        <v>134693</v>
+        <v>42711</v>
       </c>
       <c r="AS46" s="11">
-        <v>96098</v>
+        <v>10917</v>
       </c>
       <c r="AT46" s="11">
-        <v>42711</v>
+        <v>127863</v>
       </c>
       <c r="AU46" s="11">
-        <v>10917</v>
+        <v>165053</v>
       </c>
       <c r="AV46" s="11">
-        <v>127863</v>
+        <v>192849</v>
       </c>
       <c r="AW46" s="11">
-        <v>165053</v>
+        <v>269009</v>
       </c>
       <c r="AX46" s="11">
-        <v>192849</v>
+        <v>249722</v>
       </c>
       <c r="AY46" s="11">
-        <v>265788</v>
+        <v>148158</v>
       </c>
       <c r="AZ46" s="11">
-        <v>249722</v>
+        <v>246731</v>
       </c>
       <c r="BA46" s="11">
-        <v>148158</v>
+        <v>228066</v>
       </c>
       <c r="BB46" s="11">
-        <v>231269</v>
+        <v>239659</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>59</v>
       </c>
@@ -5780,157 +5780,157 @@
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13">
-        <v>193604</v>
+        <v>213617</v>
       </c>
       <c r="F47" s="13">
-        <v>209063</v>
+        <v>232102</v>
       </c>
       <c r="G47" s="13">
-        <v>213617</v>
+        <v>250761</v>
       </c>
       <c r="H47" s="13">
-        <v>232102</v>
+        <v>120573</v>
       </c>
       <c r="I47" s="13">
-        <v>250761</v>
+        <v>200588</v>
       </c>
       <c r="J47" s="13">
-        <v>120573</v>
+        <v>168013</v>
       </c>
       <c r="K47" s="13">
-        <v>200588</v>
+        <v>274229</v>
       </c>
       <c r="L47" s="13">
-        <v>168013</v>
+        <v>209469</v>
       </c>
       <c r="M47" s="13">
-        <v>274229</v>
+        <v>247548</v>
       </c>
       <c r="N47" s="13">
-        <v>209469</v>
+        <v>222095</v>
       </c>
       <c r="O47" s="13">
-        <v>247548</v>
+        <v>217873</v>
       </c>
       <c r="P47" s="13">
-        <v>222095</v>
+        <v>216970</v>
       </c>
       <c r="Q47" s="13">
-        <v>217873</v>
+        <v>200921</v>
       </c>
       <c r="R47" s="13">
-        <v>216970</v>
+        <v>234895</v>
       </c>
       <c r="S47" s="13">
-        <v>200921</v>
+        <v>297133</v>
       </c>
       <c r="T47" s="13">
-        <v>234895</v>
+        <v>160398</v>
       </c>
       <c r="U47" s="13">
-        <v>297133</v>
+        <v>325326</v>
       </c>
       <c r="V47" s="13">
-        <v>160398</v>
+        <v>312512</v>
       </c>
       <c r="W47" s="13">
-        <v>325326</v>
+        <v>267713</v>
       </c>
       <c r="X47" s="13">
-        <v>312512</v>
+        <v>245054</v>
       </c>
       <c r="Y47" s="13">
-        <v>267713</v>
+        <v>350295</v>
       </c>
       <c r="Z47" s="13">
-        <v>245054</v>
+        <v>224376</v>
       </c>
       <c r="AA47" s="13">
-        <v>350295</v>
+        <v>381588</v>
       </c>
       <c r="AB47" s="13">
-        <v>224376</v>
+        <v>474430</v>
       </c>
       <c r="AC47" s="13">
-        <v>381588</v>
+        <v>295610</v>
       </c>
       <c r="AD47" s="13">
-        <v>474430</v>
+        <v>389637</v>
       </c>
       <c r="AE47" s="13">
-        <v>295610</v>
+        <v>364215</v>
       </c>
       <c r="AF47" s="13">
-        <v>389637</v>
+        <v>183295</v>
       </c>
       <c r="AG47" s="13">
-        <v>364215</v>
+        <v>376926</v>
       </c>
       <c r="AH47" s="13">
-        <v>183295</v>
+        <v>544247</v>
       </c>
       <c r="AI47" s="13">
-        <v>376926</v>
+        <v>438333</v>
       </c>
       <c r="AJ47" s="13">
-        <v>544247</v>
+        <v>550647</v>
       </c>
       <c r="AK47" s="13">
-        <v>438333</v>
+        <v>605683</v>
       </c>
       <c r="AL47" s="13">
-        <v>550647</v>
+        <v>415017</v>
       </c>
       <c r="AM47" s="13">
-        <v>605683</v>
+        <v>362643</v>
       </c>
       <c r="AN47" s="13">
-        <v>415017</v>
+        <v>483766</v>
       </c>
       <c r="AO47" s="13">
-        <v>362643</v>
+        <v>291124</v>
       </c>
       <c r="AP47" s="13">
-        <v>483766</v>
+        <v>217378</v>
       </c>
       <c r="AQ47" s="13">
-        <v>291124</v>
+        <v>443117</v>
       </c>
       <c r="AR47" s="13">
-        <v>217378</v>
+        <v>122801</v>
       </c>
       <c r="AS47" s="13">
-        <v>443117</v>
+        <v>19775</v>
       </c>
       <c r="AT47" s="13">
-        <v>122801</v>
+        <v>336012</v>
       </c>
       <c r="AU47" s="13">
-        <v>22120</v>
+        <v>628988</v>
       </c>
       <c r="AV47" s="13">
-        <v>336012</v>
+        <v>344593</v>
       </c>
       <c r="AW47" s="13">
-        <v>628988</v>
+        <v>519496</v>
       </c>
       <c r="AX47" s="13">
-        <v>344593</v>
+        <v>810425</v>
       </c>
       <c r="AY47" s="13">
-        <v>510886</v>
+        <v>550715</v>
       </c>
       <c r="AZ47" s="13">
-        <v>810425</v>
+        <v>735831</v>
       </c>
       <c r="BA47" s="13">
-        <v>550715</v>
+        <v>741881</v>
       </c>
       <c r="BB47" s="13">
-        <v>669918</v>
+        <v>838700</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>60</v>
       </c>
@@ -5938,317 +5938,317 @@
         <v>71</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="11">
+        <v>130</v>
+      </c>
+      <c r="F48" s="11">
+        <v>306</v>
+      </c>
+      <c r="G48" s="11">
+        <v>34</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>245</v>
+      </c>
+      <c r="K48" s="11">
+        <v>489</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>437</v>
+      </c>
+      <c r="N48" s="11">
+        <v>3</v>
+      </c>
+      <c r="O48" s="11">
+        <v>65</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>197</v>
+      </c>
+      <c r="W48" s="11">
+        <v>4</v>
+      </c>
+      <c r="X48" s="11">
+        <v>40</v>
+      </c>
+      <c r="Y48" s="11">
+        <v>44</v>
+      </c>
+      <c r="Z48" s="11">
+        <v>32</v>
+      </c>
+      <c r="AA48" s="11">
+        <v>60</v>
+      </c>
+      <c r="AB48" s="11">
+        <v>25</v>
+      </c>
+      <c r="AC48" s="11">
+        <v>18</v>
+      </c>
+      <c r="AD48" s="11">
+        <v>55</v>
+      </c>
+      <c r="AE48" s="11">
+        <v>36</v>
+      </c>
+      <c r="AF48" s="11">
+        <v>566</v>
+      </c>
+      <c r="AG48" s="11">
+        <v>58</v>
+      </c>
+      <c r="AH48" s="11">
+        <v>17</v>
+      </c>
+      <c r="AI48" s="11">
+        <v>24</v>
+      </c>
+      <c r="AJ48" s="11">
+        <v>307</v>
+      </c>
+      <c r="AK48" s="11">
+        <v>23</v>
+      </c>
+      <c r="AL48" s="11">
+        <v>15</v>
+      </c>
+      <c r="AM48" s="11">
+        <v>119</v>
+      </c>
+      <c r="AN48" s="11">
+        <v>2474</v>
+      </c>
+      <c r="AO48" s="11">
+        <v>53</v>
+      </c>
+      <c r="AP48" s="11">
+        <v>26</v>
+      </c>
+      <c r="AQ48" s="11">
+        <v>79</v>
+      </c>
+      <c r="AR48" s="11">
+        <v>19</v>
+      </c>
+      <c r="AS48" s="11">
+        <v>10</v>
+      </c>
+      <c r="AT48" s="11">
+        <v>51</v>
+      </c>
+      <c r="AU48" s="11">
+        <v>619</v>
+      </c>
+      <c r="AV48" s="11">
+        <v>147</v>
+      </c>
+      <c r="AW48" s="11">
+        <v>21</v>
+      </c>
+      <c r="AX48" s="11">
+        <v>35</v>
+      </c>
+      <c r="AY48" s="11">
+        <v>200</v>
+      </c>
+      <c r="AZ48" s="11">
+        <v>107</v>
+      </c>
+      <c r="BA48" s="11">
+        <v>30</v>
+      </c>
+      <c r="BB48" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" s="11">
-        <v>130</v>
-      </c>
-      <c r="H48" s="11">
-        <v>306</v>
-      </c>
-      <c r="I48" s="11">
-        <v>34</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>245</v>
-      </c>
-      <c r="M48" s="11">
-        <v>489</v>
-      </c>
-      <c r="N48" s="11">
-        <v>0</v>
-      </c>
-      <c r="O48" s="11">
-        <v>437</v>
-      </c>
-      <c r="P48" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="11">
-        <v>65</v>
-      </c>
-      <c r="R48" s="11">
-        <v>0</v>
-      </c>
-      <c r="S48" s="11">
-        <v>0</v>
-      </c>
-      <c r="T48" s="11">
-        <v>0</v>
-      </c>
-      <c r="U48" s="11">
-        <v>0</v>
-      </c>
-      <c r="V48" s="11">
-        <v>0</v>
-      </c>
-      <c r="W48" s="11">
-        <v>0</v>
-      </c>
-      <c r="X48" s="11">
-        <v>197</v>
-      </c>
-      <c r="Y48" s="11">
-        <v>4</v>
-      </c>
-      <c r="Z48" s="11">
-        <v>40</v>
-      </c>
-      <c r="AA48" s="11">
-        <v>44</v>
-      </c>
-      <c r="AB48" s="11">
-        <v>32</v>
-      </c>
-      <c r="AC48" s="11">
-        <v>60</v>
-      </c>
-      <c r="AD48" s="11">
-        <v>25</v>
-      </c>
-      <c r="AE48" s="11">
-        <v>18</v>
-      </c>
-      <c r="AF48" s="11">
-        <v>55</v>
-      </c>
-      <c r="AG48" s="11">
-        <v>36</v>
-      </c>
-      <c r="AH48" s="11">
-        <v>566</v>
-      </c>
-      <c r="AI48" s="11">
-        <v>58</v>
-      </c>
-      <c r="AJ48" s="11">
-        <v>17</v>
-      </c>
-      <c r="AK48" s="11">
-        <v>24</v>
-      </c>
-      <c r="AL48" s="11">
-        <v>307</v>
-      </c>
-      <c r="AM48" s="11">
-        <v>23</v>
-      </c>
-      <c r="AN48" s="11">
-        <v>15</v>
-      </c>
-      <c r="AO48" s="11">
-        <v>119</v>
-      </c>
-      <c r="AP48" s="11">
-        <v>2474</v>
-      </c>
-      <c r="AQ48" s="11">
-        <v>53</v>
-      </c>
-      <c r="AR48" s="11">
-        <v>26</v>
-      </c>
-      <c r="AS48" s="11">
-        <v>79</v>
-      </c>
-      <c r="AT48" s="11">
-        <v>19</v>
-      </c>
-      <c r="AU48" s="11">
-        <v>10</v>
-      </c>
-      <c r="AV48" s="11">
-        <v>51</v>
-      </c>
-      <c r="AW48" s="11">
-        <v>619</v>
-      </c>
-      <c r="AX48" s="11">
-        <v>147</v>
-      </c>
-      <c r="AY48" s="11">
-        <v>27</v>
-      </c>
-      <c r="AZ48" s="11">
-        <v>35</v>
-      </c>
-      <c r="BA48" s="11">
-        <v>200</v>
-      </c>
-      <c r="BB48" s="11">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B49" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M49" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="M49" s="13">
+        <v>842</v>
+      </c>
+      <c r="N49" s="13">
+        <v>1011</v>
       </c>
       <c r="O49" s="13">
-        <v>842</v>
+        <v>5750</v>
       </c>
       <c r="P49" s="13">
-        <v>1011</v>
-      </c>
-      <c r="Q49" s="13">
-        <v>5750</v>
-      </c>
-      <c r="R49" s="13">
         <v>13512</v>
       </c>
+      <c r="Q49" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="S49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AX49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AZ49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BB49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>72</v>
       </c>
@@ -6305,7 +6305,7 @@
       <c r="BA50" s="15"/>
       <c r="BB50" s="15"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>64</v>
       </c>
@@ -6314,82 +6314,82 @@
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB51" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC51" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="AC51" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="17">
+        <v>0</v>
       </c>
       <c r="AE51" s="17">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>68</v>
       </c>
@@ -6521,7 +6521,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>68</v>
       </c>
@@ -6530,124 +6530,124 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP53" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ53" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR53" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="AQ53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="11">
+        <v>0</v>
       </c>
       <c r="AS53" s="11">
         <v>0</v>
@@ -6673,14 +6673,14 @@
       <c r="AZ53" s="11">
         <v>0</v>
       </c>
-      <c r="BA53" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB53" s="11">
-        <v>0</v>
+      <c r="BA53" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB53" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>69</v>
       </c>
@@ -6689,82 +6689,82 @@
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB54" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC54" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD54" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="AC54" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="19">
+        <v>0</v>
       </c>
       <c r="AE54" s="19">
         <v>0</v>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>73</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>74</v>
       </c>
@@ -6905,82 +6905,82 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB56" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC56" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="AC56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="11">
+        <v>0</v>
       </c>
       <c r="AE56" s="11">
         <v>0</v>
@@ -7055,164 +7055,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19">
-        <v>365255</v>
+        <v>442695</v>
       </c>
       <c r="F57" s="19">
-        <v>417655</v>
+        <v>475034</v>
       </c>
       <c r="G57" s="19">
-        <v>442695</v>
+        <v>442697</v>
       </c>
       <c r="H57" s="19">
-        <v>475034</v>
+        <v>256337</v>
       </c>
       <c r="I57" s="19">
-        <v>442697</v>
+        <v>405228</v>
       </c>
       <c r="J57" s="19">
-        <v>256337</v>
+        <v>350896</v>
       </c>
       <c r="K57" s="19">
-        <v>405228</v>
+        <v>605112</v>
       </c>
       <c r="L57" s="19">
-        <v>350896</v>
+        <v>565987</v>
       </c>
       <c r="M57" s="19">
-        <v>605112</v>
+        <v>580273</v>
       </c>
       <c r="N57" s="19">
-        <v>565987</v>
+        <v>552862</v>
       </c>
       <c r="O57" s="19">
-        <v>580273</v>
+        <v>460982</v>
       </c>
       <c r="P57" s="19">
-        <v>552862</v>
+        <v>527525</v>
       </c>
       <c r="Q57" s="19">
-        <v>460982</v>
+        <v>449597</v>
       </c>
       <c r="R57" s="19">
-        <v>527525</v>
+        <v>544989</v>
       </c>
       <c r="S57" s="19">
-        <v>449597</v>
+        <v>715077</v>
       </c>
       <c r="T57" s="19">
-        <v>544989</v>
+        <v>549836</v>
       </c>
       <c r="U57" s="19">
-        <v>715077</v>
+        <v>749778</v>
       </c>
       <c r="V57" s="19">
-        <v>549836</v>
+        <v>582728</v>
       </c>
       <c r="W57" s="19">
-        <v>749778</v>
+        <v>689940</v>
       </c>
       <c r="X57" s="19">
-        <v>582728</v>
+        <v>623952</v>
       </c>
       <c r="Y57" s="19">
-        <v>689940</v>
+        <v>731344</v>
       </c>
       <c r="Z57" s="19">
-        <v>623952</v>
+        <v>539900</v>
       </c>
       <c r="AA57" s="19">
-        <v>731344</v>
+        <v>879316</v>
       </c>
       <c r="AB57" s="19">
-        <v>539900</v>
+        <v>1022463</v>
       </c>
       <c r="AC57" s="19">
-        <v>879316</v>
+        <v>720419</v>
       </c>
       <c r="AD57" s="19">
-        <v>1022463</v>
+        <v>875995</v>
       </c>
       <c r="AE57" s="19">
-        <v>720419</v>
+        <v>892268</v>
       </c>
       <c r="AF57" s="19">
-        <v>875995</v>
+        <v>421887</v>
       </c>
       <c r="AG57" s="19">
-        <v>892268</v>
+        <v>887227</v>
       </c>
       <c r="AH57" s="19">
-        <v>421887</v>
+        <v>1293961</v>
       </c>
       <c r="AI57" s="19">
-        <v>887227</v>
+        <v>1026599</v>
       </c>
       <c r="AJ57" s="19">
-        <v>1293961</v>
+        <v>1092502</v>
       </c>
       <c r="AK57" s="19">
-        <v>1026599</v>
+        <v>1297683</v>
       </c>
       <c r="AL57" s="19">
-        <v>1092502</v>
+        <v>917230</v>
       </c>
       <c r="AM57" s="19">
-        <v>1297683</v>
+        <v>758684</v>
       </c>
       <c r="AN57" s="19">
-        <v>917230</v>
+        <v>1093624</v>
       </c>
       <c r="AO57" s="19">
-        <v>758684</v>
+        <v>686394</v>
       </c>
       <c r="AP57" s="19">
-        <v>1093624</v>
+        <v>737519</v>
       </c>
       <c r="AQ57" s="19">
-        <v>686394</v>
+        <v>895466</v>
       </c>
       <c r="AR57" s="19">
-        <v>737519</v>
+        <v>317050</v>
       </c>
       <c r="AS57" s="19">
-        <v>895466</v>
+        <v>124396</v>
       </c>
       <c r="AT57" s="19">
-        <v>317050</v>
+        <v>724824</v>
       </c>
       <c r="AU57" s="19">
-        <v>124441</v>
+        <v>1190432</v>
       </c>
       <c r="AV57" s="19">
-        <v>724344</v>
+        <v>898434</v>
       </c>
       <c r="AW57" s="19">
-        <v>1190432</v>
+        <v>1130526</v>
       </c>
       <c r="AX57" s="19">
-        <v>898434</v>
+        <v>1639744</v>
       </c>
       <c r="AY57" s="19">
-        <v>1116321</v>
+        <v>1319341</v>
       </c>
       <c r="AZ57" s="19">
-        <v>1639744</v>
+        <v>1584731</v>
       </c>
       <c r="BA57" s="19">
-        <v>1319341</v>
+        <v>1404205</v>
       </c>
       <c r="BB57" s="19">
-        <v>1495142</v>
+        <v>1704355</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -7267,7 +7267,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7322,7 +7322,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -7377,7 +7377,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>75</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7589,7 +7589,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>76</v>
       </c>
@@ -7646,7 +7646,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>55</v>
       </c>
@@ -7655,157 +7655,157 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>127114780</v>
+        <v>142072152</v>
       </c>
       <c r="F64" s="11">
-        <v>147648227</v>
+        <v>143552564</v>
       </c>
       <c r="G64" s="11">
-        <v>142072152</v>
+        <v>142573801</v>
       </c>
       <c r="H64" s="11">
-        <v>143552564</v>
+        <v>143920601</v>
       </c>
       <c r="I64" s="11">
-        <v>142573801</v>
+        <v>149374422</v>
       </c>
       <c r="J64" s="11">
-        <v>143920601</v>
+        <v>154970248</v>
       </c>
       <c r="K64" s="11">
-        <v>149374422</v>
+        <v>177183570</v>
       </c>
       <c r="L64" s="11">
-        <v>154970248</v>
+        <v>166664540</v>
       </c>
       <c r="M64" s="11">
-        <v>177183570</v>
+        <v>159058639</v>
       </c>
       <c r="N64" s="11">
-        <v>166664540</v>
+        <v>175461444</v>
       </c>
       <c r="O64" s="11">
-        <v>159058639</v>
+        <v>171148438</v>
       </c>
       <c r="P64" s="11">
-        <v>175461444</v>
+        <v>217531250</v>
       </c>
       <c r="Q64" s="11">
-        <v>171148438</v>
+        <v>171148148</v>
       </c>
       <c r="R64" s="11">
-        <v>217531250</v>
+        <v>168276236</v>
       </c>
       <c r="S64" s="11">
-        <v>171148148</v>
+        <v>169412371</v>
       </c>
       <c r="T64" s="11">
-        <v>168276236</v>
+        <v>166466399</v>
       </c>
       <c r="U64" s="11">
-        <v>169412371</v>
+        <v>180154321</v>
       </c>
       <c r="V64" s="11">
-        <v>166466399</v>
+        <v>150618360</v>
       </c>
       <c r="W64" s="11">
-        <v>180154321</v>
+        <v>198227209</v>
       </c>
       <c r="X64" s="11">
-        <v>150618360</v>
+        <v>204461567</v>
       </c>
       <c r="Y64" s="11">
-        <v>198227209</v>
+        <v>219213632</v>
       </c>
       <c r="Z64" s="11">
-        <v>204461567</v>
+        <v>205846471</v>
       </c>
       <c r="AA64" s="11">
-        <v>219213632</v>
+        <v>264352394</v>
       </c>
       <c r="AB64" s="11">
-        <v>205846471</v>
+        <v>265938962</v>
       </c>
       <c r="AC64" s="11">
-        <v>264352394</v>
+        <v>294501223</v>
       </c>
       <c r="AD64" s="11">
-        <v>265938962</v>
+        <v>330074503</v>
       </c>
       <c r="AE64" s="11">
-        <v>294501223</v>
+        <v>283736452</v>
       </c>
       <c r="AF64" s="11">
-        <v>330074503</v>
+        <v>296379487</v>
       </c>
       <c r="AG64" s="11">
-        <v>283736452</v>
+        <v>297255456</v>
       </c>
       <c r="AH64" s="11">
-        <v>296379487</v>
+        <v>312750300</v>
       </c>
       <c r="AI64" s="11">
-        <v>297255456</v>
+        <v>345109392</v>
       </c>
       <c r="AJ64" s="11">
-        <v>312750300</v>
+        <v>385303987</v>
       </c>
       <c r="AK64" s="11">
-        <v>345109392</v>
+        <v>359782700</v>
       </c>
       <c r="AL64" s="11">
-        <v>385303987</v>
+        <v>361286957</v>
       </c>
       <c r="AM64" s="11">
-        <v>359782700</v>
+        <v>402017738</v>
       </c>
       <c r="AN64" s="11">
-        <v>361286957</v>
+        <v>310217989</v>
       </c>
       <c r="AO64" s="11">
-        <v>402017738</v>
+        <v>319066355</v>
       </c>
       <c r="AP64" s="11">
-        <v>310217989</v>
+        <v>324060738</v>
       </c>
       <c r="AQ64" s="11">
-        <v>319066355</v>
+        <v>348426877</v>
       </c>
       <c r="AR64" s="11">
-        <v>324060738</v>
+        <v>418424242</v>
       </c>
       <c r="AS64" s="11">
-        <v>348426877</v>
+        <v>361143800</v>
       </c>
       <c r="AT64" s="11">
-        <v>418424242</v>
+        <v>513966164</v>
       </c>
       <c r="AU64" s="11">
-        <v>358598756</v>
+        <v>456263443</v>
       </c>
       <c r="AV64" s="11">
-        <v>515150160</v>
+        <v>460077514</v>
       </c>
       <c r="AW64" s="11">
-        <v>456263443</v>
+        <v>517422487</v>
       </c>
       <c r="AX64" s="11">
-        <v>460077068</v>
+        <v>483826884</v>
       </c>
       <c r="AY64" s="11">
-        <v>516069229</v>
+        <v>553477981</v>
       </c>
       <c r="AZ64" s="11">
-        <v>483826884</v>
+        <v>579849890</v>
       </c>
       <c r="BA64" s="11">
-        <v>553477981</v>
+        <v>550153078</v>
       </c>
       <c r="BB64" s="11">
-        <v>573252207</v>
+        <v>548912611</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>57</v>
       </c>
@@ -7814,157 +7814,157 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>53222222</v>
+        <v>57748580</v>
       </c>
       <c r="F65" s="13">
-        <v>58773734</v>
+        <v>56847932</v>
       </c>
       <c r="G65" s="13">
-        <v>57748580</v>
+        <v>56255675</v>
       </c>
       <c r="H65" s="13">
-        <v>56847932</v>
+        <v>57267857</v>
       </c>
       <c r="I65" s="13">
-        <v>56255675</v>
+        <v>58302817</v>
       </c>
       <c r="J65" s="13">
-        <v>57267857</v>
+        <v>54020202</v>
       </c>
       <c r="K65" s="13">
-        <v>58302817</v>
+        <v>66231081</v>
       </c>
       <c r="L65" s="13">
-        <v>54020202</v>
+        <v>68892328</v>
       </c>
       <c r="M65" s="13">
-        <v>66231081</v>
+        <v>66865620</v>
       </c>
       <c r="N65" s="13">
-        <v>68892328</v>
+        <v>68785029</v>
       </c>
       <c r="O65" s="13">
-        <v>66865620</v>
+        <v>66472299</v>
       </c>
       <c r="P65" s="13">
-        <v>68785029</v>
+        <v>59043750</v>
       </c>
       <c r="Q65" s="13">
-        <v>66472299</v>
+        <v>66881215</v>
       </c>
       <c r="R65" s="13">
-        <v>59043750</v>
+        <v>64419806</v>
       </c>
       <c r="S65" s="13">
-        <v>66881215</v>
+        <v>107341126</v>
       </c>
       <c r="T65" s="13">
-        <v>64419806</v>
+        <v>132380855</v>
       </c>
       <c r="U65" s="13">
-        <v>107341126</v>
+        <v>72799347</v>
       </c>
       <c r="V65" s="13">
-        <v>132380855</v>
+        <v>71211868</v>
       </c>
       <c r="W65" s="13">
-        <v>72799347</v>
+        <v>83801324</v>
       </c>
       <c r="X65" s="13">
-        <v>71211868</v>
+        <v>88631893</v>
       </c>
       <c r="Y65" s="13">
-        <v>83801324</v>
+        <v>83105270</v>
       </c>
       <c r="Z65" s="13">
-        <v>88631893</v>
+        <v>82890513</v>
       </c>
       <c r="AA65" s="13">
-        <v>83105270</v>
+        <v>99131664</v>
       </c>
       <c r="AB65" s="13">
-        <v>82890513</v>
+        <v>93312139</v>
       </c>
       <c r="AC65" s="13">
-        <v>99131664</v>
+        <v>101888015</v>
       </c>
       <c r="AD65" s="13">
-        <v>93312139</v>
+        <v>116944546</v>
       </c>
       <c r="AE65" s="13">
-        <v>101888015</v>
+        <v>105955895</v>
       </c>
       <c r="AF65" s="13">
-        <v>116944546</v>
+        <v>89526230</v>
       </c>
       <c r="AG65" s="13">
-        <v>105955895</v>
+        <v>98117530</v>
       </c>
       <c r="AH65" s="13">
-        <v>89526230</v>
+        <v>123745122</v>
       </c>
       <c r="AI65" s="13">
-        <v>98117530</v>
+        <v>109223606</v>
       </c>
       <c r="AJ65" s="13">
-        <v>123745122</v>
+        <v>128847518</v>
       </c>
       <c r="AK65" s="13">
-        <v>109223606</v>
+        <v>134061787</v>
       </c>
       <c r="AL65" s="13">
-        <v>128847518</v>
+        <v>121002407</v>
       </c>
       <c r="AM65" s="13">
-        <v>134061787</v>
+        <v>123456044</v>
       </c>
       <c r="AN65" s="13">
-        <v>121002407</v>
+        <v>99005176</v>
       </c>
       <c r="AO65" s="13">
-        <v>123456044</v>
+        <v>130967192</v>
       </c>
       <c r="AP65" s="13">
-        <v>99005176</v>
+        <v>124658993</v>
       </c>
       <c r="AQ65" s="13">
-        <v>130967192</v>
+        <v>137918797</v>
       </c>
       <c r="AR65" s="13">
-        <v>124658993</v>
+        <v>127105263</v>
       </c>
       <c r="AS65" s="13">
-        <v>137918797</v>
+        <v>104987203</v>
       </c>
       <c r="AT65" s="13">
-        <v>127105263</v>
+        <v>166157144</v>
       </c>
       <c r="AU65" s="13">
-        <v>104987203</v>
+        <v>162151459</v>
       </c>
       <c r="AV65" s="13">
-        <v>166156928</v>
+        <v>184164713</v>
       </c>
       <c r="AW65" s="13">
-        <v>162151459</v>
+        <v>179616525</v>
       </c>
       <c r="AX65" s="13">
-        <v>184164645</v>
+        <v>163705329</v>
       </c>
       <c r="AY65" s="13">
-        <v>179480492</v>
+        <v>179760274</v>
       </c>
       <c r="AZ65" s="13">
-        <v>163705329</v>
+        <v>170273373</v>
       </c>
       <c r="BA65" s="13">
-        <v>179760274</v>
+        <v>163642970</v>
       </c>
       <c r="BB65" s="13">
-        <v>166535885</v>
+        <v>165891304</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>58</v>
       </c>
@@ -7973,157 +7973,157 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>263385417</v>
+        <v>276567273</v>
       </c>
       <c r="F66" s="11">
-        <v>279481328</v>
+        <v>306299270</v>
       </c>
       <c r="G66" s="11">
-        <v>276567273</v>
+        <v>302874439</v>
       </c>
       <c r="H66" s="11">
-        <v>306299270</v>
+        <v>300311688</v>
       </c>
       <c r="I66" s="11">
-        <v>302874439</v>
+        <v>309817757</v>
       </c>
       <c r="J66" s="11">
-        <v>300311688</v>
+        <v>290900862</v>
       </c>
       <c r="K66" s="11">
-        <v>309817757</v>
+        <v>335471698</v>
       </c>
       <c r="L66" s="11">
-        <v>290900862</v>
+        <v>356104651</v>
       </c>
       <c r="M66" s="11">
-        <v>335471698</v>
+        <v>322445205</v>
       </c>
       <c r="N66" s="11">
-        <v>356104651</v>
+        <v>330909890</v>
       </c>
       <c r="O66" s="11">
-        <v>322445205</v>
+        <v>338910000</v>
       </c>
       <c r="P66" s="11">
-        <v>330909890</v>
+        <v>364129199</v>
       </c>
       <c r="Q66" s="11">
-        <v>338910000</v>
+        <v>347665370</v>
       </c>
       <c r="R66" s="11">
-        <v>364129199</v>
+        <v>339714724</v>
       </c>
       <c r="S66" s="11">
-        <v>347665370</v>
+        <v>333757353</v>
       </c>
       <c r="T66" s="11">
-        <v>339714724</v>
+        <v>323761219</v>
       </c>
       <c r="U66" s="11">
-        <v>333757353</v>
+        <v>348330040</v>
       </c>
       <c r="V66" s="11">
-        <v>323761219</v>
+        <v>340069133</v>
       </c>
       <c r="W66" s="11">
-        <v>348330040</v>
+        <v>396474765</v>
       </c>
       <c r="X66" s="11">
-        <v>340069133</v>
+        <v>406703625</v>
       </c>
       <c r="Y66" s="11">
-        <v>396474765</v>
+        <v>413407023</v>
       </c>
       <c r="Z66" s="11">
-        <v>406703625</v>
+        <v>396616741</v>
       </c>
       <c r="AA66" s="11">
-        <v>413407023</v>
+        <v>492778075</v>
       </c>
       <c r="AB66" s="11">
-        <v>396616741</v>
+        <v>531337318</v>
       </c>
       <c r="AC66" s="11">
-        <v>492778075</v>
+        <v>581228965</v>
       </c>
       <c r="AD66" s="11">
-        <v>531337318</v>
+        <v>623040617</v>
       </c>
       <c r="AE66" s="11">
-        <v>581228965</v>
+        <v>559233625</v>
       </c>
       <c r="AF66" s="11">
-        <v>623040617</v>
+        <v>546991935</v>
       </c>
       <c r="AG66" s="11">
-        <v>559233625</v>
+        <v>559572023</v>
       </c>
       <c r="AH66" s="11">
-        <v>546991935</v>
+        <v>653669510</v>
       </c>
       <c r="AI66" s="11">
-        <v>559572023</v>
+        <v>637506471</v>
       </c>
       <c r="AJ66" s="11">
-        <v>653669510</v>
+        <v>768544061</v>
       </c>
       <c r="AK66" s="11">
-        <v>637506471</v>
+        <v>716279863</v>
       </c>
       <c r="AL66" s="11">
-        <v>768544061</v>
+        <v>723526119</v>
       </c>
       <c r="AM66" s="11">
-        <v>716279863</v>
+        <v>820631579</v>
       </c>
       <c r="AN66" s="11">
-        <v>723526119</v>
+        <v>674657407</v>
       </c>
       <c r="AO66" s="11">
-        <v>820631579</v>
+        <v>717544828</v>
       </c>
       <c r="AP66" s="11">
-        <v>674657407</v>
+        <v>694293814</v>
       </c>
       <c r="AQ66" s="11">
-        <v>717544828</v>
+        <v>608215190</v>
       </c>
       <c r="AR66" s="11">
-        <v>694293814</v>
+        <v>723915254</v>
       </c>
       <c r="AS66" s="11">
-        <v>608215190</v>
+        <v>428773418</v>
       </c>
       <c r="AT66" s="11">
-        <v>723915254</v>
+        <v>956299643</v>
       </c>
       <c r="AU66" s="11">
-        <v>428773418</v>
+        <v>945737811</v>
       </c>
       <c r="AV66" s="11">
-        <v>956002970</v>
+        <v>925801109</v>
       </c>
       <c r="AW66" s="11">
-        <v>945737811</v>
+        <v>990059254</v>
       </c>
       <c r="AX66" s="11">
-        <v>925800384</v>
+        <v>931798507</v>
       </c>
       <c r="AY66" s="11">
-        <v>989967707</v>
+        <v>1014780822</v>
       </c>
       <c r="AZ66" s="11">
-        <v>931798507</v>
+        <v>968674178</v>
       </c>
       <c r="BA66" s="11">
-        <v>1014780822</v>
+        <v>908629482</v>
       </c>
       <c r="BB66" s="11">
-        <v>906937255</v>
+        <v>927831978</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>59</v>
       </c>
@@ -8132,157 +8132,157 @@
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>78255457</v>
+        <v>79648397</v>
       </c>
       <c r="F67" s="13">
-        <v>78595113</v>
+        <v>80090407</v>
       </c>
       <c r="G67" s="13">
-        <v>79648397</v>
+        <v>80038621</v>
       </c>
       <c r="H67" s="13">
-        <v>80090407</v>
+        <v>80867203</v>
       </c>
       <c r="I67" s="13">
-        <v>80038621</v>
+        <v>80557430</v>
       </c>
       <c r="J67" s="13">
-        <v>80867203</v>
+        <v>80775481</v>
       </c>
       <c r="K67" s="13">
-        <v>80557430</v>
+        <v>96695698</v>
       </c>
       <c r="L67" s="13">
-        <v>80775481</v>
+        <v>102731241</v>
       </c>
       <c r="M67" s="13">
-        <v>96695698</v>
+        <v>91010294</v>
       </c>
       <c r="N67" s="13">
-        <v>102731241</v>
+        <v>95771884</v>
       </c>
       <c r="O67" s="13">
-        <v>91010294</v>
+        <v>95474584</v>
       </c>
       <c r="P67" s="13">
-        <v>95771884</v>
+        <v>90668617</v>
       </c>
       <c r="Q67" s="13">
-        <v>95474584</v>
+        <v>95449406</v>
       </c>
       <c r="R67" s="13">
-        <v>90668617</v>
+        <v>94868740</v>
       </c>
       <c r="S67" s="13">
-        <v>95449406</v>
+        <v>90561719</v>
       </c>
       <c r="T67" s="13">
-        <v>94868740</v>
+        <v>92091990</v>
       </c>
       <c r="U67" s="13">
-        <v>90561719</v>
+        <v>96261403</v>
       </c>
       <c r="V67" s="13">
-        <v>92091990</v>
+        <v>105532743</v>
       </c>
       <c r="W67" s="13">
-        <v>96261403</v>
+        <v>114105471</v>
       </c>
       <c r="X67" s="13">
-        <v>105532743</v>
+        <v>116200686</v>
       </c>
       <c r="Y67" s="13">
-        <v>114105471</v>
+        <v>124783594</v>
       </c>
       <c r="Z67" s="13">
-        <v>116200686</v>
+        <v>114931825</v>
       </c>
       <c r="AA67" s="13">
-        <v>124783594</v>
+        <v>144728069</v>
       </c>
       <c r="AB67" s="13">
-        <v>114931825</v>
+        <v>144705498</v>
       </c>
       <c r="AC67" s="13">
-        <v>144728069</v>
+        <v>144899050</v>
       </c>
       <c r="AD67" s="13">
-        <v>144705498</v>
+        <v>160017429</v>
       </c>
       <c r="AE67" s="13">
-        <v>144899050</v>
+        <v>148968735</v>
       </c>
       <c r="AF67" s="13">
-        <v>160017429</v>
+        <v>144897233</v>
       </c>
       <c r="AG67" s="13">
-        <v>148968735</v>
+        <v>147064378</v>
       </c>
       <c r="AH67" s="13">
-        <v>144897233</v>
+        <v>167375177</v>
       </c>
       <c r="AI67" s="13">
-        <v>147064378</v>
+        <v>165388458</v>
       </c>
       <c r="AJ67" s="13">
-        <v>167375177</v>
+        <v>193821542</v>
       </c>
       <c r="AK67" s="13">
-        <v>165388458</v>
+        <v>176893400</v>
       </c>
       <c r="AL67" s="13">
-        <v>193821542</v>
+        <v>180207121</v>
       </c>
       <c r="AM67" s="13">
-        <v>176893400</v>
+        <v>191267405</v>
       </c>
       <c r="AN67" s="13">
-        <v>180207121</v>
+        <v>166128434</v>
       </c>
       <c r="AO67" s="13">
-        <v>191267405</v>
+        <v>169680367</v>
       </c>
       <c r="AP67" s="13">
-        <v>166128434</v>
+        <v>156274623</v>
       </c>
       <c r="AQ67" s="13">
-        <v>169680367</v>
+        <v>188962473</v>
       </c>
       <c r="AR67" s="13">
-        <v>156274623</v>
+        <v>180855670</v>
       </c>
       <c r="AS67" s="13">
-        <v>188962473</v>
+        <v>143961620</v>
       </c>
       <c r="AT67" s="13">
-        <v>180855670</v>
+        <v>234784450</v>
       </c>
       <c r="AU67" s="13">
-        <v>144335738</v>
+        <v>241128025</v>
       </c>
       <c r="AV67" s="13">
-        <v>234784619</v>
+        <v>245823028</v>
       </c>
       <c r="AW67" s="13">
-        <v>241128025</v>
+        <v>242589635</v>
       </c>
       <c r="AX67" s="13">
-        <v>245823081</v>
+        <v>240482196</v>
       </c>
       <c r="AY67" s="13">
-        <v>242515438</v>
+        <v>243141280</v>
       </c>
       <c r="AZ67" s="13">
-        <v>240482196</v>
+        <v>245039312</v>
       </c>
       <c r="BA67" s="13">
-        <v>243141280</v>
+        <v>239625646</v>
       </c>
       <c r="BB67" s="13">
-        <v>223082917</v>
+        <v>239464367</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>60</v>
       </c>
@@ -8290,38 +8290,38 @@
         <v>77</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>61</v>
+      <c r="E68" s="11">
+        <v>130000000</v>
+      </c>
+      <c r="F68" s="11">
+        <v>306000000</v>
       </c>
       <c r="G68" s="11">
-        <v>130000000</v>
+        <v>34000000</v>
       </c>
       <c r="H68" s="11">
-        <v>306000000</v>
+        <v>0</v>
       </c>
       <c r="I68" s="11">
-        <v>34000000</v>
+        <v>0</v>
       </c>
       <c r="J68" s="11">
-        <v>0</v>
+        <v>245000000</v>
       </c>
       <c r="K68" s="11">
         <v>0</v>
       </c>
       <c r="L68" s="11">
-        <v>245000000</v>
+        <v>0</v>
       </c>
       <c r="M68" s="11">
-        <v>0</v>
+        <v>437000000</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="11">
-        <v>437000000</v>
+        <v>0</v>
       </c>
       <c r="P68" s="11">
         <v>0</v>
@@ -8342,262 +8342,262 @@
         <v>0</v>
       </c>
       <c r="V68" s="11">
-        <v>0</v>
+        <v>2030927835</v>
       </c>
       <c r="W68" s="11">
-        <v>0</v>
+        <v>1000000000</v>
       </c>
       <c r="X68" s="11">
-        <v>2030927835</v>
+        <v>1081081081</v>
       </c>
       <c r="Y68" s="11">
-        <v>1000000000</v>
+        <v>1294117647</v>
       </c>
       <c r="Z68" s="11">
-        <v>1081081081</v>
+        <v>1391304348</v>
       </c>
       <c r="AA68" s="11">
-        <v>1294117647</v>
+        <v>1578947368</v>
       </c>
       <c r="AB68" s="11">
-        <v>1391304348</v>
+        <v>1250000000</v>
       </c>
       <c r="AC68" s="11">
-        <v>1578947368</v>
+        <v>1800000000</v>
       </c>
       <c r="AD68" s="11">
         <v>1250000000</v>
       </c>
       <c r="AE68" s="11">
-        <v>1800000000</v>
+        <v>1058823529</v>
       </c>
       <c r="AF68" s="11">
-        <v>1250000000</v>
+        <v>17151515152</v>
       </c>
       <c r="AG68" s="11">
-        <v>1058823529</v>
+        <v>170588235</v>
       </c>
       <c r="AH68" s="11">
-        <v>17151515152</v>
+        <v>1700000000</v>
       </c>
       <c r="AI68" s="11">
-        <v>170588235</v>
+        <v>2666666667</v>
       </c>
       <c r="AJ68" s="11">
-        <v>1700000000</v>
+        <v>1615789474</v>
       </c>
       <c r="AK68" s="11">
-        <v>2666666667</v>
+        <v>575000000</v>
       </c>
       <c r="AL68" s="11">
-        <v>1615789474</v>
+        <v>1500000000</v>
       </c>
       <c r="AM68" s="11">
-        <v>575000000</v>
+        <v>3718750000</v>
       </c>
       <c r="AN68" s="11">
+        <v>2550515464</v>
+      </c>
+      <c r="AO68" s="11">
+        <v>2650000000</v>
+      </c>
+      <c r="AP68" s="11">
+        <v>1300000000</v>
+      </c>
+      <c r="AQ68" s="11">
+        <v>1580000000</v>
+      </c>
+      <c r="AR68" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS68" s="11">
+        <v>1428571429</v>
+      </c>
+      <c r="AT68" s="11">
+        <v>2318181818</v>
+      </c>
+      <c r="AU68" s="11">
+        <v>2127147766</v>
+      </c>
+      <c r="AV68" s="11">
+        <v>1441176471</v>
+      </c>
+      <c r="AW68" s="11">
+        <v>700000000</v>
+      </c>
+      <c r="AX68" s="11">
+        <v>1750000000</v>
+      </c>
+      <c r="AY68" s="11">
+        <v>1538461538</v>
+      </c>
+      <c r="AZ68" s="11">
+        <v>1528571429</v>
+      </c>
+      <c r="BA68" s="11">
         <v>1500000000</v>
       </c>
-      <c r="AO68" s="11">
-        <v>3718750000</v>
-      </c>
-      <c r="AP68" s="11">
-        <v>2550515464</v>
-      </c>
-      <c r="AQ68" s="11">
-        <v>2650000000</v>
-      </c>
-      <c r="AR68" s="11">
-        <v>1300000000</v>
-      </c>
-      <c r="AS68" s="11">
-        <v>1580000000</v>
-      </c>
-      <c r="AT68" s="11" t="s">
+      <c r="BB68" s="11">
+        <v>1733333333</v>
+      </c>
+    </row>
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B69" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="AU68" s="11">
-        <v>1428571429</v>
-      </c>
-      <c r="AV68" s="11">
-        <v>2318181818</v>
-      </c>
-      <c r="AW68" s="11">
-        <v>2127147766</v>
-      </c>
-      <c r="AX68" s="11">
-        <v>1448866422</v>
-      </c>
-      <c r="AY68" s="11">
-        <v>711111111</v>
-      </c>
-      <c r="AZ68" s="11">
-        <v>1750000000</v>
-      </c>
-      <c r="BA68" s="11">
-        <v>1538461538</v>
-      </c>
-      <c r="BB68" s="11">
-        <v>2028571429</v>
-      </c>
-    </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B69" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L69" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M69" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="M69" s="13">
+        <v>17914894</v>
+      </c>
+      <c r="N69" s="13">
+        <v>18053571</v>
       </c>
       <c r="O69" s="13">
-        <v>17914894</v>
+        <v>18025078</v>
       </c>
       <c r="P69" s="13">
-        <v>18053571</v>
-      </c>
-      <c r="Q69" s="13">
-        <v>18025078</v>
-      </c>
-      <c r="R69" s="13">
         <v>17992011</v>
       </c>
+      <c r="Q69" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R69" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="S69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AX69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AZ69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BB69" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
